--- a/data/event_study_data.xlsx
+++ b/data/event_study_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rients/PYTHON/2019-2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_course/in_progress/Workshop_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE3190-CC20-BA4A-8197-F1DFE21E569F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A89B1-C81B-514C-95F0-834BF20A3AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="1580" windowWidth="31040" windowHeight="15960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firms" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>8721AT</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>7418Z9</t>
-  </si>
-  <si>
-    <t>NAME</t>
   </si>
   <si>
     <t>AALBERTS INDUSTRIES</t>
@@ -242,12 +239,6 @@
   </si>
   <si>
     <t>505482(PI)</t>
-  </si>
-  <si>
-    <t>#ERROR</t>
-  </si>
-  <si>
-    <t>$$"ER", 2361, NO DATA AVAILABLE</t>
   </si>
   <si>
     <t>ROYAL DUTCH SHELL A - PRICE INDEX</t>
@@ -675,7 +666,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,10 +677,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -697,7 +688,7 @@
         <v>749352</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +704,7 @@
         <v>922956</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +712,7 @@
         <v>916642</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,7 +720,7 @@
         <v>912643</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +736,7 @@
         <v>899069</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,7 +744,7 @@
         <v>152001</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -761,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +760,7 @@
         <v>779426</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +784,7 @@
         <v>905001</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,7 +792,7 @@
         <v>531865</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +800,7 @@
         <v>142440</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +816,7 @@
         <v>933031</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -833,7 +824,7 @@
         <v>505482</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +840,7 @@
         <v>902178</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,7 +856,7 @@
         <v>932422</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -873,7 +864,7 @@
         <v>905478</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +872,7 @@
         <v>278066</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,7 +880,7 @@
         <v>932826</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z263"/>
+  <dimension ref="A1:Y263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,164 +901,161 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>56</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>66</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>68</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S2" t="s">
         <v>70</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" t="s">
         <v>72</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" t="s">
         <v>74</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V2" t="s">
         <v>76</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W2" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X2" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42734</v>
       </c>
@@ -1125,29 +1113,26 @@
       <c r="S3">
         <v>1182.9000000000001</v>
       </c>
-      <c r="T3" t="s">
-        <v>73</v>
+      <c r="T3">
+        <v>1514.4</v>
       </c>
       <c r="U3">
-        <v>1514.4</v>
+        <v>117</v>
       </c>
       <c r="V3">
-        <v>117</v>
+        <v>3482.2000000000003</v>
       </c>
       <c r="W3">
-        <v>3482.2000000000003</v>
+        <v>3501.8</v>
       </c>
       <c r="X3">
-        <v>3501.8</v>
+        <v>443.70000000000005</v>
       </c>
       <c r="Y3">
-        <v>443.70000000000005</v>
-      </c>
-      <c r="Z3">
         <v>4922.8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42737</v>
       </c>
@@ -1205,26 +1190,26 @@
       <c r="S4">
         <v>1202.9000000000001</v>
       </c>
+      <c r="T4">
+        <v>1528.1000000000001</v>
+      </c>
       <c r="U4">
-        <v>1528.1000000000001</v>
+        <v>118.2</v>
       </c>
       <c r="V4">
-        <v>118.2</v>
+        <v>3478.4</v>
       </c>
       <c r="W4">
-        <v>3478.4</v>
+        <v>3513.8</v>
       </c>
       <c r="X4">
-        <v>3513.8</v>
+        <v>447.40000000000003</v>
       </c>
       <c r="Y4">
-        <v>447.40000000000003</v>
-      </c>
-      <c r="Z4">
         <v>4975</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42738</v>
       </c>
@@ -1282,26 +1267,26 @@
       <c r="S5">
         <v>1213.4000000000001</v>
       </c>
+      <c r="T5">
+        <v>1546.5</v>
+      </c>
       <c r="U5">
-        <v>1546.5</v>
+        <v>117.7</v>
       </c>
       <c r="V5">
-        <v>117.7</v>
+        <v>3418.5</v>
       </c>
       <c r="W5">
-        <v>3418.5</v>
+        <v>3490.1000000000004</v>
       </c>
       <c r="X5">
-        <v>3490.1000000000004</v>
+        <v>448.8</v>
       </c>
       <c r="Y5">
-        <v>448.8</v>
-      </c>
-      <c r="Z5">
         <v>4942.8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42739</v>
       </c>
@@ -1359,26 +1344,26 @@
       <c r="S6">
         <v>1243</v>
       </c>
+      <c r="T6">
+        <v>1554</v>
+      </c>
       <c r="U6">
-        <v>1554</v>
+        <v>118</v>
       </c>
       <c r="V6">
-        <v>118</v>
+        <v>3426.9</v>
       </c>
       <c r="W6">
-        <v>3426.9</v>
+        <v>3495.5</v>
       </c>
       <c r="X6">
-        <v>3495.5</v>
+        <v>451.40000000000003</v>
       </c>
       <c r="Y6">
-        <v>451.40000000000003</v>
-      </c>
-      <c r="Z6">
         <v>4922.8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42740</v>
       </c>
@@ -1436,26 +1421,26 @@
       <c r="S7">
         <v>1235.2</v>
       </c>
+      <c r="T7">
+        <v>1546.2</v>
+      </c>
       <c r="U7">
-        <v>1546.2</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="V7">
-        <v>117.60000000000001</v>
+        <v>3441.5</v>
       </c>
       <c r="W7">
-        <v>3441.5</v>
+        <v>3500.4</v>
       </c>
       <c r="X7">
-        <v>3500.4</v>
+        <v>446.3</v>
       </c>
       <c r="Y7">
-        <v>446.3</v>
-      </c>
-      <c r="Z7">
         <v>4987.8</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42741</v>
       </c>
@@ -1513,26 +1498,26 @@
       <c r="S8">
         <v>1240.3000000000002</v>
       </c>
+      <c r="T8">
+        <v>1540</v>
+      </c>
       <c r="U8">
-        <v>1540</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="V8">
-        <v>117.60000000000001</v>
+        <v>3467.6000000000004</v>
       </c>
       <c r="W8">
-        <v>3467.6000000000004</v>
+        <v>3485.2000000000003</v>
       </c>
       <c r="X8">
-        <v>3485.2000000000003</v>
+        <v>446.70000000000005</v>
       </c>
       <c r="Y8">
-        <v>446.70000000000005</v>
-      </c>
-      <c r="Z8">
         <v>4970</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42744</v>
       </c>
@@ -1590,26 +1575,26 @@
       <c r="S9">
         <v>1242.3000000000002</v>
       </c>
+      <c r="T9">
+        <v>1513.5</v>
+      </c>
       <c r="U9">
-        <v>1513.5</v>
+        <v>115.60000000000001</v>
       </c>
       <c r="V9">
-        <v>115.60000000000001</v>
+        <v>3439.2000000000003</v>
       </c>
       <c r="W9">
-        <v>3439.2000000000003</v>
+        <v>3496.4</v>
       </c>
       <c r="X9">
-        <v>3496.4</v>
+        <v>441.1</v>
       </c>
       <c r="Y9">
-        <v>441.1</v>
-      </c>
-      <c r="Z9">
         <v>4980</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42745</v>
       </c>
@@ -1667,26 +1652,26 @@
       <c r="S10">
         <v>1248.5</v>
       </c>
+      <c r="T10">
+        <v>1509.2</v>
+      </c>
       <c r="U10">
-        <v>1509.2</v>
+        <v>114.9</v>
       </c>
       <c r="V10">
-        <v>114.9</v>
+        <v>3417.7000000000003</v>
       </c>
       <c r="W10">
-        <v>3417.7000000000003</v>
+        <v>3478</v>
       </c>
       <c r="X10">
-        <v>3478</v>
+        <v>436.70000000000005</v>
       </c>
       <c r="Y10">
-        <v>436.70000000000005</v>
-      </c>
-      <c r="Z10">
         <v>4956.4000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42746</v>
       </c>
@@ -1744,26 +1729,26 @@
       <c r="S11">
         <v>1242.8000000000002</v>
       </c>
+      <c r="T11">
+        <v>1529.6000000000001</v>
+      </c>
       <c r="U11">
-        <v>1529.6000000000001</v>
+        <v>116.80000000000001</v>
       </c>
       <c r="V11">
-        <v>116.80000000000001</v>
+        <v>3413.9</v>
       </c>
       <c r="W11">
-        <v>3413.9</v>
+        <v>3486.1000000000004</v>
       </c>
       <c r="X11">
-        <v>3486.1000000000004</v>
+        <v>435.70000000000005</v>
       </c>
       <c r="Y11">
-        <v>435.70000000000005</v>
-      </c>
-      <c r="Z11">
         <v>5083.7000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42747</v>
       </c>
@@ -1821,26 +1806,26 @@
       <c r="S12">
         <v>1251.1000000000001</v>
       </c>
+      <c r="T12">
+        <v>1524.9</v>
+      </c>
       <c r="U12">
-        <v>1524.9</v>
+        <v>116.9</v>
       </c>
       <c r="V12">
-        <v>116.9</v>
+        <v>3410.8</v>
       </c>
       <c r="W12">
-        <v>3410.8</v>
+        <v>3479.8</v>
       </c>
       <c r="X12">
-        <v>3479.8</v>
+        <v>430.20000000000005</v>
       </c>
       <c r="Y12">
-        <v>430.20000000000005</v>
-      </c>
-      <c r="Z12">
         <v>5045.8</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42748</v>
       </c>
@@ -1898,26 +1883,26 @@
       <c r="S13">
         <v>1268.1000000000001</v>
       </c>
+      <c r="T13">
+        <v>1526.1000000000001</v>
+      </c>
       <c r="U13">
-        <v>1526.1000000000001</v>
+        <v>115.5</v>
       </c>
       <c r="V13">
-        <v>115.5</v>
+        <v>3396.2000000000003</v>
       </c>
       <c r="W13">
-        <v>3396.2000000000003</v>
+        <v>3498.2000000000003</v>
       </c>
       <c r="X13">
-        <v>3498.2000000000003</v>
+        <v>434.3</v>
       </c>
       <c r="Y13">
-        <v>434.3</v>
-      </c>
-      <c r="Z13">
         <v>5073.7000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42751</v>
       </c>
@@ -1975,26 +1960,26 @@
       <c r="S14">
         <v>1245.1000000000001</v>
       </c>
+      <c r="T14">
+        <v>1513.2</v>
+      </c>
       <c r="U14">
-        <v>1513.2</v>
+        <v>117.2</v>
       </c>
       <c r="V14">
-        <v>117.2</v>
+        <v>3355.5</v>
       </c>
       <c r="W14">
-        <v>3355.5</v>
+        <v>3478.9</v>
       </c>
       <c r="X14">
-        <v>3478.9</v>
+        <v>432.5</v>
       </c>
       <c r="Y14">
-        <v>432.5</v>
-      </c>
-      <c r="Z14">
         <v>5047.9000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42752</v>
       </c>
@@ -2052,26 +2037,26 @@
       <c r="S15">
         <v>1239.1000000000001</v>
       </c>
+      <c r="T15">
+        <v>1510.6000000000001</v>
+      </c>
       <c r="U15">
-        <v>1510.6000000000001</v>
+        <v>115.9</v>
       </c>
       <c r="V15">
-        <v>115.9</v>
+        <v>3327.9</v>
       </c>
       <c r="W15">
-        <v>3327.9</v>
+        <v>3448.9</v>
       </c>
       <c r="X15">
-        <v>3448.9</v>
+        <v>433.40000000000003</v>
       </c>
       <c r="Y15">
-        <v>433.40000000000003</v>
-      </c>
-      <c r="Z15">
         <v>4978.6000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42753</v>
       </c>
@@ -2129,26 +2114,26 @@
       <c r="S16">
         <v>1236.4000000000001</v>
       </c>
+      <c r="T16">
+        <v>1507.1000000000001</v>
+      </c>
       <c r="U16">
-        <v>1507.1000000000001</v>
+        <v>116.5</v>
       </c>
       <c r="V16">
-        <v>116.5</v>
+        <v>3341.7000000000003</v>
       </c>
       <c r="W16">
-        <v>3341.7000000000003</v>
+        <v>3469.5</v>
       </c>
       <c r="X16">
-        <v>3469.5</v>
+        <v>430</v>
       </c>
       <c r="Y16">
-        <v>430</v>
-      </c>
-      <c r="Z16">
         <v>4923.5</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42754</v>
       </c>
@@ -2206,26 +2191,26 @@
       <c r="S17">
         <v>1246.2</v>
       </c>
+      <c r="T17">
+        <v>1492</v>
+      </c>
       <c r="U17">
-        <v>1492</v>
+        <v>116.2</v>
       </c>
       <c r="V17">
-        <v>116.2</v>
+        <v>3290.3</v>
       </c>
       <c r="W17">
-        <v>3290.3</v>
+        <v>3463.7000000000003</v>
       </c>
       <c r="X17">
-        <v>3463.7000000000003</v>
+        <v>429.40000000000003</v>
       </c>
       <c r="Y17">
-        <v>429.40000000000003</v>
-      </c>
-      <c r="Z17">
         <v>4948.5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42755</v>
       </c>
@@ -2283,26 +2268,26 @@
       <c r="S18">
         <v>1243.5</v>
       </c>
+      <c r="T18">
+        <v>1497.8000000000002</v>
+      </c>
       <c r="U18">
-        <v>1497.8000000000002</v>
+        <v>115.7</v>
       </c>
       <c r="V18">
-        <v>115.7</v>
+        <v>3287.2000000000003</v>
       </c>
       <c r="W18">
-        <v>3287.2000000000003</v>
+        <v>3487.4</v>
       </c>
       <c r="X18">
-        <v>3487.4</v>
+        <v>434.20000000000005</v>
       </c>
       <c r="Y18">
-        <v>434.20000000000005</v>
-      </c>
-      <c r="Z18">
         <v>5055.1000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42758</v>
       </c>
@@ -2360,26 +2345,26 @@
       <c r="S19">
         <v>1237.3000000000002</v>
       </c>
+      <c r="T19">
+        <v>1487.9</v>
+      </c>
       <c r="U19">
-        <v>1487.9</v>
+        <v>112.5</v>
       </c>
       <c r="V19">
-        <v>112.5</v>
+        <v>3308.7000000000003</v>
       </c>
       <c r="W19">
-        <v>3308.7000000000003</v>
+        <v>3490.6000000000004</v>
       </c>
       <c r="X19">
-        <v>3490.6000000000004</v>
+        <v>430.3</v>
       </c>
       <c r="Y19">
-        <v>430.3</v>
-      </c>
-      <c r="Z19">
         <v>4990</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42759</v>
       </c>
@@ -2437,26 +2422,26 @@
       <c r="S20">
         <v>1250.8000000000002</v>
       </c>
+      <c r="T20">
+        <v>1492.3000000000002</v>
+      </c>
       <c r="U20">
-        <v>1492.3000000000002</v>
+        <v>114.30000000000001</v>
       </c>
       <c r="V20">
-        <v>114.30000000000001</v>
+        <v>3271.1000000000004</v>
       </c>
       <c r="W20">
-        <v>3271.1000000000004</v>
+        <v>3497.3</v>
       </c>
       <c r="X20">
-        <v>3497.3</v>
+        <v>427.6</v>
       </c>
       <c r="Y20">
-        <v>427.6</v>
-      </c>
-      <c r="Z20">
         <v>4968.5</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42760</v>
       </c>
@@ -2514,26 +2499,26 @@
       <c r="S21">
         <v>1269.4000000000001</v>
       </c>
+      <c r="T21">
+        <v>1507.4</v>
+      </c>
       <c r="U21">
-        <v>1507.4</v>
+        <v>118.10000000000001</v>
       </c>
       <c r="V21">
-        <v>118.10000000000001</v>
+        <v>3254.9</v>
       </c>
       <c r="W21">
-        <v>3254.9</v>
+        <v>3524.1000000000004</v>
       </c>
       <c r="X21">
-        <v>3524.1000000000004</v>
+        <v>423.90000000000003</v>
       </c>
       <c r="Y21">
-        <v>423.90000000000003</v>
-      </c>
-      <c r="Z21">
         <v>4984.3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42761</v>
       </c>
@@ -2591,26 +2576,26 @@
       <c r="S22">
         <v>1274.9000000000001</v>
       </c>
+      <c r="T22">
+        <v>1503</v>
+      </c>
       <c r="U22">
-        <v>1503</v>
+        <v>119</v>
       </c>
       <c r="V22">
-        <v>119</v>
+        <v>3264.9</v>
       </c>
       <c r="W22">
-        <v>3264.9</v>
+        <v>3375.1000000000004</v>
       </c>
       <c r="X22">
-        <v>3375.1000000000004</v>
+        <v>423</v>
       </c>
       <c r="Y22">
-        <v>423</v>
-      </c>
-      <c r="Z22">
         <v>4975</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42762</v>
       </c>
@@ -2668,26 +2653,26 @@
       <c r="S23">
         <v>1246.5</v>
       </c>
+      <c r="T23">
+        <v>1496.9</v>
+      </c>
       <c r="U23">
-        <v>1496.9</v>
+        <v>120</v>
       </c>
       <c r="V23">
-        <v>120</v>
+        <v>3260.3</v>
       </c>
       <c r="W23">
-        <v>3260.3</v>
+        <v>3401.9</v>
       </c>
       <c r="X23">
-        <v>3401.9</v>
+        <v>426.70000000000005</v>
       </c>
       <c r="Y23">
-        <v>426.70000000000005</v>
-      </c>
-      <c r="Z23">
         <v>4977.8</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42765</v>
       </c>
@@ -2745,26 +2730,26 @@
       <c r="S24">
         <v>1234.5</v>
       </c>
+      <c r="T24">
+        <v>1468.1000000000001</v>
+      </c>
       <c r="U24">
-        <v>1468.1000000000001</v>
+        <v>119.30000000000001</v>
       </c>
       <c r="V24">
-        <v>119.30000000000001</v>
+        <v>3241.9</v>
       </c>
       <c r="W24">
-        <v>3241.9</v>
+        <v>3370.6000000000004</v>
       </c>
       <c r="X24">
-        <v>3370.6000000000004</v>
+        <v>396.90000000000003</v>
       </c>
       <c r="Y24">
-        <v>396.90000000000003</v>
-      </c>
-      <c r="Z24">
         <v>5077.2000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42766</v>
       </c>
@@ -2822,26 +2807,26 @@
       <c r="S25">
         <v>1235</v>
       </c>
+      <c r="T25">
+        <v>1459.3000000000002</v>
+      </c>
       <c r="U25">
-        <v>1459.3000000000002</v>
+        <v>119.10000000000001</v>
       </c>
       <c r="V25">
-        <v>119.10000000000001</v>
+        <v>3270.3</v>
       </c>
       <c r="W25">
-        <v>3270.3</v>
+        <v>3347.8</v>
       </c>
       <c r="X25">
-        <v>3347.8</v>
+        <v>392.70000000000005</v>
       </c>
       <c r="Y25">
-        <v>392.70000000000005</v>
-      </c>
-      <c r="Z25">
         <v>5056.5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42767</v>
       </c>
@@ -2899,26 +2884,26 @@
       <c r="S26">
         <v>1252.7</v>
       </c>
+      <c r="T26">
+        <v>1463.7</v>
+      </c>
       <c r="U26">
-        <v>1463.7</v>
+        <v>120</v>
       </c>
       <c r="V26">
-        <v>120</v>
+        <v>3286.4</v>
       </c>
       <c r="W26">
-        <v>3286.4</v>
+        <v>3355.8</v>
       </c>
       <c r="X26">
-        <v>3355.8</v>
+        <v>395.5</v>
       </c>
       <c r="Y26">
-        <v>395.5</v>
-      </c>
-      <c r="Z26">
         <v>5045.1000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42768</v>
       </c>
@@ -2976,26 +2961,26 @@
       <c r="S27">
         <v>1252</v>
       </c>
+      <c r="T27">
+        <v>1467.8000000000002</v>
+      </c>
       <c r="U27">
-        <v>1467.8000000000002</v>
+        <v>119.60000000000001</v>
       </c>
       <c r="V27">
-        <v>119.60000000000001</v>
+        <v>3281</v>
       </c>
       <c r="W27">
-        <v>3281</v>
+        <v>3360.3</v>
       </c>
       <c r="X27">
-        <v>3360.3</v>
+        <v>396.20000000000005</v>
       </c>
       <c r="Y27">
-        <v>396.20000000000005</v>
-      </c>
-      <c r="Z27">
         <v>5123.7000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42769</v>
       </c>
@@ -3053,26 +3038,26 @@
       <c r="S28">
         <v>1253.1000000000001</v>
       </c>
+      <c r="T28">
+        <v>1484.1000000000001</v>
+      </c>
       <c r="U28">
-        <v>1484.1000000000001</v>
+        <v>118.7</v>
       </c>
       <c r="V28">
-        <v>118.7</v>
+        <v>3302.5</v>
       </c>
       <c r="W28">
-        <v>3302.5</v>
+        <v>3396.1000000000004</v>
       </c>
       <c r="X28">
-        <v>3396.1000000000004</v>
+        <v>399.3</v>
       </c>
       <c r="Y28">
-        <v>399.3</v>
-      </c>
-      <c r="Z28">
         <v>5143</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42772</v>
       </c>
@@ -3130,26 +3115,26 @@
       <c r="S29">
         <v>1239.6000000000001</v>
       </c>
+      <c r="T29">
+        <v>1472.7</v>
+      </c>
       <c r="U29">
-        <v>1472.7</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="V29">
-        <v>118.80000000000001</v>
+        <v>3264.9</v>
       </c>
       <c r="W29">
-        <v>3264.9</v>
+        <v>3389.4</v>
       </c>
       <c r="X29">
-        <v>3389.4</v>
+        <v>394.70000000000005</v>
       </c>
       <c r="Y29">
-        <v>394.70000000000005</v>
-      </c>
-      <c r="Z29">
         <v>5147.3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42773</v>
       </c>
@@ -3207,26 +3192,26 @@
       <c r="S30">
         <v>1241.7</v>
       </c>
+      <c r="T30">
+        <v>1464.6000000000001</v>
+      </c>
       <c r="U30">
-        <v>1464.6000000000001</v>
+        <v>121</v>
       </c>
       <c r="V30">
-        <v>121</v>
+        <v>3315.6000000000004</v>
       </c>
       <c r="W30">
-        <v>3315.6000000000004</v>
+        <v>3422.1000000000004</v>
       </c>
       <c r="X30">
-        <v>3422.1000000000004</v>
+        <v>395.6</v>
       </c>
       <c r="Y30">
-        <v>395.6</v>
-      </c>
-      <c r="Z30">
         <v>5216</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42774</v>
       </c>
@@ -3284,26 +3269,26 @@
       <c r="S31">
         <v>1224.2</v>
       </c>
+      <c r="T31">
+        <v>1447.7</v>
+      </c>
       <c r="U31">
-        <v>1447.7</v>
+        <v>119.5</v>
       </c>
       <c r="V31">
-        <v>119.5</v>
+        <v>3370.9</v>
       </c>
       <c r="W31">
-        <v>3370.9</v>
+        <v>3490.1000000000004</v>
       </c>
       <c r="X31">
-        <v>3490.1000000000004</v>
+        <v>395.3</v>
       </c>
       <c r="Y31">
-        <v>395.3</v>
-      </c>
-      <c r="Z31">
         <v>5243.9000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42775</v>
       </c>
@@ -3361,26 +3346,26 @@
       <c r="S32">
         <v>1241.2</v>
       </c>
+      <c r="T32">
+        <v>1468.1000000000001</v>
+      </c>
       <c r="U32">
-        <v>1468.1000000000001</v>
+        <v>122.5</v>
       </c>
       <c r="V32">
-        <v>122.5</v>
+        <v>3380.1000000000004</v>
       </c>
       <c r="W32">
-        <v>3380.1000000000004</v>
+        <v>3484.7000000000003</v>
       </c>
       <c r="X32">
-        <v>3484.7000000000003</v>
+        <v>397.8</v>
       </c>
       <c r="Y32">
-        <v>397.8</v>
-      </c>
-      <c r="Z32">
         <v>5303.9000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42776</v>
       </c>
@@ -3438,26 +3423,26 @@
       <c r="S33">
         <v>1249</v>
       </c>
+      <c r="T33">
+        <v>1484.4</v>
+      </c>
       <c r="U33">
-        <v>1484.4</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="V33">
-        <v>124.80000000000001</v>
+        <v>3363.2000000000003</v>
       </c>
       <c r="W33">
-        <v>3363.2000000000003</v>
+        <v>3465.5</v>
       </c>
       <c r="X33">
-        <v>3465.5</v>
+        <v>403.90000000000003</v>
       </c>
       <c r="Y33">
-        <v>403.90000000000003</v>
-      </c>
-      <c r="Z33">
         <v>5306.1</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42779</v>
       </c>
@@ -3515,26 +3500,26 @@
       <c r="S34">
         <v>1269.4000000000001</v>
       </c>
+      <c r="T34">
+        <v>1495.2</v>
+      </c>
       <c r="U34">
-        <v>1495.2</v>
+        <v>127</v>
       </c>
       <c r="V34">
-        <v>127</v>
+        <v>3354</v>
       </c>
       <c r="W34">
-        <v>3354</v>
+        <v>3485.2000000000003</v>
       </c>
       <c r="X34">
-        <v>3485.2000000000003</v>
+        <v>409.70000000000005</v>
       </c>
       <c r="Y34">
-        <v>409.70000000000005</v>
-      </c>
-      <c r="Z34">
         <v>5321.8</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42780</v>
       </c>
@@ -3592,26 +3577,26 @@
       <c r="S35">
         <v>1320.2</v>
       </c>
+      <c r="T35">
+        <v>1494.6000000000001</v>
+      </c>
       <c r="U35">
-        <v>1494.6000000000001</v>
+        <v>126.4</v>
       </c>
       <c r="V35">
-        <v>126.4</v>
+        <v>3373.2000000000003</v>
       </c>
       <c r="W35">
-        <v>3373.2000000000003</v>
+        <v>3474</v>
       </c>
       <c r="X35">
-        <v>3474</v>
+        <v>409.8</v>
       </c>
       <c r="Y35">
-        <v>409.8</v>
-      </c>
-      <c r="Z35">
         <v>5311.8</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42781</v>
       </c>
@@ -3669,26 +3654,26 @@
       <c r="S36">
         <v>1295.1000000000001</v>
       </c>
+      <c r="T36">
+        <v>1489.6000000000001</v>
+      </c>
       <c r="U36">
-        <v>1489.6000000000001</v>
+        <v>128.70000000000002</v>
       </c>
       <c r="V36">
-        <v>128.70000000000002</v>
+        <v>3410.8</v>
       </c>
       <c r="W36">
-        <v>3410.8</v>
+        <v>3515.2000000000003</v>
       </c>
       <c r="X36">
-        <v>3515.2000000000003</v>
+        <v>410.70000000000005</v>
       </c>
       <c r="Y36">
-        <v>410.70000000000005</v>
-      </c>
-      <c r="Z36">
         <v>5320.4000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42782</v>
       </c>
@@ -3746,26 +3731,26 @@
       <c r="S37">
         <v>1294.4000000000001</v>
       </c>
+      <c r="T37">
+        <v>1450.3000000000002</v>
+      </c>
       <c r="U37">
-        <v>1450.3000000000002</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="V37">
-        <v>128.30000000000001</v>
+        <v>3430</v>
       </c>
       <c r="W37">
-        <v>3430</v>
+        <v>3542.5</v>
       </c>
       <c r="X37">
-        <v>3542.5</v>
+        <v>413.20000000000005</v>
       </c>
       <c r="Y37">
-        <v>413.20000000000005</v>
-      </c>
-      <c r="Z37">
         <v>5322.5</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42783</v>
       </c>
@@ -3823,26 +3808,26 @@
       <c r="S38">
         <v>1274</v>
       </c>
+      <c r="T38">
+        <v>1429.9</v>
+      </c>
       <c r="U38">
-        <v>1429.9</v>
+        <v>127.5</v>
       </c>
       <c r="V38">
-        <v>127.5</v>
+        <v>3388.5</v>
       </c>
       <c r="W38">
-        <v>3388.5</v>
+        <v>4010.7000000000003</v>
       </c>
       <c r="X38">
-        <v>4010.7000000000003</v>
+        <v>383.70000000000005</v>
       </c>
       <c r="Y38">
-        <v>383.70000000000005</v>
-      </c>
-      <c r="Z38">
         <v>5339</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42786</v>
       </c>
@@ -3900,26 +3885,26 @@
       <c r="S39">
         <v>1275.2</v>
       </c>
+      <c r="T39">
+        <v>1423.5</v>
+      </c>
       <c r="U39">
-        <v>1423.5</v>
+        <v>127.60000000000001</v>
       </c>
       <c r="V39">
-        <v>127.60000000000001</v>
+        <v>3388.5</v>
       </c>
       <c r="W39">
-        <v>3388.5</v>
+        <v>3804.3</v>
       </c>
       <c r="X39">
-        <v>3804.3</v>
+        <v>385.1</v>
       </c>
       <c r="Y39">
-        <v>385.1</v>
-      </c>
-      <c r="Z39">
         <v>5336.8</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42787</v>
       </c>
@@ -3977,26 +3962,26 @@
       <c r="S40">
         <v>1288</v>
       </c>
+      <c r="T40">
+        <v>1446.5</v>
+      </c>
       <c r="U40">
-        <v>1446.5</v>
+        <v>130.4</v>
       </c>
       <c r="V40">
-        <v>130.4</v>
+        <v>3350.9</v>
       </c>
       <c r="W40">
-        <v>3350.9</v>
+        <v>3822.3</v>
       </c>
       <c r="X40">
-        <v>3822.3</v>
+        <v>387</v>
       </c>
       <c r="Y40">
-        <v>387</v>
-      </c>
-      <c r="Z40">
         <v>5268.9000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42788</v>
       </c>
@@ -4054,26 +4039,26 @@
       <c r="S41">
         <v>1266</v>
       </c>
+      <c r="T41">
+        <v>1437.8000000000002</v>
+      </c>
       <c r="U41">
-        <v>1437.8000000000002</v>
+        <v>129.5</v>
       </c>
       <c r="V41">
-        <v>129.5</v>
+        <v>3327.1000000000004</v>
       </c>
       <c r="W41">
-        <v>3327.1000000000004</v>
+        <v>3977.1000000000004</v>
       </c>
       <c r="X41">
-        <v>3977.1000000000004</v>
+        <v>386.90000000000003</v>
       </c>
       <c r="Y41">
-        <v>386.90000000000003</v>
-      </c>
-      <c r="Z41">
         <v>5399.8</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42789</v>
       </c>
@@ -4131,26 +4116,26 @@
       <c r="S42">
         <v>1259.8000000000002</v>
       </c>
+      <c r="T42">
+        <v>1442.4</v>
+      </c>
       <c r="U42">
-        <v>1442.4</v>
+        <v>129.1</v>
       </c>
       <c r="V42">
-        <v>129.1</v>
+        <v>3348.6000000000004</v>
       </c>
       <c r="W42">
-        <v>3348.6000000000004</v>
+        <v>3971.8</v>
       </c>
       <c r="X42">
-        <v>3971.8</v>
+        <v>386.6</v>
       </c>
       <c r="Y42">
-        <v>386.6</v>
-      </c>
-      <c r="Z42">
         <v>5456.2000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42790</v>
       </c>
@@ -4208,26 +4193,26 @@
       <c r="S43">
         <v>1243.7</v>
       </c>
+      <c r="T43">
+        <v>1429.3000000000002</v>
+      </c>
       <c r="U43">
-        <v>1429.3000000000002</v>
+        <v>130.1</v>
       </c>
       <c r="V43">
-        <v>130.1</v>
+        <v>3330.2000000000003</v>
       </c>
       <c r="W43">
-        <v>3330.2000000000003</v>
+        <v>3982.1000000000004</v>
       </c>
       <c r="X43">
-        <v>3982.1000000000004</v>
+        <v>388.40000000000003</v>
       </c>
       <c r="Y43">
-        <v>388.40000000000003</v>
-      </c>
-      <c r="Z43">
         <v>5492</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42793</v>
       </c>
@@ -4285,26 +4270,26 @@
       <c r="S44">
         <v>1246.5</v>
       </c>
+      <c r="T44">
+        <v>1422</v>
+      </c>
       <c r="U44">
-        <v>1422</v>
+        <v>131</v>
       </c>
       <c r="V44">
-        <v>131</v>
+        <v>3304.1000000000004</v>
       </c>
       <c r="W44">
-        <v>3304.1000000000004</v>
+        <v>3994.6000000000004</v>
       </c>
       <c r="X44">
-        <v>3994.6000000000004</v>
+        <v>391.70000000000005</v>
       </c>
       <c r="Y44">
-        <v>391.70000000000005</v>
-      </c>
-      <c r="Z44">
         <v>5532.8</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42794</v>
       </c>
@@ -4362,26 +4347,26 @@
       <c r="S45">
         <v>1260.5</v>
       </c>
+      <c r="T45">
+        <v>1420.9</v>
+      </c>
       <c r="U45">
-        <v>1420.9</v>
+        <v>130.70000000000002</v>
       </c>
       <c r="V45">
-        <v>130.70000000000002</v>
+        <v>3307.2000000000003</v>
       </c>
       <c r="W45">
-        <v>3307.2000000000003</v>
+        <v>3994.1000000000004</v>
       </c>
       <c r="X45">
-        <v>3994.1000000000004</v>
+        <v>394.6</v>
       </c>
       <c r="Y45">
-        <v>394.6</v>
-      </c>
-      <c r="Z45">
         <v>5529.9000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42795</v>
       </c>
@@ -4439,26 +4424,26 @@
       <c r="S46">
         <v>1275.9000000000001</v>
       </c>
+      <c r="T46">
+        <v>1444.2</v>
+      </c>
       <c r="U46">
-        <v>1444.2</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="V46">
-        <v>131.30000000000001</v>
+        <v>3337.9</v>
       </c>
       <c r="W46">
-        <v>3337.9</v>
+        <v>4028.6000000000004</v>
       </c>
       <c r="X46">
-        <v>4028.6000000000004</v>
+        <v>401.8</v>
       </c>
       <c r="Y46">
-        <v>401.8</v>
-      </c>
-      <c r="Z46">
         <v>5566.4000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42796</v>
       </c>
@@ -4516,26 +4501,26 @@
       <c r="S47">
         <v>1263.7</v>
       </c>
+      <c r="T47">
+        <v>1450.6000000000001</v>
+      </c>
       <c r="U47">
-        <v>1450.6000000000001</v>
+        <v>129</v>
       </c>
       <c r="V47">
-        <v>129</v>
+        <v>3314.8</v>
       </c>
       <c r="W47">
-        <v>3314.8</v>
+        <v>4006.2000000000003</v>
       </c>
       <c r="X47">
-        <v>4006.2000000000003</v>
+        <v>409.20000000000005</v>
       </c>
       <c r="Y47">
-        <v>409.20000000000005</v>
-      </c>
-      <c r="Z47">
         <v>5534.9000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42797</v>
       </c>
@@ -4593,26 +4578,26 @@
       <c r="S48">
         <v>1256.3000000000002</v>
       </c>
+      <c r="T48">
+        <v>1449.1000000000001</v>
+      </c>
       <c r="U48">
-        <v>1449.1000000000001</v>
+        <v>127.5</v>
       </c>
       <c r="V48">
-        <v>127.5</v>
+        <v>3339.4</v>
       </c>
       <c r="W48">
-        <v>3339.4</v>
+        <v>3989.7000000000003</v>
       </c>
       <c r="X48">
-        <v>3989.7000000000003</v>
+        <v>410.3</v>
       </c>
       <c r="Y48">
-        <v>410.3</v>
-      </c>
-      <c r="Z48">
         <v>5473.4000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42800</v>
       </c>
@@ -4670,26 +4655,26 @@
       <c r="S49">
         <v>1254</v>
       </c>
+      <c r="T49">
+        <v>1445.9</v>
+      </c>
       <c r="U49">
-        <v>1445.9</v>
+        <v>127.30000000000001</v>
       </c>
       <c r="V49">
-        <v>127.30000000000001</v>
+        <v>3334</v>
       </c>
       <c r="W49">
-        <v>3334</v>
+        <v>3992.4</v>
       </c>
       <c r="X49">
-        <v>3992.4</v>
+        <v>407.20000000000005</v>
       </c>
       <c r="Y49">
-        <v>407.20000000000005</v>
-      </c>
-      <c r="Z49">
         <v>5461.2000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42801</v>
       </c>
@@ -4747,26 +4732,26 @@
       <c r="S50">
         <v>1260.5</v>
       </c>
+      <c r="T50">
+        <v>1445.6000000000001</v>
+      </c>
       <c r="U50">
-        <v>1445.6000000000001</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="V50">
-        <v>128.80000000000001</v>
+        <v>3295.6000000000004</v>
       </c>
       <c r="W50">
-        <v>3295.6000000000004</v>
+        <v>4019.7000000000003</v>
       </c>
       <c r="X50">
-        <v>4019.7000000000003</v>
+        <v>401.6</v>
       </c>
       <c r="Y50">
-        <v>401.6</v>
-      </c>
-      <c r="Z50">
         <v>5416.9000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42802</v>
       </c>
@@ -4824,26 +4809,26 @@
       <c r="S51">
         <v>1264.8000000000002</v>
       </c>
+      <c r="T51">
+        <v>1430.2</v>
+      </c>
       <c r="U51">
-        <v>1430.2</v>
+        <v>130</v>
       </c>
       <c r="V51">
-        <v>130</v>
+        <v>3309.5</v>
       </c>
       <c r="W51">
-        <v>3309.5</v>
+        <v>4010.3</v>
       </c>
       <c r="X51">
-        <v>4010.3</v>
+        <v>395.40000000000003</v>
       </c>
       <c r="Y51">
-        <v>395.40000000000003</v>
-      </c>
-      <c r="Z51">
         <v>5393.3</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42803</v>
       </c>
@@ -4901,26 +4886,26 @@
       <c r="S52">
         <v>1273.6000000000001</v>
       </c>
+      <c r="T52">
+        <v>1399.6000000000001</v>
+      </c>
       <c r="U52">
-        <v>1399.6000000000001</v>
+        <v>130</v>
       </c>
       <c r="V52">
-        <v>130</v>
+        <v>3338.6000000000004</v>
       </c>
       <c r="W52">
-        <v>3338.6000000000004</v>
+        <v>4085.5</v>
       </c>
       <c r="X52">
-        <v>4085.5</v>
+        <v>401.5</v>
       </c>
       <c r="Y52">
-        <v>401.5</v>
-      </c>
-      <c r="Z52">
         <v>5420.5</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42804</v>
       </c>
@@ -4978,26 +4963,26 @@
       <c r="S53">
         <v>1264.6000000000001</v>
       </c>
+      <c r="T53">
+        <v>1408.3000000000002</v>
+      </c>
       <c r="U53">
-        <v>1408.3000000000002</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="V53">
-        <v>131.30000000000001</v>
+        <v>3274.9</v>
       </c>
       <c r="W53">
-        <v>3274.9</v>
+        <v>4106.9000000000005</v>
       </c>
       <c r="X53">
-        <v>4106.9000000000005</v>
+        <v>402</v>
       </c>
       <c r="Y53">
-        <v>402</v>
-      </c>
-      <c r="Z53">
         <v>5399</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42807</v>
       </c>
@@ -5055,26 +5040,26 @@
       <c r="S54">
         <v>1277.2</v>
       </c>
+      <c r="T54">
+        <v>1420.9</v>
+      </c>
       <c r="U54">
-        <v>1420.9</v>
+        <v>134.20000000000002</v>
       </c>
       <c r="V54">
-        <v>134.20000000000002</v>
+        <v>3284.9</v>
       </c>
       <c r="W54">
-        <v>3284.9</v>
+        <v>4068</v>
       </c>
       <c r="X54">
-        <v>4068</v>
+        <v>401.8</v>
       </c>
       <c r="Y54">
-        <v>401.8</v>
-      </c>
-      <c r="Z54">
         <v>5456.2000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42808</v>
       </c>
@@ -5132,26 +5117,26 @@
       <c r="S55">
         <v>1279.1000000000001</v>
       </c>
+      <c r="T55">
+        <v>1397.8000000000002</v>
+      </c>
       <c r="U55">
-        <v>1397.8000000000002</v>
+        <v>133.9</v>
       </c>
       <c r="V55">
-        <v>133.9</v>
+        <v>3275.7000000000003</v>
       </c>
       <c r="W55">
-        <v>3275.7000000000003</v>
+        <v>4127.1000000000004</v>
       </c>
       <c r="X55">
-        <v>4127.1000000000004</v>
+        <v>395.90000000000003</v>
       </c>
       <c r="Y55">
-        <v>395.90000000000003</v>
-      </c>
-      <c r="Z55">
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42809</v>
       </c>
@@ -5209,26 +5194,26 @@
       <c r="S56">
         <v>1285.3000000000002</v>
       </c>
+      <c r="T56">
+        <v>1407.8000000000002</v>
+      </c>
       <c r="U56">
-        <v>1407.8000000000002</v>
+        <v>132.20000000000002</v>
       </c>
       <c r="V56">
-        <v>132.20000000000002</v>
+        <v>3269.5</v>
       </c>
       <c r="W56">
-        <v>3269.5</v>
+        <v>4126.6000000000004</v>
       </c>
       <c r="X56">
-        <v>4126.6000000000004</v>
+        <v>398.20000000000005</v>
       </c>
       <c r="Y56">
-        <v>398.20000000000005</v>
-      </c>
-      <c r="Z56">
         <v>5443.4000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42810</v>
       </c>
@@ -5286,26 +5271,26 @@
       <c r="S57">
         <v>1289.6000000000001</v>
       </c>
+      <c r="T57">
+        <v>1424.4</v>
+      </c>
       <c r="U57">
-        <v>1424.4</v>
+        <v>129.9</v>
       </c>
       <c r="V57">
-        <v>129.9</v>
+        <v>3352.5</v>
       </c>
       <c r="W57">
-        <v>3352.5</v>
+        <v>4153.9000000000005</v>
       </c>
       <c r="X57">
-        <v>4153.9000000000005</v>
+        <v>398.8</v>
       </c>
       <c r="Y57">
-        <v>398.8</v>
-      </c>
-      <c r="Z57">
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42811</v>
       </c>
@@ -5363,26 +5348,26 @@
       <c r="S58">
         <v>1287.3000000000002</v>
       </c>
+      <c r="T58">
+        <v>1430.8000000000002</v>
+      </c>
       <c r="U58">
-        <v>1430.8000000000002</v>
+        <v>130.1</v>
       </c>
       <c r="V58">
-        <v>130.1</v>
+        <v>3380.9</v>
       </c>
       <c r="W58">
-        <v>3380.9</v>
+        <v>4152.6000000000004</v>
       </c>
       <c r="X58">
-        <v>4152.6000000000004</v>
+        <v>397.6</v>
       </c>
       <c r="Y58">
-        <v>397.6</v>
-      </c>
-      <c r="Z58">
         <v>5501.3</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42814</v>
       </c>
@@ -5440,26 +5425,26 @@
       <c r="S59">
         <v>1278.6000000000001</v>
       </c>
+      <c r="T59">
+        <v>1419.7</v>
+      </c>
       <c r="U59">
-        <v>1419.7</v>
+        <v>130.9</v>
       </c>
       <c r="V59">
-        <v>130.9</v>
+        <v>3358.6000000000004</v>
       </c>
       <c r="W59">
-        <v>3358.6000000000004</v>
+        <v>4167.4000000000005</v>
       </c>
       <c r="X59">
-        <v>4167.4000000000005</v>
+        <v>400.40000000000003</v>
       </c>
       <c r="Y59">
-        <v>400.40000000000003</v>
-      </c>
-      <c r="Z59">
         <v>5509.9000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42815</v>
       </c>
@@ -5517,26 +5502,26 @@
       <c r="S60">
         <v>1277</v>
       </c>
+      <c r="T60">
+        <v>1424.4</v>
+      </c>
       <c r="U60">
-        <v>1424.4</v>
+        <v>131</v>
       </c>
       <c r="V60">
-        <v>131</v>
+        <v>3370.1000000000004</v>
       </c>
       <c r="W60">
-        <v>3370.1000000000004</v>
+        <v>4155.7</v>
       </c>
       <c r="X60">
-        <v>4155.7</v>
+        <v>395.70000000000005</v>
       </c>
       <c r="Y60">
-        <v>395.70000000000005</v>
-      </c>
-      <c r="Z60">
         <v>5463.4000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42816</v>
       </c>
@@ -5594,26 +5579,26 @@
       <c r="S61">
         <v>1274.7</v>
       </c>
+      <c r="T61">
+        <v>1419.1000000000001</v>
+      </c>
       <c r="U61">
-        <v>1419.1000000000001</v>
+        <v>129.6</v>
       </c>
       <c r="V61">
-        <v>129.6</v>
+        <v>3378.6000000000004</v>
       </c>
       <c r="W61">
-        <v>3378.6000000000004</v>
+        <v>4165.1000000000004</v>
       </c>
       <c r="X61">
-        <v>4165.1000000000004</v>
+        <v>391.1</v>
       </c>
       <c r="Y61">
-        <v>391.1</v>
-      </c>
-      <c r="Z61">
         <v>5458.4000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42817</v>
       </c>
@@ -5671,26 +5656,26 @@
       <c r="S62">
         <v>1285.5</v>
       </c>
+      <c r="T62">
+        <v>1422.6000000000001</v>
+      </c>
       <c r="U62">
-        <v>1422.6000000000001</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="V62">
-        <v>128.80000000000001</v>
+        <v>3407.7000000000003</v>
       </c>
       <c r="W62">
-        <v>3407.7000000000003</v>
+        <v>4179.5</v>
       </c>
       <c r="X62">
-        <v>4179.5</v>
+        <v>392.8</v>
       </c>
       <c r="Y62">
-        <v>392.8</v>
-      </c>
-      <c r="Z62">
         <v>5511.3</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42818</v>
       </c>
@@ -5748,26 +5733,26 @@
       <c r="S63">
         <v>1294.4000000000001</v>
       </c>
+      <c r="T63">
+        <v>1408</v>
+      </c>
       <c r="U63">
-        <v>1408</v>
+        <v>130.5</v>
       </c>
       <c r="V63">
-        <v>130.5</v>
+        <v>3420</v>
       </c>
       <c r="W63">
-        <v>3420</v>
+        <v>4171.8</v>
       </c>
       <c r="X63">
-        <v>4171.8</v>
+        <v>392.20000000000005</v>
       </c>
       <c r="Y63">
-        <v>392.20000000000005</v>
-      </c>
-      <c r="Z63">
         <v>5480.6</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42821</v>
       </c>
@@ -5825,26 +5810,26 @@
       <c r="S64">
         <v>1277.5</v>
       </c>
+      <c r="T64">
+        <v>1402.2</v>
+      </c>
       <c r="U64">
-        <v>1402.2</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="V64">
-        <v>129.30000000000001</v>
+        <v>3343.2000000000003</v>
       </c>
       <c r="W64">
-        <v>3343.2000000000003</v>
+        <v>4180.8</v>
       </c>
       <c r="X64">
-        <v>4180.8</v>
+        <v>390.20000000000005</v>
       </c>
       <c r="Y64">
-        <v>390.20000000000005</v>
-      </c>
-      <c r="Z64">
         <v>5457</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42822</v>
       </c>
@@ -5902,26 +5887,26 @@
       <c r="S65">
         <v>1249.2</v>
       </c>
+      <c r="T65">
+        <v>1422.3000000000002</v>
+      </c>
       <c r="U65">
-        <v>1422.3000000000002</v>
+        <v>131.4</v>
       </c>
       <c r="V65">
-        <v>131.4</v>
+        <v>3304.9</v>
       </c>
       <c r="W65">
-        <v>3304.9</v>
+        <v>4162.9000000000005</v>
       </c>
       <c r="X65">
-        <v>4162.9000000000005</v>
+        <v>394.8</v>
       </c>
       <c r="Y65">
-        <v>394.8</v>
-      </c>
-      <c r="Z65">
         <v>5494.9000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42823</v>
       </c>
@@ -5979,26 +5964,26 @@
       <c r="S66">
         <v>1234.1000000000001</v>
       </c>
+      <c r="T66">
+        <v>1438.3000000000002</v>
+      </c>
       <c r="U66">
-        <v>1438.3000000000002</v>
+        <v>132.5</v>
       </c>
       <c r="V66">
-        <v>132.5</v>
+        <v>3329.4</v>
       </c>
       <c r="W66">
-        <v>3329.4</v>
+        <v>4189.8</v>
       </c>
       <c r="X66">
-        <v>4189.8</v>
+        <v>398.5</v>
       </c>
       <c r="Y66">
-        <v>398.5</v>
-      </c>
-      <c r="Z66">
         <v>5488.4000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42824</v>
       </c>
@@ -6056,26 +6041,26 @@
       <c r="S67">
         <v>1240.5</v>
       </c>
+      <c r="T67">
+        <v>1445.3000000000002</v>
+      </c>
       <c r="U67">
-        <v>1445.3000000000002</v>
+        <v>133.9</v>
       </c>
       <c r="V67">
-        <v>133.9</v>
+        <v>3301.8</v>
       </c>
       <c r="W67">
-        <v>3301.8</v>
+        <v>4183</v>
       </c>
       <c r="X67">
-        <v>4183</v>
+        <v>402.3</v>
       </c>
       <c r="Y67">
-        <v>402.3</v>
-      </c>
-      <c r="Z67">
         <v>5523.5</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42825</v>
       </c>
@@ -6133,26 +6118,26 @@
       <c r="S68">
         <v>1241.9000000000001</v>
       </c>
+      <c r="T68">
+        <v>1434.6000000000001</v>
+      </c>
       <c r="U68">
-        <v>1434.6000000000001</v>
+        <v>134</v>
       </c>
       <c r="V68">
-        <v>134</v>
+        <v>3364.7000000000003</v>
       </c>
       <c r="W68">
-        <v>3364.7000000000003</v>
+        <v>4169.2</v>
       </c>
       <c r="X68">
-        <v>4169.2</v>
+        <v>404.1</v>
       </c>
       <c r="Y68">
-        <v>404.1</v>
-      </c>
-      <c r="Z68">
         <v>5572.8</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42828</v>
       </c>
@@ -6210,26 +6195,26 @@
       <c r="S69">
         <v>1197.8</v>
       </c>
+      <c r="T69">
+        <v>1420.3000000000002</v>
+      </c>
       <c r="U69">
-        <v>1420.3000000000002</v>
+        <v>135</v>
       </c>
       <c r="V69">
-        <v>135</v>
+        <v>3345.5</v>
       </c>
       <c r="W69">
-        <v>3345.5</v>
+        <v>4159.3</v>
       </c>
       <c r="X69">
-        <v>4159.3</v>
+        <v>405.1</v>
       </c>
       <c r="Y69">
-        <v>405.1</v>
-      </c>
-      <c r="Z69">
         <v>5613.6</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42829</v>
       </c>
@@ -6287,26 +6272,26 @@
       <c r="S70">
         <v>1195.5</v>
       </c>
+      <c r="T70">
+        <v>1430.8000000000002</v>
+      </c>
       <c r="U70">
-        <v>1430.8000000000002</v>
+        <v>134.70000000000002</v>
       </c>
       <c r="V70">
-        <v>134.70000000000002</v>
+        <v>3366.3</v>
       </c>
       <c r="W70">
-        <v>3366.3</v>
+        <v>4160.7</v>
       </c>
       <c r="X70">
-        <v>4160.7</v>
+        <v>407.70000000000005</v>
       </c>
       <c r="Y70">
-        <v>407.70000000000005</v>
-      </c>
-      <c r="Z70">
         <v>5649.3</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42830</v>
       </c>
@@ -6364,26 +6349,26 @@
       <c r="S71">
         <v>1209.7</v>
       </c>
+      <c r="T71">
+        <v>1445.6000000000001</v>
+      </c>
       <c r="U71">
-        <v>1445.6000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="V71">
-        <v>134.30000000000001</v>
+        <v>3363.2000000000003</v>
       </c>
       <c r="W71">
-        <v>3363.2000000000003</v>
+        <v>4169.2</v>
       </c>
       <c r="X71">
-        <v>4169.2</v>
+        <v>406.6</v>
       </c>
       <c r="Y71">
-        <v>406.6</v>
-      </c>
-      <c r="Z71">
         <v>5644.3</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42831</v>
       </c>
@@ -6441,26 +6426,26 @@
       <c r="S72">
         <v>1206.3</v>
       </c>
+      <c r="T72">
+        <v>1451.2</v>
+      </c>
       <c r="U72">
-        <v>1451.2</v>
+        <v>135</v>
       </c>
       <c r="V72">
-        <v>135</v>
+        <v>3421.6000000000004</v>
       </c>
       <c r="W72">
-        <v>3421.6000000000004</v>
+        <v>4209.9000000000005</v>
       </c>
       <c r="X72">
-        <v>4209.9000000000005</v>
+        <v>410.20000000000005</v>
       </c>
       <c r="Y72">
-        <v>410.20000000000005</v>
-      </c>
-      <c r="Z72">
         <v>5577.8</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42832</v>
       </c>
@@ -6518,26 +6503,26 @@
       <c r="S73">
         <v>1215.9000000000001</v>
       </c>
+      <c r="T73">
+        <v>1466.9</v>
+      </c>
       <c r="U73">
-        <v>1466.9</v>
+        <v>135.6</v>
       </c>
       <c r="V73">
-        <v>135.6</v>
+        <v>3432.3</v>
       </c>
       <c r="W73">
-        <v>3432.3</v>
+        <v>4265.8</v>
       </c>
       <c r="X73">
-        <v>4265.8</v>
+        <v>410.3</v>
       </c>
       <c r="Y73">
-        <v>410.3</v>
-      </c>
-      <c r="Z73">
         <v>5603.6</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42835</v>
       </c>
@@ -6595,26 +6580,26 @@
       <c r="S74">
         <v>1218.7</v>
       </c>
+      <c r="T74">
+        <v>1466.9</v>
+      </c>
       <c r="U74">
-        <v>1466.9</v>
+        <v>136.6</v>
       </c>
       <c r="V74">
-        <v>136.6</v>
+        <v>3426.2000000000003</v>
       </c>
       <c r="W74">
-        <v>3426.2000000000003</v>
+        <v>4299</v>
       </c>
       <c r="X74">
-        <v>4299</v>
+        <v>409.90000000000003</v>
       </c>
       <c r="Y74">
-        <v>409.90000000000003</v>
-      </c>
-      <c r="Z74">
         <v>5593.5</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42836</v>
       </c>
@@ -6672,26 +6657,26 @@
       <c r="S75">
         <v>1229.9000000000001</v>
       </c>
+      <c r="T75">
+        <v>1468.1000000000001</v>
+      </c>
       <c r="U75">
-        <v>1468.1000000000001</v>
+        <v>137.9</v>
       </c>
       <c r="V75">
-        <v>137.9</v>
+        <v>3453.8</v>
       </c>
       <c r="W75">
-        <v>3453.8</v>
+        <v>4297.2</v>
       </c>
       <c r="X75">
-        <v>4297.2</v>
+        <v>410.40000000000003</v>
       </c>
       <c r="Y75">
-        <v>410.40000000000003</v>
-      </c>
-      <c r="Z75">
         <v>5564.2000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42837</v>
       </c>
@@ -6749,26 +6734,26 @@
       <c r="S76">
         <v>1258</v>
       </c>
+      <c r="T76">
+        <v>1465.7</v>
+      </c>
       <c r="U76">
-        <v>1465.7</v>
+        <v>137.20000000000002</v>
       </c>
       <c r="V76">
-        <v>137.20000000000002</v>
+        <v>3450.7000000000003</v>
       </c>
       <c r="W76">
-        <v>3450.7000000000003</v>
+        <v>4323.1000000000004</v>
       </c>
       <c r="X76">
-        <v>4323.1000000000004</v>
+        <v>419.20000000000005</v>
       </c>
       <c r="Y76">
-        <v>419.20000000000005</v>
-      </c>
-      <c r="Z76">
         <v>5642.9000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42838</v>
       </c>
@@ -6826,26 +6811,26 @@
       <c r="S77">
         <v>1252.9000000000001</v>
       </c>
+      <c r="T77">
+        <v>1448.5</v>
+      </c>
       <c r="U77">
-        <v>1448.5</v>
+        <v>136.5</v>
       </c>
       <c r="V77">
-        <v>136.5</v>
+        <v>3441.5</v>
       </c>
       <c r="W77">
-        <v>3441.5</v>
+        <v>4294.5</v>
       </c>
       <c r="X77">
-        <v>4294.5</v>
+        <v>417.90000000000003</v>
       </c>
       <c r="Y77">
-        <v>417.90000000000003</v>
-      </c>
-      <c r="Z77">
         <v>5640</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42839</v>
       </c>
@@ -6903,26 +6888,26 @@
       <c r="S78">
         <v>1252.9000000000001</v>
       </c>
+      <c r="T78">
+        <v>1448.5</v>
+      </c>
       <c r="U78">
-        <v>1448.5</v>
+        <v>136.5</v>
       </c>
       <c r="V78">
-        <v>136.5</v>
+        <v>3441.5</v>
       </c>
       <c r="W78">
-        <v>3441.5</v>
+        <v>4294.5</v>
       </c>
       <c r="X78">
-        <v>4294.5</v>
+        <v>417.90000000000003</v>
       </c>
       <c r="Y78">
-        <v>417.90000000000003</v>
-      </c>
-      <c r="Z78">
         <v>5640</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42842</v>
       </c>
@@ -6980,26 +6965,26 @@
       <c r="S79">
         <v>1252.9000000000001</v>
       </c>
+      <c r="T79">
+        <v>1448.5</v>
+      </c>
       <c r="U79">
-        <v>1448.5</v>
+        <v>136.5</v>
       </c>
       <c r="V79">
-        <v>136.5</v>
+        <v>3441.5</v>
       </c>
       <c r="W79">
-        <v>3441.5</v>
+        <v>4294.5</v>
       </c>
       <c r="X79">
-        <v>4294.5</v>
+        <v>417.90000000000003</v>
       </c>
       <c r="Y79">
-        <v>417.90000000000003</v>
-      </c>
-      <c r="Z79">
         <v>5640</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42843</v>
       </c>
@@ -7057,26 +7042,26 @@
       <c r="S80">
         <v>1236.8000000000002</v>
       </c>
+      <c r="T80">
+        <v>1428.2</v>
+      </c>
       <c r="U80">
-        <v>1428.2</v>
+        <v>136</v>
       </c>
       <c r="V80">
-        <v>136</v>
+        <v>3436.9</v>
       </c>
       <c r="W80">
-        <v>3436.9</v>
+        <v>4274.8</v>
       </c>
       <c r="X80">
-        <v>4274.8</v>
+        <v>413.70000000000005</v>
       </c>
       <c r="Y80">
-        <v>413.70000000000005</v>
-      </c>
-      <c r="Z80">
         <v>5612.8</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42844</v>
       </c>
@@ -7134,26 +7119,26 @@
       <c r="S81">
         <v>1248.5</v>
       </c>
+      <c r="T81">
+        <v>1402.2</v>
+      </c>
       <c r="U81">
-        <v>1402.2</v>
+        <v>136.5</v>
       </c>
       <c r="V81">
-        <v>136.5</v>
+        <v>3408.5</v>
       </c>
       <c r="W81">
-        <v>3408.5</v>
+        <v>4273</v>
       </c>
       <c r="X81">
-        <v>4273</v>
+        <v>410.6</v>
       </c>
       <c r="Y81">
-        <v>410.6</v>
-      </c>
-      <c r="Z81">
         <v>5633.6</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42845</v>
       </c>
@@ -7211,26 +7196,26 @@
       <c r="S82">
         <v>1261.6000000000001</v>
       </c>
+      <c r="T82">
+        <v>1395.8000000000002</v>
+      </c>
       <c r="U82">
-        <v>1395.8000000000002</v>
+        <v>135</v>
       </c>
       <c r="V82">
-        <v>135</v>
+        <v>3392.4</v>
       </c>
       <c r="W82">
-        <v>3392.4</v>
+        <v>4277</v>
       </c>
       <c r="X82">
-        <v>4277</v>
+        <v>412</v>
       </c>
       <c r="Y82">
-        <v>412</v>
-      </c>
-      <c r="Z82">
         <v>5579.2000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42846</v>
       </c>
@@ -7288,26 +7273,26 @@
       <c r="S83">
         <v>1244.2</v>
       </c>
+      <c r="T83">
+        <v>1394.1000000000001</v>
+      </c>
       <c r="U83">
-        <v>1394.1000000000001</v>
+        <v>141.4</v>
       </c>
       <c r="V83">
-        <v>141.4</v>
+        <v>3373.2000000000003</v>
       </c>
       <c r="W83">
-        <v>3373.2000000000003</v>
+        <v>4270.3</v>
       </c>
       <c r="X83">
-        <v>4270.3</v>
+        <v>405.70000000000005</v>
       </c>
       <c r="Y83">
-        <v>405.70000000000005</v>
-      </c>
-      <c r="Z83">
         <v>5568.5</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42849</v>
       </c>
@@ -7365,26 +7350,26 @@
       <c r="S84">
         <v>1289.9000000000001</v>
       </c>
+      <c r="T84">
+        <v>1401.9</v>
+      </c>
       <c r="U84">
-        <v>1401.9</v>
+        <v>145</v>
       </c>
       <c r="V84">
-        <v>145</v>
+        <v>3486.8</v>
       </c>
       <c r="W84">
-        <v>3486.8</v>
+        <v>4318.7</v>
       </c>
       <c r="X84">
-        <v>4318.7</v>
+        <v>409.6</v>
       </c>
       <c r="Y84">
-        <v>409.6</v>
-      </c>
-      <c r="Z84">
         <v>5548.5</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42850</v>
       </c>
@@ -7442,26 +7427,26 @@
       <c r="S85">
         <v>1270.1000000000001</v>
       </c>
+      <c r="T85">
+        <v>1404.5</v>
+      </c>
       <c r="U85">
-        <v>1404.5</v>
+        <v>147.6</v>
       </c>
       <c r="V85">
-        <v>147.6</v>
+        <v>3522.2000000000003</v>
       </c>
       <c r="W85">
-        <v>3522.2000000000003</v>
+        <v>4297.2</v>
       </c>
       <c r="X85">
-        <v>4297.2</v>
+        <v>404.6</v>
       </c>
       <c r="Y85">
-        <v>404.6</v>
-      </c>
-      <c r="Z85">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42851</v>
       </c>
@@ -7519,26 +7504,26 @@
       <c r="S86">
         <v>1260.2</v>
       </c>
+      <c r="T86">
+        <v>1414.7</v>
+      </c>
       <c r="U86">
-        <v>1414.7</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="V86">
-        <v>145.80000000000001</v>
+        <v>3503</v>
       </c>
       <c r="W86">
-        <v>3503</v>
+        <v>4294</v>
       </c>
       <c r="X86">
-        <v>4294</v>
+        <v>406.20000000000005</v>
       </c>
       <c r="Y86">
-        <v>406.20000000000005</v>
-      </c>
-      <c r="Z86">
         <v>5584.2000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42852</v>
       </c>
@@ -7596,26 +7581,26 @@
       <c r="S87">
         <v>1260.2</v>
       </c>
+      <c r="T87">
+        <v>1396.4</v>
+      </c>
       <c r="U87">
-        <v>1396.4</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="V87">
-        <v>148.80000000000001</v>
+        <v>3480.7000000000003</v>
       </c>
       <c r="W87">
-        <v>3480.7000000000003</v>
+        <v>4284.6000000000004</v>
       </c>
       <c r="X87">
-        <v>4284.6000000000004</v>
+        <v>408.3</v>
       </c>
       <c r="Y87">
-        <v>408.3</v>
-      </c>
-      <c r="Z87">
         <v>5624.3</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42853</v>
       </c>
@@ -7673,26 +7658,26 @@
       <c r="S88">
         <v>1255.9000000000001</v>
       </c>
+      <c r="T88">
+        <v>1391.7</v>
+      </c>
       <c r="U88">
-        <v>1391.7</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="V88">
-        <v>155.30000000000001</v>
+        <v>3462.3</v>
       </c>
       <c r="W88">
-        <v>3462.3</v>
+        <v>4310.2</v>
       </c>
       <c r="X88">
-        <v>4310.2</v>
+        <v>409.5</v>
       </c>
       <c r="Y88">
-        <v>409.5</v>
-      </c>
-      <c r="Z88">
         <v>5576.4000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42856</v>
       </c>
@@ -7750,26 +7735,26 @@
       <c r="S89">
         <v>1255.9000000000001</v>
       </c>
+      <c r="T89">
+        <v>1391.7</v>
+      </c>
       <c r="U89">
-        <v>1391.7</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="V89">
-        <v>155.30000000000001</v>
+        <v>3462.3</v>
       </c>
       <c r="W89">
-        <v>3462.3</v>
+        <v>4310.2</v>
       </c>
       <c r="X89">
-        <v>4310.2</v>
+        <v>409.5</v>
       </c>
       <c r="Y89">
-        <v>409.5</v>
-      </c>
-      <c r="Z89">
         <v>5576.4000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42857</v>
       </c>
@@ -7827,26 +7812,26 @@
       <c r="S90">
         <v>1261.2</v>
       </c>
+      <c r="T90">
+        <v>1393.5</v>
+      </c>
       <c r="U90">
-        <v>1393.5</v>
+        <v>157.20000000000002</v>
       </c>
       <c r="V90">
-        <v>157.20000000000002</v>
+        <v>3495.3</v>
       </c>
       <c r="W90">
-        <v>3495.3</v>
+        <v>4351.3</v>
       </c>
       <c r="X90">
-        <v>4351.3</v>
+        <v>415.20000000000005</v>
       </c>
       <c r="Y90">
-        <v>415.20000000000005</v>
-      </c>
-      <c r="Z90">
         <v>5687.9000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42858</v>
       </c>
@@ -7904,26 +7889,26 @@
       <c r="S91">
         <v>1244.9000000000001</v>
       </c>
+      <c r="T91">
+        <v>1395.5</v>
+      </c>
       <c r="U91">
-        <v>1395.5</v>
+        <v>158</v>
       </c>
       <c r="V91">
-        <v>158</v>
+        <v>3493</v>
       </c>
       <c r="W91">
-        <v>3493</v>
+        <v>4338.4000000000005</v>
       </c>
       <c r="X91">
-        <v>4338.4000000000005</v>
+        <v>406.6</v>
       </c>
       <c r="Y91">
-        <v>406.6</v>
-      </c>
-      <c r="Z91">
         <v>5683.6</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42859</v>
       </c>
@@ -7981,26 +7966,26 @@
       <c r="S92">
         <v>1268.3000000000002</v>
       </c>
+      <c r="T92">
+        <v>1397.8000000000002</v>
+      </c>
       <c r="U92">
-        <v>1397.8000000000002</v>
+        <v>159.5</v>
       </c>
       <c r="V92">
-        <v>159.5</v>
+        <v>3503.7000000000003</v>
       </c>
       <c r="W92">
-        <v>3503.7000000000003</v>
+        <v>4328.1000000000004</v>
       </c>
       <c r="X92">
-        <v>4328.1000000000004</v>
+        <v>413.90000000000003</v>
       </c>
       <c r="Y92">
-        <v>413.90000000000003</v>
-      </c>
-      <c r="Z92">
         <v>5652.2000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42860</v>
       </c>
@@ -8058,26 +8043,26 @@
       <c r="S93">
         <v>1286.6000000000001</v>
       </c>
+      <c r="T93">
+        <v>1426.7</v>
+      </c>
       <c r="U93">
-        <v>1426.7</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="V93">
-        <v>161.70000000000002</v>
+        <v>3526</v>
       </c>
       <c r="W93">
-        <v>3526</v>
+        <v>4308.4000000000005</v>
       </c>
       <c r="X93">
-        <v>4308.4000000000005</v>
+        <v>425</v>
       </c>
       <c r="Y93">
-        <v>425</v>
-      </c>
-      <c r="Z93">
         <v>5667.2000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42863</v>
       </c>
@@ -8135,26 +8120,26 @@
       <c r="S94">
         <v>1287.1000000000001</v>
       </c>
+      <c r="T94">
+        <v>1441.3000000000002</v>
+      </c>
       <c r="U94">
-        <v>1441.3000000000002</v>
+        <v>165</v>
       </c>
       <c r="V94">
-        <v>165</v>
+        <v>3589.7000000000003</v>
       </c>
       <c r="W94">
-        <v>3589.7000000000003</v>
+        <v>4392.1000000000004</v>
       </c>
       <c r="X94">
-        <v>4392.1000000000004</v>
+        <v>419.90000000000003</v>
       </c>
       <c r="Y94">
-        <v>419.90000000000003</v>
-      </c>
-      <c r="Z94">
         <v>5666.5</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42864</v>
       </c>
@@ -8212,26 +8197,26 @@
       <c r="S95">
         <v>1297.9000000000001</v>
       </c>
+      <c r="T95">
+        <v>1452.3000000000002</v>
+      </c>
       <c r="U95">
-        <v>1452.3000000000002</v>
+        <v>165.5</v>
       </c>
       <c r="V95">
-        <v>165.5</v>
+        <v>3611.2000000000003</v>
       </c>
       <c r="W95">
-        <v>3611.2000000000003</v>
+        <v>4399.7</v>
       </c>
       <c r="X95">
-        <v>4399.7</v>
+        <v>417.90000000000003</v>
       </c>
       <c r="Y95">
-        <v>417.90000000000003</v>
-      </c>
-      <c r="Z95">
         <v>5687.9000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42865</v>
       </c>
@@ -8289,26 +8274,26 @@
       <c r="S96">
         <v>1297.2</v>
       </c>
+      <c r="T96">
+        <v>1470.4</v>
+      </c>
       <c r="U96">
-        <v>1470.4</v>
+        <v>164.4</v>
       </c>
       <c r="V96">
-        <v>164.4</v>
+        <v>3606.6000000000004</v>
       </c>
       <c r="W96">
-        <v>3606.6000000000004</v>
+        <v>4427.4000000000005</v>
       </c>
       <c r="X96">
-        <v>4427.4000000000005</v>
+        <v>419.70000000000005</v>
       </c>
       <c r="Y96">
-        <v>419.70000000000005</v>
-      </c>
-      <c r="Z96">
         <v>5582.1</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42866</v>
       </c>
@@ -8366,26 +8351,26 @@
       <c r="S97">
         <v>1287.6000000000001</v>
       </c>
+      <c r="T97">
+        <v>1475.4</v>
+      </c>
       <c r="U97">
-        <v>1475.4</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="V97">
-        <v>158.80000000000001</v>
+        <v>3628.1000000000004</v>
       </c>
       <c r="W97">
-        <v>3628.1000000000004</v>
+        <v>4424.8</v>
       </c>
       <c r="X97">
-        <v>4424.8</v>
+        <v>416</v>
       </c>
       <c r="Y97">
-        <v>416</v>
-      </c>
-      <c r="Z97">
         <v>5547.1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42867</v>
       </c>
@@ -8443,26 +8428,26 @@
       <c r="S98">
         <v>1288.7</v>
       </c>
+      <c r="T98">
+        <v>1475.6000000000001</v>
+      </c>
       <c r="U98">
-        <v>1475.6000000000001</v>
+        <v>160.10000000000002</v>
       </c>
       <c r="V98">
-        <v>160.10000000000002</v>
+        <v>3636.6000000000004</v>
       </c>
       <c r="W98">
-        <v>3636.6000000000004</v>
+        <v>4399.7</v>
       </c>
       <c r="X98">
-        <v>4399.7</v>
+        <v>413.8</v>
       </c>
       <c r="Y98">
-        <v>413.8</v>
-      </c>
-      <c r="Z98">
         <v>5638.6</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42870</v>
       </c>
@@ -8520,26 +8505,26 @@
       <c r="S99">
         <v>1294</v>
       </c>
+      <c r="T99">
+        <v>1480</v>
+      </c>
       <c r="U99">
-        <v>1480</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="V99">
-        <v>159.30000000000001</v>
+        <v>3645</v>
       </c>
       <c r="W99">
-        <v>3645</v>
+        <v>4423.9000000000005</v>
       </c>
       <c r="X99">
-        <v>4423.9000000000005</v>
+        <v>413.40000000000003</v>
       </c>
       <c r="Y99">
-        <v>413.40000000000003</v>
-      </c>
-      <c r="Z99">
         <v>5632.9000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42871</v>
       </c>
@@ -8597,26 +8582,26 @@
       <c r="S100">
         <v>1293.5</v>
       </c>
+      <c r="T100">
+        <v>1477.1000000000001</v>
+      </c>
       <c r="U100">
-        <v>1477.1000000000001</v>
+        <v>159.9</v>
       </c>
       <c r="V100">
-        <v>159.9</v>
+        <v>3642.7000000000003</v>
       </c>
       <c r="W100">
-        <v>3642.7000000000003</v>
+        <v>4439.5</v>
       </c>
       <c r="X100">
-        <v>4439.5</v>
+        <v>411.5</v>
       </c>
       <c r="Y100">
-        <v>411.5</v>
-      </c>
-      <c r="Z100">
         <v>5697.2000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42872</v>
       </c>
@@ -8674,26 +8659,26 @@
       <c r="S101">
         <v>1261.4000000000001</v>
       </c>
+      <c r="T101">
+        <v>1481.2</v>
+      </c>
       <c r="U101">
-        <v>1481.2</v>
+        <v>157.5</v>
       </c>
       <c r="V101">
-        <v>157.5</v>
+        <v>3604.3</v>
       </c>
       <c r="W101">
-        <v>3604.3</v>
+        <v>4409.1000000000004</v>
       </c>
       <c r="X101">
-        <v>4409.1000000000004</v>
+        <v>406.90000000000003</v>
       </c>
       <c r="Y101">
-        <v>406.90000000000003</v>
-      </c>
-      <c r="Z101">
         <v>5694.4000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42873</v>
       </c>
@@ -8751,26 +8736,26 @@
       <c r="S102">
         <v>1260</v>
       </c>
+      <c r="T102">
+        <v>1439.2</v>
+      </c>
       <c r="U102">
-        <v>1439.2</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="V102">
-        <v>154.80000000000001</v>
+        <v>3542.1000000000004</v>
       </c>
       <c r="W102">
-        <v>3542.1000000000004</v>
+        <v>4368.3</v>
       </c>
       <c r="X102">
-        <v>4368.3</v>
+        <v>402.70000000000005</v>
       </c>
       <c r="Y102">
-        <v>402.70000000000005</v>
-      </c>
-      <c r="Z102">
         <v>5658.6</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42874</v>
       </c>
@@ -8828,26 +8813,26 @@
       <c r="S103">
         <v>1242.3000000000002</v>
       </c>
+      <c r="T103">
+        <v>1440.1000000000001</v>
+      </c>
       <c r="U103">
-        <v>1440.1000000000001</v>
+        <v>157.60000000000002</v>
       </c>
       <c r="V103">
-        <v>157.60000000000002</v>
+        <v>3529.1000000000004</v>
       </c>
       <c r="W103">
-        <v>3529.1000000000004</v>
+        <v>4407.7</v>
       </c>
       <c r="X103">
-        <v>4407.7</v>
+        <v>410.70000000000005</v>
       </c>
       <c r="Y103">
-        <v>410.70000000000005</v>
-      </c>
-      <c r="Z103">
         <v>5680.1</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42877</v>
       </c>
@@ -8905,26 +8890,26 @@
       <c r="S104">
         <v>1236.8000000000002</v>
       </c>
+      <c r="T104">
+        <v>1429</v>
+      </c>
       <c r="U104">
-        <v>1429</v>
+        <v>160.20000000000002</v>
       </c>
       <c r="V104">
-        <v>160.20000000000002</v>
+        <v>3569</v>
       </c>
       <c r="W104">
-        <v>3569</v>
+        <v>4446.2</v>
       </c>
       <c r="X104">
-        <v>4446.2</v>
+        <v>410.6</v>
       </c>
       <c r="Y104">
-        <v>410.6</v>
-      </c>
-      <c r="Z104">
         <v>5679.4000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42878</v>
       </c>
@@ -8982,26 +8967,26 @@
       <c r="S105">
         <v>1242.1000000000001</v>
       </c>
+      <c r="T105">
+        <v>1430.5</v>
+      </c>
       <c r="U105">
-        <v>1430.5</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="V105">
-        <v>159.80000000000001</v>
+        <v>3536.7000000000003</v>
       </c>
       <c r="W105">
-        <v>3536.7000000000003</v>
+        <v>4450.3</v>
       </c>
       <c r="X105">
-        <v>4450.3</v>
+        <v>409</v>
       </c>
       <c r="Y105">
-        <v>409</v>
-      </c>
-      <c r="Z105">
         <v>5641.5</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42879</v>
       </c>
@@ -9059,26 +9044,26 @@
       <c r="S106">
         <v>1196.9000000000001</v>
       </c>
+      <c r="T106">
+        <v>1433.7</v>
+      </c>
       <c r="U106">
-        <v>1433.7</v>
+        <v>161</v>
       </c>
       <c r="V106">
-        <v>161</v>
+        <v>3540.6000000000004</v>
       </c>
       <c r="W106">
-        <v>3540.6000000000004</v>
+        <v>4461</v>
       </c>
       <c r="X106">
-        <v>4461</v>
+        <v>412.3</v>
       </c>
       <c r="Y106">
-        <v>412.3</v>
-      </c>
-      <c r="Z106">
         <v>5620.7000000000007</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42880</v>
       </c>
@@ -9136,26 +9121,26 @@
       <c r="S107">
         <v>1199.2</v>
       </c>
+      <c r="T107">
+        <v>1425.2</v>
+      </c>
       <c r="U107">
-        <v>1425.2</v>
+        <v>159.4</v>
       </c>
       <c r="V107">
-        <v>159.4</v>
+        <v>3551.3</v>
       </c>
       <c r="W107">
-        <v>3551.3</v>
+        <v>4524.6000000000004</v>
       </c>
       <c r="X107">
-        <v>4524.6000000000004</v>
+        <v>408.40000000000003</v>
       </c>
       <c r="Y107">
-        <v>408.40000000000003</v>
-      </c>
-      <c r="Z107">
         <v>5574.9000000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42881</v>
       </c>
@@ -9213,26 +9198,26 @@
       <c r="S108">
         <v>1192.5</v>
       </c>
+      <c r="T108">
+        <v>1415.6000000000001</v>
+      </c>
       <c r="U108">
-        <v>1415.6000000000001</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V108">
-        <v>158.30000000000001</v>
+        <v>3562.9</v>
       </c>
       <c r="W108">
-        <v>3562.9</v>
+        <v>4524.6000000000004</v>
       </c>
       <c r="X108">
-        <v>4524.6000000000004</v>
+        <v>406.3</v>
       </c>
       <c r="Y108">
-        <v>406.3</v>
-      </c>
-      <c r="Z108">
         <v>5601.4000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42884</v>
       </c>
@@ -9290,26 +9275,26 @@
       <c r="S109">
         <v>1188.9000000000001</v>
       </c>
+      <c r="T109">
+        <v>1421.2</v>
+      </c>
       <c r="U109">
-        <v>1421.2</v>
+        <v>160.4</v>
       </c>
       <c r="V109">
-        <v>160.4</v>
+        <v>3557.5</v>
       </c>
       <c r="W109">
-        <v>3557.5</v>
+        <v>4512.9000000000005</v>
       </c>
       <c r="X109">
-        <v>4512.9000000000005</v>
+        <v>405.70000000000005</v>
       </c>
       <c r="Y109">
-        <v>405.70000000000005</v>
-      </c>
-      <c r="Z109">
         <v>5586.4000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42885</v>
       </c>
@@ -9367,26 +9352,26 @@
       <c r="S110">
         <v>1182.4000000000001</v>
       </c>
+      <c r="T110">
+        <v>1420.9</v>
+      </c>
       <c r="U110">
-        <v>1420.9</v>
+        <v>162.4</v>
       </c>
       <c r="V110">
-        <v>162.4</v>
+        <v>3549</v>
       </c>
       <c r="W110">
-        <v>3549</v>
+        <v>4515.6000000000004</v>
       </c>
       <c r="X110">
-        <v>4515.6000000000004</v>
+        <v>402</v>
       </c>
       <c r="Y110">
-        <v>402</v>
-      </c>
-      <c r="Z110">
         <v>5583.5</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42886</v>
       </c>
@@ -9444,26 +9429,26 @@
       <c r="S111">
         <v>1182.2</v>
       </c>
+      <c r="T111">
+        <v>1407.5</v>
+      </c>
       <c r="U111">
-        <v>1407.5</v>
+        <v>165</v>
       </c>
       <c r="V111">
-        <v>165</v>
+        <v>3526.8</v>
       </c>
       <c r="W111">
-        <v>3526.8</v>
+        <v>4538.9000000000005</v>
       </c>
       <c r="X111">
-        <v>4538.9000000000005</v>
+        <v>398.5</v>
       </c>
       <c r="Y111">
-        <v>398.5</v>
-      </c>
-      <c r="Z111">
         <v>5585</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42887</v>
       </c>
@@ -9521,26 +9506,26 @@
       <c r="S112">
         <v>1194.8</v>
       </c>
+      <c r="T112">
+        <v>1416.5</v>
+      </c>
       <c r="U112">
-        <v>1416.5</v>
+        <v>167.9</v>
       </c>
       <c r="V112">
-        <v>167.9</v>
+        <v>3561.3</v>
       </c>
       <c r="W112">
-        <v>3561.3</v>
+        <v>4526.4000000000005</v>
       </c>
       <c r="X112">
-        <v>4526.4000000000005</v>
+        <v>404.20000000000005</v>
       </c>
       <c r="Y112">
-        <v>404.20000000000005</v>
-      </c>
-      <c r="Z112">
         <v>5587.1</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42888</v>
       </c>
@@ -9598,26 +9583,26 @@
       <c r="S113">
         <v>1200.1000000000001</v>
       </c>
+      <c r="T113">
+        <v>1391.4</v>
+      </c>
       <c r="U113">
-        <v>1391.4</v>
+        <v>166.20000000000002</v>
       </c>
       <c r="V113">
-        <v>166.20000000000002</v>
+        <v>3626.6000000000004</v>
       </c>
       <c r="W113">
-        <v>3626.6000000000004</v>
+        <v>4573.8</v>
       </c>
       <c r="X113">
-        <v>4573.8</v>
+        <v>402.1</v>
       </c>
       <c r="Y113">
-        <v>402.1</v>
-      </c>
-      <c r="Z113">
         <v>5565.7000000000007</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42891</v>
       </c>
@@ -9675,26 +9660,26 @@
       <c r="S114">
         <v>1178.8</v>
       </c>
+      <c r="T114">
+        <v>1398.4</v>
+      </c>
       <c r="U114">
-        <v>1398.4</v>
+        <v>166.8</v>
       </c>
       <c r="V114">
-        <v>166.8</v>
+        <v>3566.7000000000003</v>
       </c>
       <c r="W114">
-        <v>3566.7000000000003</v>
+        <v>4564.9000000000005</v>
       </c>
       <c r="X114">
-        <v>4564.9000000000005</v>
+        <v>398.3</v>
       </c>
       <c r="Y114">
-        <v>398.3</v>
-      </c>
-      <c r="Z114">
         <v>5538.5</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42892</v>
       </c>
@@ -9752,26 +9737,26 @@
       <c r="S115">
         <v>1167.3</v>
       </c>
+      <c r="T115">
+        <v>1395.5</v>
+      </c>
       <c r="U115">
-        <v>1395.5</v>
+        <v>170</v>
       </c>
       <c r="V115">
-        <v>170</v>
+        <v>3582.8</v>
       </c>
       <c r="W115">
-        <v>3582.8</v>
+        <v>4555.9000000000005</v>
       </c>
       <c r="X115">
-        <v>4555.9000000000005</v>
+        <v>398.1</v>
       </c>
       <c r="Y115">
-        <v>398.1</v>
-      </c>
-      <c r="Z115">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42893</v>
       </c>
@@ -9829,26 +9814,26 @@
       <c r="S116">
         <v>1178.5</v>
       </c>
+      <c r="T116">
+        <v>1387.4</v>
+      </c>
       <c r="U116">
-        <v>1387.4</v>
+        <v>177.5</v>
       </c>
       <c r="V116">
-        <v>177.5</v>
+        <v>3590.5</v>
       </c>
       <c r="W116">
-        <v>3590.5</v>
+        <v>4555</v>
       </c>
       <c r="X116">
-        <v>4555</v>
+        <v>404.8</v>
       </c>
       <c r="Y116">
-        <v>404.8</v>
-      </c>
-      <c r="Z116">
         <v>5542.8</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42894</v>
       </c>
@@ -9906,26 +9891,26 @@
       <c r="S117">
         <v>1191.4000000000001</v>
       </c>
+      <c r="T117">
+        <v>1385.3000000000002</v>
+      </c>
       <c r="U117">
-        <v>1385.3000000000002</v>
+        <v>179.70000000000002</v>
       </c>
       <c r="V117">
-        <v>179.70000000000002</v>
+        <v>3566.7000000000003</v>
       </c>
       <c r="W117">
-        <v>3566.7000000000003</v>
+        <v>4495</v>
       </c>
       <c r="X117">
-        <v>4495</v>
+        <v>405.1</v>
       </c>
       <c r="Y117">
-        <v>405.1</v>
-      </c>
-      <c r="Z117">
         <v>5496.3</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42895</v>
       </c>
@@ -9983,26 +9968,26 @@
       <c r="S118">
         <v>1200.1000000000001</v>
       </c>
+      <c r="T118">
+        <v>1396.4</v>
+      </c>
       <c r="U118">
-        <v>1396.4</v>
+        <v>179.70000000000002</v>
       </c>
       <c r="V118">
-        <v>179.70000000000002</v>
+        <v>3586.7000000000003</v>
       </c>
       <c r="W118">
-        <v>3586.7000000000003</v>
+        <v>4498.6000000000004</v>
       </c>
       <c r="X118">
-        <v>4498.6000000000004</v>
+        <v>404.90000000000003</v>
       </c>
       <c r="Y118">
-        <v>404.90000000000003</v>
-      </c>
-      <c r="Z118">
         <v>5493.4000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42898</v>
       </c>
@@ -10060,26 +10045,26 @@
       <c r="S119">
         <v>1192.5</v>
       </c>
+      <c r="T119">
+        <v>1404.8000000000002</v>
+      </c>
       <c r="U119">
-        <v>1404.8000000000002</v>
+        <v>172</v>
       </c>
       <c r="V119">
-        <v>172</v>
+        <v>3555.9</v>
       </c>
       <c r="W119">
-        <v>3555.9</v>
+        <v>4425.2</v>
       </c>
       <c r="X119">
-        <v>4425.2</v>
+        <v>412.90000000000003</v>
       </c>
       <c r="Y119">
-        <v>412.90000000000003</v>
-      </c>
-      <c r="Z119">
         <v>5486.3</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42899</v>
       </c>
@@ -10137,26 +10122,26 @@
       <c r="S120">
         <v>1197.1000000000001</v>
       </c>
+      <c r="T120">
+        <v>1411</v>
+      </c>
       <c r="U120">
-        <v>1411</v>
+        <v>168.4</v>
       </c>
       <c r="V120">
-        <v>168.4</v>
+        <v>3579</v>
       </c>
       <c r="W120">
-        <v>3579</v>
+        <v>4421.6000000000004</v>
       </c>
       <c r="X120">
-        <v>4421.6000000000004</v>
+        <v>420.20000000000005</v>
       </c>
       <c r="Y120">
-        <v>420.20000000000005</v>
-      </c>
-      <c r="Z120">
         <v>5529.9000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42900</v>
       </c>
@@ -10214,26 +10199,26 @@
       <c r="S121">
         <v>1191.8</v>
       </c>
+      <c r="T121">
+        <v>1388.5</v>
+      </c>
       <c r="U121">
-        <v>1388.5</v>
+        <v>168.8</v>
       </c>
       <c r="V121">
-        <v>168.8</v>
+        <v>3585.1000000000004</v>
       </c>
       <c r="W121">
-        <v>3585.1000000000004</v>
+        <v>4400.1000000000004</v>
       </c>
       <c r="X121">
-        <v>4400.1000000000004</v>
+        <v>422.6</v>
       </c>
       <c r="Y121">
-        <v>422.6</v>
-      </c>
-      <c r="Z121">
         <v>5552.8</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42901</v>
       </c>
@@ -10291,26 +10276,26 @@
       <c r="S122">
         <v>1200.3</v>
       </c>
+      <c r="T122">
+        <v>1388.2</v>
+      </c>
       <c r="U122">
-        <v>1388.2</v>
+        <v>167</v>
       </c>
       <c r="V122">
-        <v>167</v>
+        <v>3548.3</v>
       </c>
       <c r="W122">
-        <v>3548.3</v>
+        <v>4431.9000000000005</v>
       </c>
       <c r="X122">
-        <v>4431.9000000000005</v>
+        <v>417.40000000000003</v>
       </c>
       <c r="Y122">
-        <v>417.40000000000003</v>
-      </c>
-      <c r="Z122">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42902</v>
       </c>
@@ -10368,26 +10353,26 @@
       <c r="S123">
         <v>1218.5</v>
       </c>
+      <c r="T123">
+        <v>1408</v>
+      </c>
       <c r="U123">
-        <v>1408</v>
+        <v>167.20000000000002</v>
       </c>
       <c r="V123">
-        <v>167.20000000000002</v>
+        <v>3562.9</v>
       </c>
       <c r="W123">
-        <v>3562.9</v>
+        <v>4459.2</v>
       </c>
       <c r="X123">
-        <v>4459.2</v>
+        <v>423.70000000000005</v>
       </c>
       <c r="Y123">
-        <v>423.70000000000005</v>
-      </c>
-      <c r="Z123">
         <v>5618.6</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42905</v>
       </c>
@@ -10445,26 +10430,26 @@
       <c r="S124">
         <v>1228.3</v>
       </c>
+      <c r="T124">
+        <v>1416.8000000000002</v>
+      </c>
       <c r="U124">
-        <v>1416.8000000000002</v>
+        <v>168.9</v>
       </c>
       <c r="V124">
-        <v>168.9</v>
+        <v>3575.1000000000004</v>
       </c>
       <c r="W124">
-        <v>3575.1000000000004</v>
+        <v>4494.1000000000004</v>
       </c>
       <c r="X124">
-        <v>4494.1000000000004</v>
+        <v>428.1</v>
       </c>
       <c r="Y124">
-        <v>428.1</v>
-      </c>
-      <c r="Z124">
         <v>5636.4000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42906</v>
       </c>
@@ -10522,26 +10507,26 @@
       <c r="S125">
         <v>1224.2</v>
       </c>
+      <c r="T125">
+        <v>1384.1000000000001</v>
+      </c>
       <c r="U125">
-        <v>1384.1000000000001</v>
+        <v>170.10000000000002</v>
       </c>
       <c r="V125">
-        <v>170.10000000000002</v>
+        <v>3569</v>
       </c>
       <c r="W125">
-        <v>3569</v>
+        <v>4487.9000000000005</v>
       </c>
       <c r="X125">
-        <v>4487.9000000000005</v>
+        <v>425.40000000000003</v>
       </c>
       <c r="Y125">
-        <v>425.40000000000003</v>
-      </c>
-      <c r="Z125">
         <v>5658.6</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42907</v>
       </c>
@@ -10599,26 +10584,26 @@
       <c r="S126">
         <v>1218.7</v>
       </c>
+      <c r="T126">
+        <v>1369.6000000000001</v>
+      </c>
       <c r="U126">
-        <v>1369.6000000000001</v>
+        <v>173.5</v>
       </c>
       <c r="V126">
-        <v>173.5</v>
+        <v>3559.8</v>
       </c>
       <c r="W126">
-        <v>3559.8</v>
+        <v>4485.2</v>
       </c>
       <c r="X126">
-        <v>4485.2</v>
+        <v>423.5</v>
       </c>
       <c r="Y126">
-        <v>423.5</v>
-      </c>
-      <c r="Z126">
         <v>5633.6</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42908</v>
       </c>
@@ -10676,26 +10661,26 @@
       <c r="S127">
         <v>1219.4000000000001</v>
       </c>
+      <c r="T127">
+        <v>1370.5</v>
+      </c>
       <c r="U127">
-        <v>1370.5</v>
+        <v>174.8</v>
       </c>
       <c r="V127">
-        <v>174.8</v>
+        <v>3543.7000000000003</v>
       </c>
       <c r="W127">
-        <v>3543.7000000000003</v>
+        <v>4478.9000000000005</v>
       </c>
       <c r="X127">
-        <v>4478.9000000000005</v>
+        <v>419.40000000000003</v>
       </c>
       <c r="Y127">
-        <v>419.40000000000003</v>
-      </c>
-      <c r="Z127">
         <v>5617.1</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42909</v>
       </c>
@@ -10753,26 +10738,26 @@
       <c r="S128">
         <v>1175.1000000000001</v>
       </c>
+      <c r="T128">
+        <v>1372.2</v>
+      </c>
       <c r="U128">
-        <v>1372.2</v>
+        <v>173.20000000000002</v>
       </c>
       <c r="V128">
-        <v>173.20000000000002</v>
+        <v>3575.9</v>
       </c>
       <c r="W128">
-        <v>3575.9</v>
+        <v>4468.2</v>
       </c>
       <c r="X128">
-        <v>4468.2</v>
+        <v>417.20000000000005</v>
       </c>
       <c r="Y128">
-        <v>417.20000000000005</v>
-      </c>
-      <c r="Z128">
         <v>5591.4000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42912</v>
       </c>
@@ -10830,26 +10815,26 @@
       <c r="S129">
         <v>1178.3</v>
       </c>
+      <c r="T129">
+        <v>1370.5</v>
+      </c>
       <c r="U129">
-        <v>1370.5</v>
+        <v>174.5</v>
       </c>
       <c r="V129">
-        <v>174.5</v>
+        <v>3569.8</v>
       </c>
       <c r="W129">
-        <v>3569.8</v>
+        <v>4504</v>
       </c>
       <c r="X129">
-        <v>4504</v>
+        <v>416.90000000000003</v>
       </c>
       <c r="Y129">
-        <v>416.90000000000003</v>
-      </c>
-      <c r="Z129">
         <v>5605.7000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42913</v>
       </c>
@@ -10907,26 +10892,26 @@
       <c r="S130">
         <v>1165.9000000000001</v>
       </c>
+      <c r="T130">
+        <v>1377.7</v>
+      </c>
       <c r="U130">
-        <v>1377.7</v>
+        <v>174.8</v>
       </c>
       <c r="V130">
-        <v>174.8</v>
+        <v>3528.3</v>
       </c>
       <c r="W130">
-        <v>3528.3</v>
+        <v>4463.7</v>
       </c>
       <c r="X130">
-        <v>4463.7</v>
+        <v>410.5</v>
       </c>
       <c r="Y130">
-        <v>410.5</v>
-      </c>
-      <c r="Z130">
         <v>5550.6</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42914</v>
       </c>
@@ -10984,26 +10969,26 @@
       <c r="S131">
         <v>1157.6000000000001</v>
       </c>
+      <c r="T131">
+        <v>1379.2</v>
+      </c>
       <c r="U131">
-        <v>1379.2</v>
+        <v>170.5</v>
       </c>
       <c r="V131">
-        <v>170.5</v>
+        <v>3460.7000000000003</v>
       </c>
       <c r="W131">
-        <v>3460.7000000000003</v>
+        <v>4445.3</v>
       </c>
       <c r="X131">
-        <v>4445.3</v>
+        <v>410</v>
       </c>
       <c r="Y131">
-        <v>410</v>
-      </c>
-      <c r="Z131">
         <v>5417.6</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42915</v>
       </c>
@@ -11061,26 +11046,26 @@
       <c r="S132">
         <v>1160.9000000000001</v>
       </c>
+      <c r="T132">
+        <v>1367.2</v>
+      </c>
       <c r="U132">
-        <v>1367.2</v>
+        <v>164.9</v>
       </c>
       <c r="V132">
-        <v>164.9</v>
+        <v>3417</v>
       </c>
       <c r="W132">
-        <v>3417</v>
+        <v>4317.8</v>
       </c>
       <c r="X132">
-        <v>4317.8</v>
+        <v>415</v>
       </c>
       <c r="Y132">
-        <v>415</v>
-      </c>
-      <c r="Z132">
         <v>5292.5</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
@@ -11138,26 +11123,26 @@
       <c r="S133">
         <v>1173.5</v>
       </c>
+      <c r="T133">
+        <v>1354.1000000000001</v>
+      </c>
       <c r="U133">
-        <v>1354.1000000000001</v>
+        <v>161.60000000000002</v>
       </c>
       <c r="V133">
-        <v>161.60000000000002</v>
+        <v>3388.5</v>
       </c>
       <c r="W133">
-        <v>3388.5</v>
+        <v>4325.8</v>
       </c>
       <c r="X133">
-        <v>4325.8</v>
+        <v>401.40000000000003</v>
       </c>
       <c r="Y133">
-        <v>401.40000000000003</v>
-      </c>
-      <c r="Z133">
         <v>5301.1</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42919</v>
       </c>
@@ -11215,26 +11200,26 @@
       <c r="S134">
         <v>1172.8</v>
       </c>
+      <c r="T134">
+        <v>1377.4</v>
+      </c>
       <c r="U134">
-        <v>1377.4</v>
+        <v>164.3</v>
       </c>
       <c r="V134">
-        <v>164.3</v>
+        <v>3356.3</v>
       </c>
       <c r="W134">
-        <v>3356.3</v>
+        <v>4342.4000000000005</v>
       </c>
       <c r="X134">
-        <v>4342.4000000000005</v>
+        <v>405.40000000000003</v>
       </c>
       <c r="Y134">
-        <v>405.40000000000003</v>
-      </c>
-      <c r="Z134">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42920</v>
       </c>
@@ -11292,26 +11277,26 @@
       <c r="S135">
         <v>1152.4000000000001</v>
       </c>
+      <c r="T135">
+        <v>1379.2</v>
+      </c>
       <c r="U135">
-        <v>1379.2</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="V135">
-        <v>162.60000000000002</v>
+        <v>3314.8</v>
       </c>
       <c r="W135">
-        <v>3314.8</v>
+        <v>4321.4000000000005</v>
       </c>
       <c r="X135">
-        <v>4321.4000000000005</v>
+        <v>405.1</v>
       </c>
       <c r="Y135">
-        <v>405.1</v>
-      </c>
-      <c r="Z135">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42921</v>
       </c>
@@ -11369,26 +11354,26 @@
       <c r="S136">
         <v>1151.9000000000001</v>
       </c>
+      <c r="T136">
+        <v>1364.9</v>
+      </c>
       <c r="U136">
-        <v>1364.9</v>
+        <v>166</v>
       </c>
       <c r="V136">
-        <v>166</v>
+        <v>3291</v>
       </c>
       <c r="W136">
-        <v>3291</v>
+        <v>4325.8</v>
       </c>
       <c r="X136">
-        <v>4325.8</v>
+        <v>404.40000000000003</v>
       </c>
       <c r="Y136">
-        <v>404.40000000000003</v>
-      </c>
-      <c r="Z136">
         <v>5327.5</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42922</v>
       </c>
@@ -11446,26 +11431,26 @@
       <c r="S137">
         <v>1150.5</v>
       </c>
+      <c r="T137">
+        <v>1362.9</v>
+      </c>
       <c r="U137">
-        <v>1362.9</v>
+        <v>165.3</v>
       </c>
       <c r="V137">
-        <v>165.3</v>
+        <v>3263.4</v>
       </c>
       <c r="W137">
-        <v>3263.4</v>
+        <v>4286.4000000000005</v>
       </c>
       <c r="X137">
-        <v>4286.4000000000005</v>
+        <v>405</v>
       </c>
       <c r="Y137">
-        <v>405</v>
-      </c>
-      <c r="Z137">
         <v>5255.3</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42923</v>
       </c>
@@ -11523,26 +11508,26 @@
       <c r="S138">
         <v>1151.4000000000001</v>
       </c>
+      <c r="T138">
+        <v>1349.5</v>
+      </c>
       <c r="U138">
-        <v>1349.5</v>
+        <v>164.9</v>
       </c>
       <c r="V138">
-        <v>164.9</v>
+        <v>3279.5</v>
       </c>
       <c r="W138">
-        <v>3279.5</v>
+        <v>4303.4000000000005</v>
       </c>
       <c r="X138">
-        <v>4303.4000000000005</v>
+        <v>406.20000000000005</v>
       </c>
       <c r="Y138">
-        <v>406.20000000000005</v>
-      </c>
-      <c r="Z138">
         <v>5218.1000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42926</v>
       </c>
@@ -11600,26 +11585,26 @@
       <c r="S139">
         <v>1160.9000000000001</v>
       </c>
+      <c r="T139">
+        <v>1349.8000000000002</v>
+      </c>
       <c r="U139">
-        <v>1349.8000000000002</v>
+        <v>166.5</v>
       </c>
       <c r="V139">
-        <v>166.5</v>
+        <v>3279.5</v>
       </c>
       <c r="W139">
-        <v>3279.5</v>
+        <v>4338.8</v>
       </c>
       <c r="X139">
-        <v>4338.8</v>
+        <v>408.6</v>
       </c>
       <c r="Y139">
-        <v>408.6</v>
-      </c>
-      <c r="Z139">
         <v>5251</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>42927</v>
       </c>
@@ -11677,26 +11662,26 @@
       <c r="S140">
         <v>1132.3</v>
       </c>
+      <c r="T140">
+        <v>1345.1000000000001</v>
+      </c>
       <c r="U140">
-        <v>1345.1000000000001</v>
+        <v>165.60000000000002</v>
       </c>
       <c r="V140">
-        <v>165.60000000000002</v>
+        <v>3236.5</v>
       </c>
       <c r="W140">
-        <v>3236.5</v>
+        <v>4333.4000000000005</v>
       </c>
       <c r="X140">
-        <v>4333.4000000000005</v>
+        <v>406.1</v>
       </c>
       <c r="Y140">
-        <v>406.1</v>
-      </c>
-      <c r="Z140">
         <v>5170.2000000000007</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>42928</v>
       </c>
@@ -11754,26 +11739,26 @@
       <c r="S141">
         <v>1135.1000000000001</v>
       </c>
+      <c r="T141">
+        <v>1368.4</v>
+      </c>
       <c r="U141">
-        <v>1368.4</v>
+        <v>165</v>
       </c>
       <c r="V141">
-        <v>165</v>
+        <v>3278</v>
       </c>
       <c r="W141">
-        <v>3278</v>
+        <v>4391.6000000000004</v>
       </c>
       <c r="X141">
-        <v>4391.6000000000004</v>
+        <v>411.1</v>
       </c>
       <c r="Y141">
-        <v>411.1</v>
-      </c>
-      <c r="Z141">
         <v>5227.4000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>42929</v>
       </c>
@@ -11831,26 +11816,26 @@
       <c r="S142">
         <v>1149.8</v>
       </c>
+      <c r="T142">
+        <v>1368.4</v>
+      </c>
       <c r="U142">
-        <v>1368.4</v>
+        <v>165</v>
       </c>
       <c r="V142">
-        <v>165</v>
+        <v>3281.8</v>
       </c>
       <c r="W142">
-        <v>3281.8</v>
+        <v>4414.9000000000005</v>
       </c>
       <c r="X142">
-        <v>4414.9000000000005</v>
+        <v>413.1</v>
       </c>
       <c r="Y142">
-        <v>413.1</v>
-      </c>
-      <c r="Z142">
         <v>5254.6</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>42930</v>
       </c>
@@ -11908,26 +11893,26 @@
       <c r="S143">
         <v>1160.2</v>
       </c>
+      <c r="T143">
+        <v>1367.5</v>
+      </c>
       <c r="U143">
-        <v>1367.5</v>
+        <v>165</v>
       </c>
       <c r="V143">
-        <v>165</v>
+        <v>3306.4</v>
       </c>
       <c r="W143">
-        <v>3306.4</v>
+        <v>4436.4000000000005</v>
       </c>
       <c r="X143">
-        <v>4436.4000000000005</v>
+        <v>412.20000000000005</v>
       </c>
       <c r="Y143">
-        <v>412.20000000000005</v>
-      </c>
-      <c r="Z143">
         <v>5313.2000000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>42933</v>
       </c>
@@ -11985,26 +11970,26 @@
       <c r="S144">
         <v>1144.7</v>
       </c>
+      <c r="T144">
+        <v>1369.9</v>
+      </c>
       <c r="U144">
-        <v>1369.9</v>
+        <v>164.60000000000002</v>
       </c>
       <c r="V144">
-        <v>164.60000000000002</v>
+        <v>3293.3</v>
       </c>
       <c r="W144">
-        <v>3293.3</v>
+        <v>4440.4000000000005</v>
       </c>
       <c r="X144">
-        <v>4440.4000000000005</v>
+        <v>414.1</v>
       </c>
       <c r="Y144">
-        <v>414.1</v>
-      </c>
-      <c r="Z144">
         <v>5295.3</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42934</v>
       </c>
@@ -12062,26 +12047,26 @@
       <c r="S145">
         <v>1137.6000000000001</v>
       </c>
+      <c r="T145">
+        <v>1357.3000000000002</v>
+      </c>
       <c r="U145">
-        <v>1357.3000000000002</v>
+        <v>164.5</v>
       </c>
       <c r="V145">
-        <v>164.5</v>
+        <v>3313.3</v>
       </c>
       <c r="W145">
-        <v>3313.3</v>
+        <v>4409.5</v>
       </c>
       <c r="X145">
-        <v>4409.5</v>
+        <v>409.90000000000003</v>
       </c>
       <c r="Y145">
-        <v>409.90000000000003</v>
-      </c>
-      <c r="Z145">
         <v>5286</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>42935</v>
       </c>
@@ -12139,26 +12124,26 @@
       <c r="S146">
         <v>1153.3</v>
       </c>
+      <c r="T146">
+        <v>1363.2</v>
+      </c>
       <c r="U146">
-        <v>1363.2</v>
+        <v>170</v>
       </c>
       <c r="V146">
-        <v>170</v>
+        <v>3344.8</v>
       </c>
       <c r="W146">
-        <v>3344.8</v>
+        <v>4450.7</v>
       </c>
       <c r="X146">
-        <v>4450.7</v>
+        <v>410.5</v>
       </c>
       <c r="Y146">
-        <v>410.5</v>
-      </c>
-      <c r="Z146">
         <v>5334</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>42936</v>
       </c>
@@ -12216,26 +12201,26 @@
       <c r="S147">
         <v>1159.5</v>
       </c>
+      <c r="T147">
+        <v>1366.1000000000001</v>
+      </c>
       <c r="U147">
-        <v>1366.1000000000001</v>
+        <v>168</v>
       </c>
       <c r="V147">
-        <v>168</v>
+        <v>3350.2000000000003</v>
       </c>
       <c r="W147">
-        <v>3350.2000000000003</v>
+        <v>4466.4000000000005</v>
       </c>
       <c r="X147">
-        <v>4466.4000000000005</v>
+        <v>410.5</v>
       </c>
       <c r="Y147">
-        <v>410.5</v>
-      </c>
-      <c r="Z147">
         <v>5361.8</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>42937</v>
       </c>
@@ -12293,26 +12278,26 @@
       <c r="S148">
         <v>1140.1000000000001</v>
       </c>
+      <c r="T148">
+        <v>1354.7</v>
+      </c>
       <c r="U148">
-        <v>1354.7</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="V148">
-        <v>154.30000000000001</v>
+        <v>3307.2000000000003</v>
       </c>
       <c r="W148">
-        <v>3307.2000000000003</v>
+        <v>4446.2</v>
       </c>
       <c r="X148">
-        <v>4446.2</v>
+        <v>407</v>
       </c>
       <c r="Y148">
-        <v>407</v>
-      </c>
-      <c r="Z148">
         <v>5292.5</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>42940</v>
       </c>
@@ -12370,26 +12355,26 @@
       <c r="S149">
         <v>1128.7</v>
       </c>
+      <c r="T149">
+        <v>1346.8000000000002</v>
+      </c>
       <c r="U149">
-        <v>1346.8000000000002</v>
+        <v>152.5</v>
       </c>
       <c r="V149">
-        <v>152.5</v>
+        <v>3305.6000000000004</v>
       </c>
       <c r="W149">
-        <v>3305.6000000000004</v>
+        <v>4427.4000000000005</v>
       </c>
       <c r="X149">
-        <v>4427.4000000000005</v>
+        <v>403.40000000000003</v>
       </c>
       <c r="Y149">
-        <v>403.40000000000003</v>
-      </c>
-      <c r="Z149">
         <v>5262.4000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>42941</v>
       </c>
@@ -12447,26 +12432,26 @@
       <c r="S150">
         <v>1184.5</v>
       </c>
+      <c r="T150">
+        <v>1362.3000000000002</v>
+      </c>
       <c r="U150">
-        <v>1362.3000000000002</v>
+        <v>157.60000000000002</v>
       </c>
       <c r="V150">
-        <v>157.60000000000002</v>
+        <v>3311.8</v>
       </c>
       <c r="W150">
-        <v>3311.8</v>
+        <v>4432.8</v>
       </c>
       <c r="X150">
-        <v>4432.8</v>
+        <v>402.8</v>
       </c>
       <c r="Y150">
-        <v>402.8</v>
-      </c>
-      <c r="Z150">
         <v>5244.6</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>42942</v>
       </c>
@@ -12524,26 +12509,26 @@
       <c r="S151">
         <v>1185.4000000000001</v>
       </c>
+      <c r="T151">
+        <v>1368.4</v>
+      </c>
       <c r="U151">
-        <v>1368.4</v>
+        <v>157.5</v>
       </c>
       <c r="V151">
-        <v>157.5</v>
+        <v>3328.7000000000003</v>
       </c>
       <c r="W151">
-        <v>3328.7000000000003</v>
+        <v>4470</v>
       </c>
       <c r="X151">
-        <v>4470</v>
+        <v>405.70000000000005</v>
       </c>
       <c r="Y151">
-        <v>405.70000000000005</v>
-      </c>
-      <c r="Z151">
         <v>5254.6</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>42943</v>
       </c>
@@ -12601,26 +12586,26 @@
       <c r="S152">
         <v>1185.2</v>
       </c>
+      <c r="T152">
+        <v>1374.8000000000002</v>
+      </c>
       <c r="U152">
-        <v>1374.8000000000002</v>
+        <v>158.60000000000002</v>
       </c>
       <c r="V152">
-        <v>158.60000000000002</v>
+        <v>3332.5</v>
       </c>
       <c r="W152">
-        <v>3332.5</v>
+        <v>4467.3</v>
       </c>
       <c r="X152">
-        <v>4467.3</v>
+        <v>402.8</v>
       </c>
       <c r="Y152">
-        <v>402.8</v>
-      </c>
-      <c r="Z152">
         <v>5313.2000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>42944</v>
       </c>
@@ -12678,26 +12663,26 @@
       <c r="S153">
         <v>1170.7</v>
       </c>
+      <c r="T153">
+        <v>1381.2</v>
+      </c>
       <c r="U153">
-        <v>1381.2</v>
+        <v>159</v>
       </c>
       <c r="V153">
-        <v>159</v>
+        <v>3278</v>
       </c>
       <c r="W153">
-        <v>3278</v>
+        <v>4425.6000000000004</v>
       </c>
       <c r="X153">
-        <v>4425.6000000000004</v>
+        <v>401.20000000000005</v>
       </c>
       <c r="Y153">
-        <v>401.20000000000005</v>
-      </c>
-      <c r="Z153">
         <v>5318.9000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>42947</v>
       </c>
@@ -12755,26 +12740,26 @@
       <c r="S154">
         <v>1170.3</v>
       </c>
+      <c r="T154">
+        <v>1393.8000000000002</v>
+      </c>
       <c r="U154">
-        <v>1393.8000000000002</v>
+        <v>160.5</v>
       </c>
       <c r="V154">
-        <v>160.5</v>
+        <v>3245.7000000000003</v>
       </c>
       <c r="W154">
-        <v>3245.7000000000003</v>
+        <v>4413.6000000000004</v>
       </c>
       <c r="X154">
-        <v>4413.6000000000004</v>
+        <v>398.1</v>
       </c>
       <c r="Y154">
-        <v>398.1</v>
-      </c>
-      <c r="Z154">
         <v>5379.7000000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>42948</v>
       </c>
@@ -12832,26 +12817,26 @@
       <c r="S155">
         <v>1174.2</v>
       </c>
+      <c r="T155">
+        <v>1397.6000000000001</v>
+      </c>
       <c r="U155">
-        <v>1397.6000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="V155">
-        <v>161.80000000000001</v>
+        <v>3282.6000000000004</v>
       </c>
       <c r="W155">
-        <v>3282.6000000000004</v>
+        <v>4414.5</v>
       </c>
       <c r="X155">
-        <v>4414.5</v>
+        <v>401.20000000000005</v>
       </c>
       <c r="Y155">
-        <v>401.20000000000005</v>
-      </c>
-      <c r="Z155">
         <v>5364</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>42949</v>
       </c>
@@ -12909,26 +12894,26 @@
       <c r="S156">
         <v>1161.3</v>
       </c>
+      <c r="T156">
+        <v>1406.9</v>
+      </c>
       <c r="U156">
-        <v>1406.9</v>
+        <v>160.5</v>
       </c>
       <c r="V156">
-        <v>160.5</v>
+        <v>3281.8</v>
       </c>
       <c r="W156">
-        <v>3281.8</v>
+        <v>4401.9000000000005</v>
       </c>
       <c r="X156">
-        <v>4401.9000000000005</v>
+        <v>402.90000000000003</v>
       </c>
       <c r="Y156">
-        <v>402.90000000000003</v>
-      </c>
-      <c r="Z156">
         <v>5311.8</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>42950</v>
       </c>
@@ -12986,26 +12971,26 @@
       <c r="S157">
         <v>1159.5</v>
       </c>
+      <c r="T157">
+        <v>1406.6000000000001</v>
+      </c>
       <c r="U157">
-        <v>1406.6000000000001</v>
+        <v>160</v>
       </c>
       <c r="V157">
-        <v>160</v>
+        <v>3287.2000000000003</v>
       </c>
       <c r="W157">
-        <v>3287.2000000000003</v>
+        <v>4392.5</v>
       </c>
       <c r="X157">
-        <v>4392.5</v>
+        <v>405.40000000000003</v>
       </c>
       <c r="Y157">
-        <v>405.40000000000003</v>
-      </c>
-      <c r="Z157">
         <v>5323.9000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>42951</v>
       </c>
@@ -13063,26 +13048,26 @@
       <c r="S158">
         <v>1173.2</v>
       </c>
+      <c r="T158">
+        <v>1414.5</v>
+      </c>
       <c r="U158">
-        <v>1414.5</v>
+        <v>163.4</v>
       </c>
       <c r="V158">
-        <v>163.4</v>
+        <v>3289.5</v>
       </c>
       <c r="W158">
-        <v>3289.5</v>
+        <v>4430.6000000000004</v>
       </c>
       <c r="X158">
-        <v>4430.6000000000004</v>
+        <v>410.6</v>
       </c>
       <c r="Y158">
-        <v>410.6</v>
-      </c>
-      <c r="Z158">
         <v>5377.6</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>42954</v>
       </c>
@@ -13140,26 +13125,26 @@
       <c r="S159">
         <v>1170.9000000000001</v>
       </c>
+      <c r="T159">
+        <v>1417.4</v>
+      </c>
       <c r="U159">
-        <v>1417.4</v>
+        <v>164</v>
       </c>
       <c r="V159">
-        <v>164</v>
+        <v>3266.5</v>
       </c>
       <c r="W159">
-        <v>3266.5</v>
+        <v>4443.1000000000004</v>
       </c>
       <c r="X159">
-        <v>4443.1000000000004</v>
+        <v>412.3</v>
       </c>
       <c r="Y159">
-        <v>412.3</v>
-      </c>
-      <c r="Z159">
         <v>5349</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>42955</v>
       </c>
@@ -13217,26 +13202,26 @@
       <c r="S160">
         <v>1174.4000000000001</v>
       </c>
+      <c r="T160">
+        <v>1427.3000000000002</v>
+      </c>
       <c r="U160">
-        <v>1427.3000000000002</v>
+        <v>166</v>
       </c>
       <c r="V160">
-        <v>166</v>
+        <v>3268</v>
       </c>
       <c r="W160">
-        <v>3268</v>
+        <v>4465</v>
       </c>
       <c r="X160">
-        <v>4465</v>
+        <v>413.8</v>
       </c>
       <c r="Y160">
-        <v>413.8</v>
-      </c>
-      <c r="Z160">
         <v>5349.7000000000007</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>42956</v>
       </c>
@@ -13294,26 +13279,26 @@
       <c r="S161">
         <v>1164.8</v>
       </c>
+      <c r="T161">
+        <v>1428.4</v>
+      </c>
       <c r="U161">
-        <v>1428.4</v>
+        <v>163.60000000000002</v>
       </c>
       <c r="V161">
-        <v>163.60000000000002</v>
+        <v>3250.3</v>
       </c>
       <c r="W161">
-        <v>3250.3</v>
+        <v>4474.4000000000005</v>
       </c>
       <c r="X161">
-        <v>4474.4000000000005</v>
+        <v>409.20000000000005</v>
       </c>
       <c r="Y161">
-        <v>409.20000000000005</v>
-      </c>
-      <c r="Z161">
         <v>5300.3</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>42957</v>
       </c>
@@ -13371,26 +13356,26 @@
       <c r="S162">
         <v>1140.2</v>
       </c>
+      <c r="T162">
+        <v>1396.1000000000001</v>
+      </c>
       <c r="U162">
-        <v>1396.1000000000001</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="V162">
-        <v>161.70000000000002</v>
+        <v>3238</v>
       </c>
       <c r="W162">
-        <v>3238</v>
+        <v>4429.2</v>
       </c>
       <c r="X162">
-        <v>4429.2</v>
+        <v>409.1</v>
       </c>
       <c r="Y162">
-        <v>409.1</v>
-      </c>
-      <c r="Z162">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>42958</v>
       </c>
@@ -13448,26 +13433,26 @@
       <c r="S163">
         <v>1120.7</v>
       </c>
+      <c r="T163">
+        <v>1371.9</v>
+      </c>
       <c r="U163">
-        <v>1371.9</v>
+        <v>159.10000000000002</v>
       </c>
       <c r="V163">
-        <v>159.10000000000002</v>
+        <v>3196.6000000000004</v>
       </c>
       <c r="W163">
-        <v>3196.6000000000004</v>
+        <v>4399.7</v>
       </c>
       <c r="X163">
-        <v>4399.7</v>
+        <v>401.40000000000003</v>
       </c>
       <c r="Y163">
-        <v>401.40000000000003</v>
-      </c>
-      <c r="Z163">
         <v>5250.3</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>42961</v>
       </c>
@@ -13525,26 +13510,26 @@
       <c r="S164">
         <v>1130.3</v>
       </c>
+      <c r="T164">
+        <v>1373.9</v>
+      </c>
       <c r="U164">
-        <v>1373.9</v>
+        <v>161.5</v>
       </c>
       <c r="V164">
-        <v>161.5</v>
+        <v>3308.7000000000003</v>
       </c>
       <c r="W164">
-        <v>3308.7000000000003</v>
+        <v>4439.1000000000004</v>
       </c>
       <c r="X164">
-        <v>4439.1000000000004</v>
+        <v>403.8</v>
       </c>
       <c r="Y164">
-        <v>403.8</v>
-      </c>
-      <c r="Z164">
         <v>5269.6</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>42962</v>
       </c>
@@ -13602,26 +13587,26 @@
       <c r="S165">
         <v>1152.6000000000001</v>
       </c>
+      <c r="T165">
+        <v>1362</v>
+      </c>
       <c r="U165">
-        <v>1362</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="V165">
-        <v>161.30000000000001</v>
+        <v>3317.1000000000004</v>
       </c>
       <c r="W165">
-        <v>3317.1000000000004</v>
+        <v>4471.8</v>
       </c>
       <c r="X165">
-        <v>4471.8</v>
+        <v>409.40000000000003</v>
       </c>
       <c r="Y165">
-        <v>409.40000000000003</v>
-      </c>
-      <c r="Z165">
         <v>5270.3</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>42963</v>
       </c>
@@ -13679,26 +13664,26 @@
       <c r="S166">
         <v>1156.7</v>
       </c>
+      <c r="T166">
+        <v>1366.1000000000001</v>
+      </c>
       <c r="U166">
-        <v>1366.1000000000001</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="V166">
-        <v>161.80000000000001</v>
+        <v>3349.4</v>
       </c>
       <c r="W166">
-        <v>3349.4</v>
+        <v>4494.1000000000004</v>
       </c>
       <c r="X166">
-        <v>4494.1000000000004</v>
+        <v>410.1</v>
       </c>
       <c r="Y166">
-        <v>410.1</v>
-      </c>
-      <c r="Z166">
         <v>5340.4000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42964</v>
       </c>
@@ -13756,26 +13741,26 @@
       <c r="S167">
         <v>1154.9000000000001</v>
       </c>
+      <c r="T167">
+        <v>1362.6000000000001</v>
+      </c>
       <c r="U167">
-        <v>1362.6000000000001</v>
+        <v>162.4</v>
       </c>
       <c r="V167">
-        <v>162.4</v>
+        <v>3336.3</v>
       </c>
       <c r="W167">
-        <v>3336.3</v>
+        <v>4483.4000000000005</v>
       </c>
       <c r="X167">
-        <v>4483.4000000000005</v>
+        <v>408.90000000000003</v>
       </c>
       <c r="Y167">
-        <v>408.90000000000003</v>
-      </c>
-      <c r="Z167">
         <v>5416.2000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>42965</v>
       </c>
@@ -13833,26 +13818,26 @@
       <c r="S168">
         <v>1145.2</v>
       </c>
+      <c r="T168">
+        <v>1352.1000000000001</v>
+      </c>
       <c r="U168">
-        <v>1352.1000000000001</v>
+        <v>163.20000000000002</v>
       </c>
       <c r="V168">
-        <v>163.20000000000002</v>
+        <v>3283.4</v>
       </c>
       <c r="W168">
-        <v>3283.4</v>
+        <v>4464.6000000000004</v>
       </c>
       <c r="X168">
-        <v>4464.6000000000004</v>
+        <v>371.70000000000005</v>
       </c>
       <c r="Y168">
-        <v>371.70000000000005</v>
-      </c>
-      <c r="Z168">
         <v>5297.5</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>42968</v>
       </c>
@@ -13910,26 +13895,26 @@
       <c r="S169">
         <v>1139.3</v>
       </c>
+      <c r="T169">
+        <v>1347.4</v>
+      </c>
       <c r="U169">
-        <v>1347.4</v>
+        <v>162.10000000000002</v>
       </c>
       <c r="V169">
-        <v>162.10000000000002</v>
+        <v>3264.9</v>
       </c>
       <c r="W169">
-        <v>3264.9</v>
+        <v>4455.2</v>
       </c>
       <c r="X169">
-        <v>4455.2</v>
+        <v>364.8</v>
       </c>
       <c r="Y169">
-        <v>364.8</v>
-      </c>
-      <c r="Z169">
         <v>5253.2000000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>42969</v>
       </c>
@@ -13987,26 +13972,26 @@
       <c r="S170">
         <v>1151.9000000000001</v>
       </c>
+      <c r="T170">
+        <v>1359.1000000000001</v>
+      </c>
       <c r="U170">
-        <v>1359.1000000000001</v>
+        <v>164.3</v>
       </c>
       <c r="V170">
-        <v>164.3</v>
+        <v>3289.5</v>
       </c>
       <c r="W170">
-        <v>3289.5</v>
+        <v>4494.1000000000004</v>
       </c>
       <c r="X170">
-        <v>4494.1000000000004</v>
+        <v>370.20000000000005</v>
       </c>
       <c r="Y170">
-        <v>370.20000000000005</v>
-      </c>
-      <c r="Z170">
         <v>5331.1</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>42970</v>
       </c>
@@ -14064,26 +14049,26 @@
       <c r="S171">
         <v>1137.7</v>
       </c>
+      <c r="T171">
+        <v>1355.9</v>
+      </c>
       <c r="U171">
-        <v>1355.9</v>
+        <v>161.60000000000002</v>
       </c>
       <c r="V171">
-        <v>161.60000000000002</v>
+        <v>3268</v>
       </c>
       <c r="W171">
-        <v>3268</v>
+        <v>4468.2</v>
       </c>
       <c r="X171">
-        <v>4468.2</v>
+        <v>366.40000000000003</v>
       </c>
       <c r="Y171">
-        <v>366.40000000000003</v>
-      </c>
-      <c r="Z171">
         <v>5299.6</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>42971</v>
       </c>
@@ -14141,26 +14126,26 @@
       <c r="S172">
         <v>1134.7</v>
       </c>
+      <c r="T172">
+        <v>1355.6000000000001</v>
+      </c>
       <c r="U172">
-        <v>1355.6000000000001</v>
+        <v>160.60000000000002</v>
       </c>
       <c r="V172">
-        <v>160.60000000000002</v>
+        <v>3264.2000000000003</v>
       </c>
       <c r="W172">
-        <v>3264.2000000000003</v>
+        <v>4478</v>
       </c>
       <c r="X172">
-        <v>4478</v>
+        <v>362.70000000000005</v>
       </c>
       <c r="Y172">
-        <v>362.70000000000005</v>
-      </c>
-      <c r="Z172">
         <v>5259.6</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>42972</v>
       </c>
@@ -14218,26 +14203,26 @@
       <c r="S173">
         <v>1125.3</v>
       </c>
+      <c r="T173">
+        <v>1359.4</v>
+      </c>
       <c r="U173">
-        <v>1359.4</v>
+        <v>162.10000000000002</v>
       </c>
       <c r="V173">
-        <v>162.10000000000002</v>
+        <v>3258</v>
       </c>
       <c r="W173">
-        <v>3258</v>
+        <v>4469.1000000000004</v>
       </c>
       <c r="X173">
-        <v>4469.1000000000004</v>
+        <v>364</v>
       </c>
       <c r="Y173">
-        <v>364</v>
-      </c>
-      <c r="Z173">
         <v>5232.4000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>42975</v>
       </c>
@@ -14295,26 +14280,26 @@
       <c r="S174">
         <v>1120.1000000000001</v>
       </c>
+      <c r="T174">
+        <v>1352.4</v>
+      </c>
       <c r="U174">
-        <v>1352.4</v>
+        <v>159.70000000000002</v>
       </c>
       <c r="V174">
-        <v>159.70000000000002</v>
+        <v>3262.6000000000004</v>
       </c>
       <c r="W174">
-        <v>3262.6000000000004</v>
+        <v>4465.5</v>
       </c>
       <c r="X174">
-        <v>4465.5</v>
+        <v>363.70000000000005</v>
       </c>
       <c r="Y174">
-        <v>363.70000000000005</v>
-      </c>
-      <c r="Z174">
         <v>5185.2000000000007</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>42976</v>
       </c>
@@ -14372,26 +14357,26 @@
       <c r="S175">
         <v>1110.5</v>
       </c>
+      <c r="T175">
+        <v>1339</v>
+      </c>
       <c r="U175">
-        <v>1339</v>
+        <v>151.6</v>
       </c>
       <c r="V175">
-        <v>151.6</v>
+        <v>3255.7000000000003</v>
       </c>
       <c r="W175">
-        <v>3255.7000000000003</v>
+        <v>4441.8</v>
       </c>
       <c r="X175">
-        <v>4441.8</v>
+        <v>359.1</v>
       </c>
       <c r="Y175">
-        <v>359.1</v>
-      </c>
-      <c r="Z175">
         <v>5115.1000000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>42977</v>
       </c>
@@ -14449,26 +14434,26 @@
       <c r="S176">
         <v>1122.6000000000001</v>
       </c>
+      <c r="T176">
+        <v>1349.2</v>
+      </c>
       <c r="U176">
-        <v>1349.2</v>
+        <v>156</v>
       </c>
       <c r="V176">
-        <v>156</v>
+        <v>3260.3</v>
       </c>
       <c r="W176">
-        <v>3260.3</v>
+        <v>4439.5</v>
       </c>
       <c r="X176">
-        <v>4439.5</v>
+        <v>353.8</v>
       </c>
       <c r="Y176">
-        <v>353.8</v>
-      </c>
-      <c r="Z176">
         <v>5163.8</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>42978</v>
       </c>
@@ -14526,26 +14511,26 @@
       <c r="S177">
         <v>1127.2</v>
       </c>
+      <c r="T177">
+        <v>1348.9</v>
+      </c>
       <c r="U177">
-        <v>1348.9</v>
+        <v>155</v>
       </c>
       <c r="V177">
-        <v>155</v>
+        <v>3279.5</v>
       </c>
       <c r="W177">
-        <v>3279.5</v>
+        <v>4477.1000000000004</v>
       </c>
       <c r="X177">
-        <v>4477.1000000000004</v>
+        <v>351.5</v>
       </c>
       <c r="Y177">
-        <v>351.5</v>
-      </c>
-      <c r="Z177">
         <v>5248.1</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>42979</v>
       </c>
@@ -14603,26 +14588,26 @@
       <c r="S178">
         <v>1144.7</v>
       </c>
+      <c r="T178">
+        <v>1356.5</v>
+      </c>
       <c r="U178">
-        <v>1356.5</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="V178">
-        <v>156.80000000000001</v>
+        <v>3241.1000000000004</v>
       </c>
       <c r="W178">
-        <v>3241.1000000000004</v>
+        <v>4481.6000000000004</v>
       </c>
       <c r="X178">
-        <v>4481.6000000000004</v>
+        <v>355.1</v>
       </c>
       <c r="Y178">
-        <v>355.1</v>
-      </c>
-      <c r="Z178">
         <v>5281</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>42982</v>
       </c>
@@ -14680,26 +14665,26 @@
       <c r="S179">
         <v>1149.8</v>
       </c>
+      <c r="T179">
+        <v>1352.1000000000001</v>
+      </c>
       <c r="U179">
-        <v>1352.1000000000001</v>
+        <v>157.10000000000002</v>
       </c>
       <c r="V179">
-        <v>157.10000000000002</v>
+        <v>3239.6000000000004</v>
       </c>
       <c r="W179">
-        <v>3239.6000000000004</v>
+        <v>4475.3</v>
       </c>
       <c r="X179">
-        <v>4475.3</v>
+        <v>349</v>
       </c>
       <c r="Y179">
-        <v>349</v>
-      </c>
-      <c r="Z179">
         <v>5270.3</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>42983</v>
       </c>
@@ -14757,26 +14742,26 @@
       <c r="S180">
         <v>1145.8</v>
       </c>
+      <c r="T180">
+        <v>1363.8000000000002</v>
+      </c>
       <c r="U180">
-        <v>1363.8000000000002</v>
+        <v>154.70000000000002</v>
       </c>
       <c r="V180">
-        <v>154.70000000000002</v>
+        <v>3200.4</v>
       </c>
       <c r="W180">
-        <v>3200.4</v>
+        <v>4474.4000000000005</v>
       </c>
       <c r="X180">
-        <v>4474.4000000000005</v>
+        <v>351</v>
       </c>
       <c r="Y180">
-        <v>351</v>
-      </c>
-      <c r="Z180">
         <v>5298.9000000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>42984</v>
       </c>
@@ -14834,26 +14819,26 @@
       <c r="S181">
         <v>1140.9000000000001</v>
       </c>
+      <c r="T181">
+        <v>1367.2</v>
+      </c>
       <c r="U181">
-        <v>1367.2</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="V181">
-        <v>155.80000000000001</v>
+        <v>3225</v>
       </c>
       <c r="W181">
-        <v>3225</v>
+        <v>4503.1000000000004</v>
       </c>
       <c r="X181">
-        <v>4503.1000000000004</v>
+        <v>351.5</v>
       </c>
       <c r="Y181">
-        <v>351.5</v>
-      </c>
-      <c r="Z181">
         <v>5334</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42985</v>
       </c>
@@ -14911,26 +14896,26 @@
       <c r="S182">
         <v>1136.3</v>
       </c>
+      <c r="T182">
+        <v>1374.8000000000002</v>
+      </c>
       <c r="U182">
-        <v>1374.8000000000002</v>
+        <v>154.70000000000002</v>
       </c>
       <c r="V182">
-        <v>154.70000000000002</v>
+        <v>3254.2000000000003</v>
       </c>
       <c r="W182">
-        <v>3254.2000000000003</v>
+        <v>4515.6000000000004</v>
       </c>
       <c r="X182">
-        <v>4515.6000000000004</v>
+        <v>350.40000000000003</v>
       </c>
       <c r="Y182">
-        <v>350.40000000000003</v>
-      </c>
-      <c r="Z182">
         <v>5343.3</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42986</v>
       </c>
@@ -14988,26 +14973,26 @@
       <c r="S183">
         <v>1137</v>
       </c>
+      <c r="T183">
+        <v>1371.9</v>
+      </c>
       <c r="U183">
-        <v>1371.9</v>
+        <v>158.10000000000002</v>
       </c>
       <c r="V183">
-        <v>158.10000000000002</v>
+        <v>3264.9</v>
       </c>
       <c r="W183">
-        <v>3264.9</v>
+        <v>4515.6000000000004</v>
       </c>
       <c r="X183">
-        <v>4515.6000000000004</v>
+        <v>350.40000000000003</v>
       </c>
       <c r="Y183">
-        <v>350.40000000000003</v>
-      </c>
-      <c r="Z183">
         <v>5371.1</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42989</v>
       </c>
@@ -15065,26 +15050,26 @@
       <c r="S184">
         <v>1160.9000000000001</v>
       </c>
+      <c r="T184">
+        <v>1380.7</v>
+      </c>
       <c r="U184">
-        <v>1380.7</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="V184">
-        <v>160.30000000000001</v>
+        <v>3271.8</v>
       </c>
       <c r="W184">
-        <v>3271.8</v>
+        <v>4546.9000000000005</v>
       </c>
       <c r="X184">
-        <v>4546.9000000000005</v>
+        <v>350.90000000000003</v>
       </c>
       <c r="Y184">
-        <v>350.90000000000003</v>
-      </c>
-      <c r="Z184">
         <v>5469.8</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42990</v>
       </c>
@@ -15142,26 +15127,26 @@
       <c r="S185">
         <v>1177.6000000000001</v>
       </c>
+      <c r="T185">
+        <v>1386.5</v>
+      </c>
       <c r="U185">
-        <v>1386.5</v>
+        <v>164.4</v>
       </c>
       <c r="V185">
-        <v>164.4</v>
+        <v>3264.9</v>
       </c>
       <c r="W185">
-        <v>3264.9</v>
+        <v>4508.5</v>
       </c>
       <c r="X185">
-        <v>4508.5</v>
+        <v>351.70000000000005</v>
       </c>
       <c r="Y185">
-        <v>351.70000000000005</v>
-      </c>
-      <c r="Z185">
         <v>5489.1</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42991</v>
       </c>
@@ -15219,26 +15204,26 @@
       <c r="S186">
         <v>1179.4000000000001</v>
       </c>
+      <c r="T186">
+        <v>1399</v>
+      </c>
       <c r="U186">
-        <v>1399</v>
+        <v>166.3</v>
       </c>
       <c r="V186">
-        <v>166.3</v>
+        <v>3237.3</v>
       </c>
       <c r="W186">
-        <v>3237.3</v>
+        <v>4526.4000000000005</v>
       </c>
       <c r="X186">
-        <v>4526.4000000000005</v>
+        <v>354.5</v>
       </c>
       <c r="Y186">
-        <v>354.5</v>
-      </c>
-      <c r="Z186">
         <v>5508.4000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42992</v>
       </c>
@@ -15296,26 +15281,26 @@
       <c r="S187">
         <v>1182.4000000000001</v>
       </c>
+      <c r="T187">
+        <v>1412.7</v>
+      </c>
       <c r="U187">
-        <v>1412.7</v>
+        <v>166.8</v>
       </c>
       <c r="V187">
-        <v>166.8</v>
+        <v>3232.7000000000003</v>
       </c>
       <c r="W187">
-        <v>3232.7000000000003</v>
+        <v>4511.1000000000004</v>
       </c>
       <c r="X187">
-        <v>4511.1000000000004</v>
+        <v>354.70000000000005</v>
       </c>
       <c r="Y187">
-        <v>354.70000000000005</v>
-      </c>
-      <c r="Z187">
         <v>5533.5</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42993</v>
       </c>
@@ -15373,26 +15358,26 @@
       <c r="S188">
         <v>1169.3</v>
       </c>
+      <c r="T188">
+        <v>1398.4</v>
+      </c>
       <c r="U188">
-        <v>1398.4</v>
+        <v>166.10000000000002</v>
       </c>
       <c r="V188">
-        <v>166.10000000000002</v>
+        <v>3198.9</v>
       </c>
       <c r="W188">
-        <v>3198.9</v>
+        <v>4532.6000000000004</v>
       </c>
       <c r="X188">
-        <v>4532.6000000000004</v>
+        <v>348</v>
       </c>
       <c r="Y188">
-        <v>348</v>
-      </c>
-      <c r="Z188">
         <v>5482</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42996</v>
       </c>
@@ -15450,26 +15435,26 @@
       <c r="S189">
         <v>1183.3</v>
       </c>
+      <c r="T189">
+        <v>1399.6000000000001</v>
+      </c>
       <c r="U189">
-        <v>1399.6000000000001</v>
+        <v>167.5</v>
       </c>
       <c r="V189">
-        <v>167.5</v>
+        <v>3174.3</v>
       </c>
       <c r="W189">
-        <v>3174.3</v>
+        <v>4545.2</v>
       </c>
       <c r="X189">
-        <v>4545.2</v>
+        <v>351.20000000000005</v>
       </c>
       <c r="Y189">
-        <v>351.20000000000005</v>
-      </c>
-      <c r="Z189">
         <v>5458.4000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42997</v>
       </c>
@@ -15527,26 +15512,26 @@
       <c r="S190">
         <v>1195.3</v>
       </c>
+      <c r="T190">
+        <v>1408</v>
+      </c>
       <c r="U190">
-        <v>1408</v>
+        <v>167.9</v>
       </c>
       <c r="V190">
-        <v>167.9</v>
+        <v>3157.4</v>
       </c>
       <c r="W190">
-        <v>3157.4</v>
+        <v>4531.7</v>
       </c>
       <c r="X190">
-        <v>4531.7</v>
+        <v>351.20000000000005</v>
       </c>
       <c r="Y190">
-        <v>351.20000000000005</v>
-      </c>
-      <c r="Z190">
         <v>5409</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42998</v>
       </c>
@@ -15604,26 +15589,26 @@
       <c r="S191">
         <v>1206.3</v>
       </c>
+      <c r="T191">
+        <v>1424.7</v>
+      </c>
       <c r="U191">
-        <v>1424.7</v>
+        <v>167.3</v>
       </c>
       <c r="V191">
-        <v>167.3</v>
+        <v>3150.5</v>
       </c>
       <c r="W191">
-        <v>3150.5</v>
+        <v>4500.4000000000005</v>
       </c>
       <c r="X191">
-        <v>4500.4000000000005</v>
+        <v>355.20000000000005</v>
       </c>
       <c r="Y191">
-        <v>355.20000000000005</v>
-      </c>
-      <c r="Z191">
         <v>5394</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42999</v>
       </c>
@@ -15681,26 +15666,26 @@
       <c r="S192">
         <v>1209.5</v>
       </c>
+      <c r="T192">
+        <v>1438.1000000000001</v>
+      </c>
       <c r="U192">
-        <v>1438.1000000000001</v>
+        <v>165.10000000000002</v>
       </c>
       <c r="V192">
-        <v>165.10000000000002</v>
+        <v>3152</v>
       </c>
       <c r="W192">
-        <v>3152</v>
+        <v>4433.7</v>
       </c>
       <c r="X192">
-        <v>4433.7</v>
+        <v>355.90000000000003</v>
       </c>
       <c r="Y192">
-        <v>355.90000000000003</v>
-      </c>
-      <c r="Z192">
         <v>5369</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43000</v>
       </c>
@@ -15758,26 +15743,26 @@
       <c r="S193">
         <v>1198.7</v>
       </c>
+      <c r="T193">
+        <v>1447.1000000000001</v>
+      </c>
       <c r="U193">
-        <v>1447.1000000000001</v>
+        <v>165.9</v>
       </c>
       <c r="V193">
-        <v>165.9</v>
+        <v>3148.2000000000003</v>
       </c>
       <c r="W193">
-        <v>3148.2000000000003</v>
+        <v>4398.3</v>
       </c>
       <c r="X193">
-        <v>4398.3</v>
+        <v>356.40000000000003</v>
       </c>
       <c r="Y193">
-        <v>356.40000000000003</v>
-      </c>
-      <c r="Z193">
         <v>5385.4000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43003</v>
       </c>
@@ -15835,26 +15820,26 @@
       <c r="S194">
         <v>1207.4000000000001</v>
       </c>
+      <c r="T194">
+        <v>1467.2</v>
+      </c>
       <c r="U194">
-        <v>1467.2</v>
+        <v>164.70000000000002</v>
       </c>
       <c r="V194">
-        <v>164.70000000000002</v>
+        <v>3153.6000000000004</v>
       </c>
       <c r="W194">
-        <v>3153.6000000000004</v>
+        <v>4423.4000000000005</v>
       </c>
       <c r="X194">
-        <v>4423.4000000000005</v>
+        <v>355.90000000000003</v>
       </c>
       <c r="Y194">
-        <v>355.90000000000003</v>
-      </c>
-      <c r="Z194">
         <v>5438.4000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43004</v>
       </c>
@@ -15912,26 +15897,26 @@
       <c r="S195">
         <v>1196.4000000000001</v>
       </c>
+      <c r="T195">
+        <v>1481.8000000000002</v>
+      </c>
       <c r="U195">
-        <v>1481.8000000000002</v>
+        <v>165.3</v>
       </c>
       <c r="V195">
-        <v>165.3</v>
+        <v>3148.2000000000003</v>
       </c>
       <c r="W195">
-        <v>3148.2000000000003</v>
+        <v>4430.6000000000004</v>
       </c>
       <c r="X195">
-        <v>4430.6000000000004</v>
+        <v>354.8</v>
       </c>
       <c r="Y195">
-        <v>354.8</v>
-      </c>
-      <c r="Z195">
         <v>5441.9000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43005</v>
       </c>
@@ -15989,26 +15974,26 @@
       <c r="S196">
         <v>1197.1000000000001</v>
       </c>
+      <c r="T196">
+        <v>1481.8000000000002</v>
+      </c>
       <c r="U196">
-        <v>1481.8000000000002</v>
+        <v>166</v>
       </c>
       <c r="V196">
-        <v>166</v>
+        <v>3132.9</v>
       </c>
       <c r="W196">
-        <v>3132.9</v>
+        <v>4445.8</v>
       </c>
       <c r="X196">
-        <v>4445.8</v>
+        <v>355.40000000000003</v>
       </c>
       <c r="Y196">
-        <v>355.40000000000003</v>
-      </c>
-      <c r="Z196">
         <v>5392.6</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43006</v>
       </c>
@@ -16066,26 +16051,26 @@
       <c r="S197">
         <v>1189.1000000000001</v>
       </c>
+      <c r="T197">
+        <v>1492.5</v>
+      </c>
       <c r="U197">
-        <v>1492.5</v>
+        <v>168.20000000000002</v>
       </c>
       <c r="V197">
-        <v>168.20000000000002</v>
+        <v>3120.6000000000004</v>
       </c>
       <c r="W197">
-        <v>3120.6000000000004</v>
+        <v>4433.7</v>
       </c>
       <c r="X197">
-        <v>4433.7</v>
+        <v>363.3</v>
       </c>
       <c r="Y197">
-        <v>363.3</v>
-      </c>
-      <c r="Z197">
         <v>5522</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43007</v>
       </c>
@@ -16143,26 +16128,26 @@
       <c r="S198">
         <v>1201.5</v>
       </c>
+      <c r="T198">
+        <v>1490.2</v>
+      </c>
       <c r="U198">
-        <v>1490.2</v>
+        <v>170.70000000000002</v>
       </c>
       <c r="V198">
-        <v>170.70000000000002</v>
+        <v>3159.7000000000003</v>
       </c>
       <c r="W198">
-        <v>3159.7000000000003</v>
+        <v>4479.8</v>
       </c>
       <c r="X198">
-        <v>4479.8</v>
+        <v>366.90000000000003</v>
       </c>
       <c r="Y198">
-        <v>366.90000000000003</v>
-      </c>
-      <c r="Z198">
         <v>5591.4000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43010</v>
       </c>
@@ -16220,26 +16205,26 @@
       <c r="S199">
         <v>1208.1000000000001</v>
       </c>
+      <c r="T199">
+        <v>1492.8000000000002</v>
+      </c>
       <c r="U199">
-        <v>1492.8000000000002</v>
+        <v>173.10000000000002</v>
       </c>
       <c r="V199">
-        <v>173.10000000000002</v>
+        <v>3156.7000000000003</v>
       </c>
       <c r="W199">
-        <v>3156.7000000000003</v>
+        <v>4537.1000000000004</v>
       </c>
       <c r="X199">
-        <v>4537.1000000000004</v>
+        <v>363.70000000000005</v>
       </c>
       <c r="Y199">
-        <v>363.70000000000005</v>
-      </c>
-      <c r="Z199">
         <v>5682.2000000000007</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43011</v>
       </c>
@@ -16297,26 +16282,26 @@
       <c r="S200">
         <v>1205.2</v>
       </c>
+      <c r="T200">
+        <v>1512.1000000000001</v>
+      </c>
       <c r="U200">
-        <v>1512.1000000000001</v>
+        <v>173.3</v>
       </c>
       <c r="V200">
-        <v>173.3</v>
+        <v>3172.8</v>
       </c>
       <c r="W200">
-        <v>3172.8</v>
+        <v>4508.5</v>
       </c>
       <c r="X200">
-        <v>4508.5</v>
+        <v>367.20000000000005</v>
       </c>
       <c r="Y200">
-        <v>367.20000000000005</v>
-      </c>
-      <c r="Z200">
         <v>5685.1</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43012</v>
       </c>
@@ -16374,26 +16359,26 @@
       <c r="S201">
         <v>1207.9000000000001</v>
       </c>
+      <c r="T201">
+        <v>1506</v>
+      </c>
       <c r="U201">
-        <v>1506</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="V201">
-        <v>169.20000000000002</v>
+        <v>3158.2000000000003</v>
       </c>
       <c r="W201">
-        <v>3158.2000000000003</v>
+        <v>4514.7</v>
       </c>
       <c r="X201">
-        <v>4514.7</v>
+        <v>363.6</v>
       </c>
       <c r="Y201">
-        <v>363.6</v>
-      </c>
-      <c r="Z201">
         <v>5663.6</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43013</v>
       </c>
@@ -16451,26 +16436,26 @@
       <c r="S202">
         <v>1207.2</v>
       </c>
+      <c r="T202">
+        <v>1515.3000000000002</v>
+      </c>
       <c r="U202">
-        <v>1515.3000000000002</v>
+        <v>166</v>
       </c>
       <c r="V202">
-        <v>166</v>
+        <v>3184.3</v>
       </c>
       <c r="W202">
-        <v>3184.3</v>
+        <v>4546.9000000000005</v>
       </c>
       <c r="X202">
-        <v>4546.9000000000005</v>
+        <v>366.3</v>
       </c>
       <c r="Y202">
-        <v>366.3</v>
-      </c>
-      <c r="Z202">
         <v>5690.8</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43014</v>
       </c>
@@ -16528,26 +16513,26 @@
       <c r="S203">
         <v>1198.7</v>
       </c>
+      <c r="T203">
+        <v>1496.6000000000001</v>
+      </c>
       <c r="U203">
-        <v>1496.6000000000001</v>
+        <v>165.9</v>
       </c>
       <c r="V203">
-        <v>165.9</v>
+        <v>3160.5</v>
       </c>
       <c r="W203">
-        <v>3160.5</v>
+        <v>4486.1000000000004</v>
       </c>
       <c r="X203">
-        <v>4486.1000000000004</v>
+        <v>361.5</v>
       </c>
       <c r="Y203">
-        <v>361.5</v>
-      </c>
-      <c r="Z203">
         <v>5675.8</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43017</v>
       </c>
@@ -16605,26 +16590,26 @@
       <c r="S204">
         <v>1206.5</v>
       </c>
+      <c r="T204">
+        <v>1501.6000000000001</v>
+      </c>
       <c r="U204">
-        <v>1501.6000000000001</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="V204">
-        <v>167.60000000000002</v>
+        <v>3172</v>
       </c>
       <c r="W204">
-        <v>3172</v>
+        <v>4483.4000000000005</v>
       </c>
       <c r="X204">
-        <v>4483.4000000000005</v>
+        <v>362.20000000000005</v>
       </c>
       <c r="Y204">
-        <v>362.20000000000005</v>
-      </c>
-      <c r="Z204">
         <v>5708.7000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43018</v>
       </c>
@@ -16682,26 +16667,26 @@
       <c r="S205">
         <v>1245.8000000000002</v>
       </c>
+      <c r="T205">
+        <v>1504.8000000000002</v>
+      </c>
       <c r="U205">
-        <v>1504.8000000000002</v>
+        <v>166</v>
       </c>
       <c r="V205">
-        <v>166</v>
+        <v>3180.5</v>
       </c>
       <c r="W205">
-        <v>3180.5</v>
+        <v>4480.7</v>
       </c>
       <c r="X205">
-        <v>4480.7</v>
+        <v>365.6</v>
       </c>
       <c r="Y205">
-        <v>365.6</v>
-      </c>
-      <c r="Z205">
         <v>5728</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43019</v>
       </c>
@@ -16759,26 +16744,26 @@
       <c r="S206">
         <v>1230.6000000000001</v>
       </c>
+      <c r="T206">
+        <v>1505.4</v>
+      </c>
       <c r="U206">
-        <v>1505.4</v>
+        <v>164.9</v>
       </c>
       <c r="V206">
-        <v>164.9</v>
+        <v>3184.3</v>
       </c>
       <c r="W206">
-        <v>3184.3</v>
+        <v>4511.1000000000004</v>
       </c>
       <c r="X206">
-        <v>4511.1000000000004</v>
+        <v>367</v>
       </c>
       <c r="Y206">
-        <v>367</v>
-      </c>
-      <c r="Z206">
         <v>5718.7000000000007</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43020</v>
       </c>
@@ -16836,26 +16821,26 @@
       <c r="S207">
         <v>1225.1000000000001</v>
       </c>
+      <c r="T207">
+        <v>1495.5</v>
+      </c>
       <c r="U207">
-        <v>1495.5</v>
+        <v>166.10000000000002</v>
       </c>
       <c r="V207">
-        <v>166.10000000000002</v>
+        <v>3202</v>
       </c>
       <c r="W207">
-        <v>3202</v>
+        <v>4590.8</v>
       </c>
       <c r="X207">
-        <v>4590.8</v>
+        <v>367.8</v>
       </c>
       <c r="Y207">
-        <v>367.8</v>
-      </c>
-      <c r="Z207">
         <v>5730.1</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43021</v>
       </c>
@@ -16913,26 +16898,26 @@
       <c r="S208">
         <v>1230.6000000000001</v>
       </c>
+      <c r="T208">
+        <v>1504.2</v>
+      </c>
       <c r="U208">
-        <v>1504.2</v>
+        <v>166.10000000000002</v>
       </c>
       <c r="V208">
-        <v>166.10000000000002</v>
+        <v>3197.4</v>
       </c>
       <c r="W208">
-        <v>3197.4</v>
+        <v>4632.9000000000005</v>
       </c>
       <c r="X208">
-        <v>4632.9000000000005</v>
+        <v>368.3</v>
       </c>
       <c r="Y208">
-        <v>368.3</v>
-      </c>
-      <c r="Z208">
         <v>5761.6</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43024</v>
       </c>
@@ -16990,26 +16975,26 @@
       <c r="S209">
         <v>1226</v>
       </c>
+      <c r="T209">
+        <v>1507.1000000000001</v>
+      </c>
       <c r="U209">
-        <v>1507.1000000000001</v>
+        <v>165.20000000000002</v>
       </c>
       <c r="V209">
-        <v>165.20000000000002</v>
+        <v>3207.3</v>
       </c>
       <c r="W209">
-        <v>3207.3</v>
+        <v>4632.9000000000005</v>
       </c>
       <c r="X209">
-        <v>4632.9000000000005</v>
+        <v>365.40000000000003</v>
       </c>
       <c r="Y209">
-        <v>365.40000000000003</v>
-      </c>
-      <c r="Z209">
         <v>5770.2000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43025</v>
       </c>
@@ -17067,26 +17052,26 @@
       <c r="S210">
         <v>1224.2</v>
       </c>
+      <c r="T210">
+        <v>1501.3000000000002</v>
+      </c>
       <c r="U210">
-        <v>1501.3000000000002</v>
+        <v>166</v>
       </c>
       <c r="V210">
-        <v>166</v>
+        <v>3197.4</v>
       </c>
       <c r="W210">
-        <v>3197.4</v>
+        <v>4642.7</v>
       </c>
       <c r="X210">
-        <v>4642.7</v>
+        <v>359</v>
       </c>
       <c r="Y210">
-        <v>359</v>
-      </c>
-      <c r="Z210">
         <v>5788.1</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43026</v>
       </c>
@@ -17144,26 +17129,26 @@
       <c r="S211">
         <v>1242.8000000000002</v>
       </c>
+      <c r="T211">
+        <v>1505.1000000000001</v>
+      </c>
       <c r="U211">
-        <v>1505.1000000000001</v>
+        <v>168.5</v>
       </c>
       <c r="V211">
-        <v>168.5</v>
+        <v>3205.8</v>
       </c>
       <c r="W211">
-        <v>3205.8</v>
+        <v>4677.7</v>
       </c>
       <c r="X211">
-        <v>4677.7</v>
+        <v>358.70000000000005</v>
       </c>
       <c r="Y211">
-        <v>358.70000000000005</v>
-      </c>
-      <c r="Z211">
         <v>5812.4000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43027</v>
       </c>
@@ -17221,26 +17206,26 @@
       <c r="S212">
         <v>1239.1000000000001</v>
       </c>
+      <c r="T212">
+        <v>1503.6000000000001</v>
+      </c>
       <c r="U212">
-        <v>1503.6000000000001</v>
+        <v>160.5</v>
       </c>
       <c r="V212">
-        <v>160.5</v>
+        <v>3193.5</v>
       </c>
       <c r="W212">
-        <v>3193.5</v>
+        <v>4404.6000000000004</v>
       </c>
       <c r="X212">
-        <v>4404.6000000000004</v>
+        <v>357.90000000000003</v>
       </c>
       <c r="Y212">
-        <v>357.90000000000003</v>
-      </c>
-      <c r="Z212">
         <v>5814.5</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43028</v>
       </c>
@@ -17298,26 +17283,26 @@
       <c r="S213">
         <v>1251.5</v>
       </c>
+      <c r="T213">
+        <v>1511.5</v>
+      </c>
       <c r="U213">
-        <v>1511.5</v>
+        <v>160</v>
       </c>
       <c r="V213">
-        <v>160</v>
+        <v>3177.4</v>
       </c>
       <c r="W213">
-        <v>3177.4</v>
+        <v>4278.4000000000005</v>
       </c>
       <c r="X213">
-        <v>4278.4000000000005</v>
+        <v>362.3</v>
       </c>
       <c r="Y213">
-        <v>362.3</v>
-      </c>
-      <c r="Z213">
         <v>5893.9000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43031</v>
       </c>
@@ -17375,26 +17360,26 @@
       <c r="S214">
         <v>1255.7</v>
       </c>
+      <c r="T214">
+        <v>1516.4</v>
+      </c>
       <c r="U214">
-        <v>1516.4</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="V214">
-        <v>159.80000000000001</v>
+        <v>3165.1000000000004</v>
       </c>
       <c r="W214">
-        <v>3165.1000000000004</v>
+        <v>4261.4000000000005</v>
       </c>
       <c r="X214">
-        <v>4261.4000000000005</v>
+        <v>361.3</v>
       </c>
       <c r="Y214">
-        <v>361.3</v>
-      </c>
-      <c r="Z214">
         <v>5868.9000000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43032</v>
       </c>
@@ -17452,26 +17437,26 @@
       <c r="S215">
         <v>1190.9000000000001</v>
       </c>
+      <c r="T215">
+        <v>1524.6000000000001</v>
+      </c>
       <c r="U215">
-        <v>1524.6000000000001</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="V215">
-        <v>157.80000000000001</v>
+        <v>3190.4</v>
       </c>
       <c r="W215">
-        <v>3190.4</v>
+        <v>4241.7</v>
       </c>
       <c r="X215">
-        <v>4241.7</v>
+        <v>358.90000000000003</v>
       </c>
       <c r="Y215">
-        <v>358.90000000000003</v>
-      </c>
-      <c r="Z215">
         <v>5838.1</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43033</v>
       </c>
@@ -17529,26 +17514,26 @@
       <c r="S216">
         <v>1182.2</v>
       </c>
+      <c r="T216">
+        <v>1515.6000000000001</v>
+      </c>
       <c r="U216">
-        <v>1515.6000000000001</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="V216">
-        <v>156.80000000000001</v>
+        <v>3154.4</v>
       </c>
       <c r="W216">
-        <v>3154.4</v>
+        <v>4228.2</v>
       </c>
       <c r="X216">
-        <v>4228.2</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="Y216">
-        <v>357.70000000000005</v>
-      </c>
-      <c r="Z216">
         <v>5796.6</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43034</v>
       </c>
@@ -17606,26 +17591,26 @@
       <c r="S217">
         <v>1196.2</v>
       </c>
+      <c r="T217">
+        <v>1518.2</v>
+      </c>
       <c r="U217">
-        <v>1518.2</v>
+        <v>160.70000000000002</v>
       </c>
       <c r="V217">
-        <v>160.70000000000002</v>
+        <v>3205.8</v>
       </c>
       <c r="W217">
-        <v>3205.8</v>
+        <v>4373.3</v>
       </c>
       <c r="X217">
-        <v>4373.3</v>
+        <v>361.90000000000003</v>
       </c>
       <c r="Y217">
-        <v>361.90000000000003</v>
-      </c>
-      <c r="Z217">
         <v>5905.3</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43035</v>
       </c>
@@ -17683,26 +17668,26 @@
       <c r="S218">
         <v>1204.2</v>
       </c>
+      <c r="T218">
+        <v>1540.6000000000001</v>
+      </c>
       <c r="U218">
-        <v>1540.6000000000001</v>
+        <v>162.20000000000002</v>
       </c>
       <c r="V218">
-        <v>162.20000000000002</v>
+        <v>3269.5</v>
       </c>
       <c r="W218">
-        <v>3269.5</v>
+        <v>4404.2</v>
       </c>
       <c r="X218">
-        <v>4404.2</v>
+        <v>362.70000000000005</v>
       </c>
       <c r="Y218">
-        <v>362.70000000000005</v>
-      </c>
-      <c r="Z218">
         <v>5967.5</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43038</v>
       </c>
@@ -17760,26 +17745,26 @@
       <c r="S219">
         <v>1201</v>
       </c>
+      <c r="T219">
+        <v>1555.8000000000002</v>
+      </c>
       <c r="U219">
-        <v>1555.8000000000002</v>
+        <v>162.5</v>
       </c>
       <c r="V219">
-        <v>162.5</v>
+        <v>3268</v>
       </c>
       <c r="W219">
-        <v>3268</v>
+        <v>4381.3</v>
       </c>
       <c r="X219">
-        <v>4381.3</v>
+        <v>365.90000000000003</v>
       </c>
       <c r="Y219">
-        <v>365.90000000000003</v>
-      </c>
-      <c r="Z219">
         <v>5982.6</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43039</v>
       </c>
@@ -17837,26 +17822,26 @@
       <c r="S220">
         <v>1212.5</v>
       </c>
+      <c r="T220">
+        <v>1571.5</v>
+      </c>
       <c r="U220">
-        <v>1571.5</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="V220">
-        <v>162.60000000000002</v>
+        <v>3299.5</v>
       </c>
       <c r="W220">
-        <v>3299.5</v>
+        <v>4467.7</v>
       </c>
       <c r="X220">
-        <v>4467.7</v>
+        <v>367.5</v>
       </c>
       <c r="Y220">
-        <v>367.5</v>
-      </c>
-      <c r="Z220">
         <v>6018.3</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43040</v>
       </c>
@@ -17914,26 +17899,26 @@
       <c r="S221">
         <v>1211.1000000000001</v>
       </c>
+      <c r="T221">
+        <v>1573.6000000000001</v>
+      </c>
       <c r="U221">
-        <v>1573.6000000000001</v>
+        <v>164.10000000000002</v>
       </c>
       <c r="V221">
-        <v>164.10000000000002</v>
+        <v>3253.4</v>
       </c>
       <c r="W221">
-        <v>3253.4</v>
+        <v>4439.1000000000004</v>
       </c>
       <c r="X221">
-        <v>4439.1000000000004</v>
+        <v>361.70000000000005</v>
       </c>
       <c r="Y221">
-        <v>361.70000000000005</v>
-      </c>
-      <c r="Z221">
         <v>5971.1</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43041</v>
       </c>
@@ -17991,26 +17976,26 @@
       <c r="S222">
         <v>1208.6000000000001</v>
       </c>
+      <c r="T222">
+        <v>1592.2</v>
+      </c>
       <c r="U222">
-        <v>1592.2</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V222">
-        <v>163.80000000000001</v>
+        <v>3281.8</v>
       </c>
       <c r="W222">
-        <v>3281.8</v>
+        <v>4379.5</v>
       </c>
       <c r="X222">
-        <v>4379.5</v>
+        <v>360</v>
       </c>
       <c r="Y222">
-        <v>360</v>
-      </c>
-      <c r="Z222">
         <v>5959.7000000000007</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43042</v>
       </c>
@@ -18068,26 +18053,26 @@
       <c r="S223">
         <v>1205.6000000000001</v>
       </c>
+      <c r="T223">
+        <v>1603.6000000000001</v>
+      </c>
       <c r="U223">
-        <v>1603.6000000000001</v>
+        <v>165.70000000000002</v>
       </c>
       <c r="V223">
-        <v>165.70000000000002</v>
+        <v>3317.9</v>
       </c>
       <c r="W223">
-        <v>3317.9</v>
+        <v>4424.3</v>
       </c>
       <c r="X223">
-        <v>4424.3</v>
+        <v>363.1</v>
       </c>
       <c r="Y223">
-        <v>363.1</v>
-      </c>
-      <c r="Z223">
         <v>6082</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43045</v>
       </c>
@@ -18145,26 +18130,26 @@
       <c r="S224">
         <v>1196.4000000000001</v>
       </c>
+      <c r="T224">
+        <v>1626.9</v>
+      </c>
       <c r="U224">
-        <v>1626.9</v>
+        <v>165.3</v>
       </c>
       <c r="V224">
-        <v>165.3</v>
+        <v>3335.6000000000004</v>
       </c>
       <c r="W224">
-        <v>3335.6000000000004</v>
+        <v>4412.2</v>
       </c>
       <c r="X224">
-        <v>4412.2</v>
+        <v>341.1</v>
       </c>
       <c r="Y224">
-        <v>341.1</v>
-      </c>
-      <c r="Z224">
         <v>6078.4000000000005</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43046</v>
       </c>
@@ -18222,26 +18207,26 @@
       <c r="S225">
         <v>1190.5</v>
       </c>
+      <c r="T225">
+        <v>1625.7</v>
+      </c>
       <c r="U225">
-        <v>1625.7</v>
+        <v>163.9</v>
       </c>
       <c r="V225">
-        <v>163.9</v>
+        <v>3340.2000000000003</v>
       </c>
       <c r="W225">
-        <v>3340.2000000000003</v>
+        <v>4384</v>
       </c>
       <c r="X225">
-        <v>4384</v>
+        <v>350.20000000000005</v>
       </c>
       <c r="Y225">
-        <v>350.20000000000005</v>
-      </c>
-      <c r="Z225">
         <v>6061.9000000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43047</v>
       </c>
@@ -18299,26 +18284,26 @@
       <c r="S226">
         <v>1177.8</v>
       </c>
+      <c r="T226">
+        <v>1624.8000000000002</v>
+      </c>
       <c r="U226">
-        <v>1624.8000000000002</v>
+        <v>164.3</v>
       </c>
       <c r="V226">
-        <v>164.3</v>
+        <v>3393.2000000000003</v>
       </c>
       <c r="W226">
-        <v>3393.2000000000003</v>
+        <v>4422.5</v>
       </c>
       <c r="X226">
-        <v>4422.5</v>
+        <v>356.5</v>
       </c>
       <c r="Y226">
-        <v>356.5</v>
-      </c>
-      <c r="Z226">
         <v>6090.5</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43048</v>
       </c>
@@ -18376,26 +18361,26 @@
       <c r="S227">
         <v>1164.8</v>
       </c>
+      <c r="T227">
+        <v>1616.4</v>
+      </c>
       <c r="U227">
-        <v>1616.4</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="V227">
-        <v>161.30000000000001</v>
+        <v>3377.8</v>
       </c>
       <c r="W227">
-        <v>3377.8</v>
+        <v>4400.6000000000004</v>
       </c>
       <c r="X227">
-        <v>4400.6000000000004</v>
+        <v>356.1</v>
       </c>
       <c r="Y227">
-        <v>356.1</v>
-      </c>
-      <c r="Z227">
         <v>6070.5</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43049</v>
       </c>
@@ -18453,26 +18438,26 @@
       <c r="S228">
         <v>1157.4000000000001</v>
       </c>
+      <c r="T228">
+        <v>1598.9</v>
+      </c>
       <c r="U228">
-        <v>1598.9</v>
+        <v>161.5</v>
       </c>
       <c r="V228">
-        <v>161.5</v>
+        <v>3360.9</v>
       </c>
       <c r="W228">
-        <v>3360.9</v>
+        <v>4369.7</v>
       </c>
       <c r="X228">
-        <v>4369.7</v>
+        <v>357</v>
       </c>
       <c r="Y228">
-        <v>357</v>
-      </c>
-      <c r="Z228">
         <v>6074.8</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43052</v>
       </c>
@@ -18530,26 +18515,26 @@
       <c r="S229">
         <v>1148.5</v>
       </c>
+      <c r="T229">
+        <v>1598.3000000000002</v>
+      </c>
       <c r="U229">
-        <v>1598.3000000000002</v>
+        <v>159.70000000000002</v>
       </c>
       <c r="V229">
-        <v>159.70000000000002</v>
+        <v>3346.3</v>
       </c>
       <c r="W229">
-        <v>3346.3</v>
+        <v>4371.5</v>
       </c>
       <c r="X229">
-        <v>4371.5</v>
+        <v>346</v>
       </c>
       <c r="Y229">
-        <v>346</v>
-      </c>
-      <c r="Z229">
         <v>6044.8</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43053</v>
       </c>
@@ -18607,26 +18592,26 @@
       <c r="S230">
         <v>1151.4000000000001</v>
       </c>
+      <c r="T230">
+        <v>1583.5</v>
+      </c>
       <c r="U230">
-        <v>1583.5</v>
+        <v>160.60000000000002</v>
       </c>
       <c r="V230">
-        <v>160.60000000000002</v>
+        <v>3333.3</v>
       </c>
       <c r="W230">
-        <v>3333.3</v>
+        <v>4334.3</v>
       </c>
       <c r="X230">
-        <v>4334.3</v>
+        <v>350.6</v>
       </c>
       <c r="Y230">
-        <v>350.6</v>
-      </c>
-      <c r="Z230">
         <v>6064.8</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43054</v>
       </c>
@@ -18684,26 +18669,26 @@
       <c r="S231">
         <v>1145</v>
       </c>
+      <c r="T231">
+        <v>1562.8000000000002</v>
+      </c>
       <c r="U231">
-        <v>1562.8000000000002</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="V231">
-        <v>159.30000000000001</v>
+        <v>3332.5</v>
       </c>
       <c r="W231">
-        <v>3332.5</v>
+        <v>4300.3</v>
       </c>
       <c r="X231">
-        <v>4300.3</v>
+        <v>346.6</v>
       </c>
       <c r="Y231">
-        <v>346.6</v>
-      </c>
-      <c r="Z231">
         <v>6021.2000000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43055</v>
       </c>
@@ -18761,26 +18746,26 @@
       <c r="S232">
         <v>1146.2</v>
       </c>
+      <c r="T232">
+        <v>1525.8000000000002</v>
+      </c>
       <c r="U232">
-        <v>1525.8000000000002</v>
+        <v>159.9</v>
       </c>
       <c r="V232">
-        <v>159.9</v>
+        <v>3354</v>
       </c>
       <c r="W232">
-        <v>3354</v>
+        <v>4325.8</v>
       </c>
       <c r="X232">
-        <v>4325.8</v>
+        <v>352.5</v>
       </c>
       <c r="Y232">
-        <v>352.5</v>
-      </c>
-      <c r="Z232">
         <v>6091.3</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43056</v>
       </c>
@@ -18838,26 +18823,26 @@
       <c r="S233">
         <v>1139.6000000000001</v>
       </c>
+      <c r="T233">
+        <v>1529</v>
+      </c>
       <c r="U233">
-        <v>1529</v>
+        <v>160.70000000000002</v>
       </c>
       <c r="V233">
-        <v>160.70000000000002</v>
+        <v>3350.9</v>
       </c>
       <c r="W233">
-        <v>3350.9</v>
+        <v>4260</v>
       </c>
       <c r="X233">
-        <v>4260</v>
+        <v>343.6</v>
       </c>
       <c r="Y233">
-        <v>343.6</v>
-      </c>
-      <c r="Z233">
         <v>6037.6</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43059</v>
       </c>
@@ -18915,26 +18900,26 @@
       <c r="S234">
         <v>1155.6000000000001</v>
       </c>
+      <c r="T234">
+        <v>1535.1000000000001</v>
+      </c>
       <c r="U234">
-        <v>1535.1000000000001</v>
+        <v>160.70000000000002</v>
       </c>
       <c r="V234">
-        <v>160.70000000000002</v>
+        <v>3334.8</v>
       </c>
       <c r="W234">
-        <v>3334.8</v>
+        <v>4322.7</v>
       </c>
       <c r="X234">
-        <v>4322.7</v>
+        <v>339.90000000000003</v>
       </c>
       <c r="Y234">
-        <v>339.90000000000003</v>
-      </c>
-      <c r="Z234">
         <v>6146.3</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43060</v>
       </c>
@@ -18992,26 +18977,26 @@
       <c r="S235">
         <v>1156.5</v>
       </c>
+      <c r="T235">
+        <v>1533.3000000000002</v>
+      </c>
       <c r="U235">
-        <v>1533.3000000000002</v>
+        <v>161.4</v>
       </c>
       <c r="V235">
-        <v>161.4</v>
+        <v>3324</v>
       </c>
       <c r="W235">
-        <v>3324</v>
+        <v>4360.7</v>
       </c>
       <c r="X235">
-        <v>4360.7</v>
+        <v>343.3</v>
       </c>
       <c r="Y235">
-        <v>343.3</v>
-      </c>
-      <c r="Z235">
         <v>6198.5</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43061</v>
       </c>
@@ -19069,26 +19054,26 @@
       <c r="S236">
         <v>1149.6000000000001</v>
       </c>
+      <c r="T236">
+        <v>1533.3000000000002</v>
+      </c>
       <c r="U236">
-        <v>1533.3000000000002</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="V236">
-        <v>162.60000000000002</v>
+        <v>3319.4</v>
       </c>
       <c r="W236">
-        <v>3319.4</v>
+        <v>4308.8</v>
       </c>
       <c r="X236">
-        <v>4308.8</v>
+        <v>345</v>
       </c>
       <c r="Y236">
-        <v>345</v>
-      </c>
-      <c r="Z236">
         <v>6159.9000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43062</v>
       </c>
@@ -19146,26 +19131,26 @@
       <c r="S237">
         <v>1152.6000000000001</v>
       </c>
+      <c r="T237">
+        <v>1533.6000000000001</v>
+      </c>
       <c r="U237">
-        <v>1533.6000000000001</v>
+        <v>163.9</v>
       </c>
       <c r="V237">
-        <v>163.9</v>
+        <v>3357.1000000000004</v>
       </c>
       <c r="W237">
-        <v>3357.1000000000004</v>
+        <v>4327.2</v>
       </c>
       <c r="X237">
-        <v>4327.2</v>
+        <v>344.70000000000005</v>
       </c>
       <c r="Y237">
-        <v>344.70000000000005</v>
-      </c>
-      <c r="Z237">
         <v>6173.5</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43063</v>
       </c>
@@ -19223,26 +19208,26 @@
       <c r="S238">
         <v>1150.8</v>
       </c>
+      <c r="T238">
+        <v>1526.9</v>
+      </c>
       <c r="U238">
-        <v>1526.9</v>
+        <v>162.60000000000002</v>
       </c>
       <c r="V238">
-        <v>162.60000000000002</v>
+        <v>3352.5</v>
       </c>
       <c r="W238">
-        <v>3352.5</v>
+        <v>4338.8</v>
       </c>
       <c r="X238">
-        <v>4338.8</v>
+        <v>338.6</v>
       </c>
       <c r="Y238">
-        <v>338.6</v>
-      </c>
-      <c r="Z238">
         <v>6129.1</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43066</v>
       </c>
@@ -19300,26 +19285,26 @@
       <c r="S239">
         <v>1161.5</v>
       </c>
+      <c r="T239">
+        <v>1514.1000000000001</v>
+      </c>
       <c r="U239">
-        <v>1514.1000000000001</v>
+        <v>161.60000000000002</v>
       </c>
       <c r="V239">
-        <v>161.60000000000002</v>
+        <v>3354.8</v>
       </c>
       <c r="W239">
-        <v>3354.8</v>
+        <v>4330.8</v>
       </c>
       <c r="X239">
-        <v>4330.8</v>
+        <v>334.5</v>
       </c>
       <c r="Y239">
-        <v>334.5</v>
-      </c>
-      <c r="Z239">
         <v>6149.9000000000005</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43067</v>
       </c>
@@ -19377,26 +19362,26 @@
       <c r="S240">
         <v>1177.6000000000001</v>
       </c>
+      <c r="T240">
+        <v>1565.4</v>
+      </c>
       <c r="U240">
-        <v>1565.4</v>
+        <v>164.9</v>
       </c>
       <c r="V240">
-        <v>164.9</v>
+        <v>3370.9</v>
       </c>
       <c r="W240">
-        <v>3370.9</v>
+        <v>4403.3</v>
       </c>
       <c r="X240">
-        <v>4403.3</v>
+        <v>343</v>
       </c>
       <c r="Y240">
-        <v>343</v>
-      </c>
-      <c r="Z240">
         <v>6227.1</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43068</v>
       </c>
@@ -19454,26 +19439,26 @@
       <c r="S241">
         <v>1176.2</v>
       </c>
+      <c r="T241">
+        <v>1566.3000000000002</v>
+      </c>
       <c r="U241">
-        <v>1566.3000000000002</v>
+        <v>156</v>
       </c>
       <c r="V241">
-        <v>156</v>
+        <v>3338.6000000000004</v>
       </c>
       <c r="W241">
-        <v>3338.6000000000004</v>
+        <v>4374.2</v>
       </c>
       <c r="X241">
-        <v>4374.2</v>
+        <v>346.90000000000003</v>
       </c>
       <c r="Y241">
-        <v>346.90000000000003</v>
-      </c>
-      <c r="Z241">
         <v>6205.7000000000007</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43069</v>
       </c>
@@ -19531,26 +19516,26 @@
       <c r="S242">
         <v>1187.7</v>
       </c>
+      <c r="T242">
+        <v>1562.5</v>
+      </c>
       <c r="U242">
-        <v>1562.5</v>
+        <v>159.10000000000002</v>
       </c>
       <c r="V242">
-        <v>159.10000000000002</v>
+        <v>3301</v>
       </c>
       <c r="W242">
-        <v>3301</v>
+        <v>4331.6000000000004</v>
       </c>
       <c r="X242">
-        <v>4331.6000000000004</v>
+        <v>351</v>
       </c>
       <c r="Y242">
-        <v>351</v>
-      </c>
-      <c r="Z242">
         <v>6225</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43070</v>
       </c>
@@ -19608,26 +19593,26 @@
       <c r="S243">
         <v>1164.3</v>
       </c>
+      <c r="T243">
+        <v>1565.1000000000001</v>
+      </c>
       <c r="U243">
-        <v>1565.1000000000001</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V243">
-        <v>158.30000000000001</v>
+        <v>3294.9</v>
       </c>
       <c r="W243">
-        <v>3294.9</v>
+        <v>4276.6000000000004</v>
       </c>
       <c r="X243">
-        <v>4276.6000000000004</v>
+        <v>352.6</v>
       </c>
       <c r="Y243">
-        <v>352.6</v>
-      </c>
-      <c r="Z243">
         <v>6187.8</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43073</v>
       </c>
@@ -19685,26 +19670,26 @@
       <c r="S244">
         <v>1176.5</v>
       </c>
+      <c r="T244">
+        <v>1578.8000000000002</v>
+      </c>
       <c r="U244">
-        <v>1578.8000000000002</v>
+        <v>156.5</v>
       </c>
       <c r="V244">
-        <v>156.5</v>
+        <v>3345.5</v>
       </c>
       <c r="W244">
-        <v>3345.5</v>
+        <v>4329</v>
       </c>
       <c r="X244">
-        <v>4329</v>
+        <v>362.70000000000005</v>
       </c>
       <c r="Y244">
-        <v>362.70000000000005</v>
-      </c>
-      <c r="Z244">
         <v>6240</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43074</v>
       </c>
@@ -19762,26 +19747,26 @@
       <c r="S245">
         <v>1168.2</v>
       </c>
+      <c r="T245">
+        <v>1577.6000000000001</v>
+      </c>
       <c r="U245">
-        <v>1577.6000000000001</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="V245">
-        <v>153.30000000000001</v>
+        <v>3387</v>
       </c>
       <c r="W245">
-        <v>3387</v>
+        <v>4348.7</v>
       </c>
       <c r="X245">
-        <v>4348.7</v>
+        <v>362</v>
       </c>
       <c r="Y245">
-        <v>362</v>
-      </c>
-      <c r="Z245">
         <v>6232.8</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43075</v>
       </c>
@@ -19839,26 +19824,26 @@
       <c r="S246">
         <v>1171.4000000000001</v>
       </c>
+      <c r="T246">
+        <v>1570.1000000000001</v>
+      </c>
       <c r="U246">
-        <v>1570.1000000000001</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="V246">
-        <v>149.80000000000001</v>
+        <v>3436.9</v>
       </c>
       <c r="W246">
-        <v>3436.9</v>
+        <v>4371.9000000000005</v>
       </c>
       <c r="X246">
-        <v>4371.9000000000005</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="Y246">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="Z246">
         <v>6221.4000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43076</v>
       </c>
@@ -19916,26 +19901,26 @@
       <c r="S247">
         <v>1182.2</v>
       </c>
+      <c r="T247">
+        <v>1558.7</v>
+      </c>
       <c r="U247">
-        <v>1558.7</v>
+        <v>151.1</v>
       </c>
       <c r="V247">
-        <v>151.1</v>
+        <v>3450.7000000000003</v>
       </c>
       <c r="W247">
-        <v>3450.7000000000003</v>
+        <v>4375.5</v>
       </c>
       <c r="X247">
-        <v>4375.5</v>
+        <v>360.70000000000005</v>
       </c>
       <c r="Y247">
-        <v>360.70000000000005</v>
-      </c>
-      <c r="Z247">
         <v>6263.6</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43077</v>
       </c>
@@ -19993,26 +19978,26 @@
       <c r="S248">
         <v>1192.3</v>
       </c>
+      <c r="T248">
+        <v>1569.2</v>
+      </c>
       <c r="U248">
-        <v>1569.2</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="V248">
-        <v>151.80000000000001</v>
+        <v>3447.7000000000003</v>
       </c>
       <c r="W248">
-        <v>3447.7000000000003</v>
+        <v>4370.1000000000004</v>
       </c>
       <c r="X248">
-        <v>4370.1000000000004</v>
+        <v>354.70000000000005</v>
       </c>
       <c r="Y248">
-        <v>354.70000000000005</v>
-      </c>
-      <c r="Z248">
         <v>6255.7000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43080</v>
       </c>
@@ -20070,26 +20055,26 @@
       <c r="S249">
         <v>1188.6000000000001</v>
       </c>
+      <c r="T249">
+        <v>1579.7</v>
+      </c>
       <c r="U249">
-        <v>1579.7</v>
+        <v>151.4</v>
       </c>
       <c r="V249">
-        <v>151.4</v>
+        <v>3441.5</v>
       </c>
       <c r="W249">
-        <v>3441.5</v>
+        <v>4355.4000000000005</v>
       </c>
       <c r="X249">
-        <v>4355.4000000000005</v>
+        <v>358.5</v>
       </c>
       <c r="Y249">
-        <v>358.5</v>
-      </c>
-      <c r="Z249">
         <v>6266.5</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43081</v>
       </c>
@@ -20147,26 +20132,26 @@
       <c r="S250">
         <v>1194.6000000000001</v>
       </c>
+      <c r="T250">
+        <v>1610.3000000000002</v>
+      </c>
       <c r="U250">
-        <v>1610.3000000000002</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="V250">
-        <v>153.30000000000001</v>
+        <v>3301.8</v>
       </c>
       <c r="W250">
-        <v>3301.8</v>
+        <v>4383.6000000000004</v>
       </c>
       <c r="X250">
-        <v>4383.6000000000004</v>
+        <v>359.20000000000005</v>
       </c>
       <c r="Y250">
-        <v>359.20000000000005</v>
-      </c>
-      <c r="Z250">
         <v>6265</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43082</v>
       </c>
@@ -20224,26 +20209,26 @@
       <c r="S251">
         <v>1196.9000000000001</v>
       </c>
+      <c r="T251">
+        <v>1598.6000000000001</v>
+      </c>
       <c r="U251">
-        <v>1598.6000000000001</v>
+        <v>150</v>
       </c>
       <c r="V251">
-        <v>150</v>
+        <v>3293.3</v>
       </c>
       <c r="W251">
-        <v>3293.3</v>
+        <v>4354.9000000000005</v>
       </c>
       <c r="X251">
-        <v>4354.9000000000005</v>
+        <v>358.70000000000005</v>
       </c>
       <c r="Y251">
-        <v>358.70000000000005</v>
-      </c>
-      <c r="Z251">
         <v>6312.2000000000007</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43083</v>
       </c>
@@ -20301,26 +20286,26 @@
       <c r="S252">
         <v>1191.2</v>
       </c>
+      <c r="T252">
+        <v>1596.9</v>
+      </c>
       <c r="U252">
-        <v>1596.9</v>
+        <v>145.6</v>
       </c>
       <c r="V252">
-        <v>145.6</v>
+        <v>3241.9</v>
       </c>
       <c r="W252">
-        <v>3241.9</v>
+        <v>4313.7</v>
       </c>
       <c r="X252">
-        <v>4313.7</v>
+        <v>363.3</v>
       </c>
       <c r="Y252">
-        <v>363.3</v>
-      </c>
-      <c r="Z252">
         <v>6272.9000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43084</v>
       </c>
@@ -20378,26 +20363,26 @@
       <c r="S253">
         <v>1177.1000000000001</v>
       </c>
+      <c r="T253">
+        <v>1612.9</v>
+      </c>
       <c r="U253">
-        <v>1612.9</v>
+        <v>145.1</v>
       </c>
       <c r="V253">
-        <v>145.1</v>
+        <v>3256.5</v>
       </c>
       <c r="W253">
-        <v>3256.5</v>
+        <v>4344.2</v>
       </c>
       <c r="X253">
-        <v>4344.2</v>
+        <v>360.1</v>
       </c>
       <c r="Y253">
-        <v>360.1</v>
-      </c>
-      <c r="Z253">
         <v>6344.4000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43087</v>
       </c>
@@ -20455,26 +20440,26 @@
       <c r="S254">
         <v>1187.2</v>
       </c>
+      <c r="T254">
+        <v>1607.9</v>
+      </c>
       <c r="U254">
-        <v>1607.9</v>
+        <v>146.20000000000002</v>
       </c>
       <c r="V254">
-        <v>146.20000000000002</v>
+        <v>3307.2000000000003</v>
       </c>
       <c r="W254">
-        <v>3307.2000000000003</v>
+        <v>4367</v>
       </c>
       <c r="X254">
-        <v>4367</v>
+        <v>360.90000000000003</v>
       </c>
       <c r="Y254">
-        <v>360.90000000000003</v>
-      </c>
-      <c r="Z254">
         <v>6341.5</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43088</v>
       </c>
@@ -20532,26 +20517,26 @@
       <c r="S255">
         <v>1188.4000000000001</v>
       </c>
+      <c r="T255">
+        <v>1596.3000000000002</v>
+      </c>
       <c r="U255">
-        <v>1596.3000000000002</v>
+        <v>147.9</v>
       </c>
       <c r="V255">
-        <v>147.9</v>
+        <v>3339.4</v>
       </c>
       <c r="W255">
-        <v>3339.4</v>
+        <v>4324</v>
       </c>
       <c r="X255">
-        <v>4324</v>
+        <v>359.20000000000005</v>
       </c>
       <c r="Y255">
-        <v>359.20000000000005</v>
-      </c>
-      <c r="Z255">
         <v>6300.1</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43089</v>
       </c>
@@ -20609,26 +20594,26 @@
       <c r="S256">
         <v>1184</v>
       </c>
+      <c r="T256">
+        <v>1591.9</v>
+      </c>
       <c r="U256">
-        <v>1591.9</v>
+        <v>148</v>
       </c>
       <c r="V256">
-        <v>148</v>
+        <v>3289.5</v>
       </c>
       <c r="W256">
-        <v>3289.5</v>
+        <v>4259.1000000000004</v>
       </c>
       <c r="X256">
-        <v>4259.1000000000004</v>
+        <v>358.40000000000003</v>
       </c>
       <c r="Y256">
-        <v>358.40000000000003</v>
-      </c>
-      <c r="Z256">
         <v>6265</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43090</v>
       </c>
@@ -20686,26 +20671,26 @@
       <c r="S257">
         <v>1185.2</v>
       </c>
+      <c r="T257">
+        <v>1618.1000000000001</v>
+      </c>
       <c r="U257">
-        <v>1618.1000000000001</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="V257">
-        <v>151.30000000000001</v>
+        <v>3295.6000000000004</v>
       </c>
       <c r="W257">
-        <v>3295.6000000000004</v>
+        <v>4257.8</v>
       </c>
       <c r="X257">
-        <v>4257.8</v>
+        <v>362.6</v>
       </c>
       <c r="Y257">
-        <v>362.6</v>
-      </c>
-      <c r="Z257">
         <v>6273.6</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43091</v>
       </c>
@@ -20763,26 +20748,26 @@
       <c r="S258">
         <v>1181.3</v>
       </c>
+      <c r="T258">
+        <v>1621.1000000000001</v>
+      </c>
       <c r="U258">
-        <v>1621.1000000000001</v>
+        <v>152.20000000000002</v>
       </c>
       <c r="V258">
-        <v>152.20000000000002</v>
+        <v>3235</v>
       </c>
       <c r="W258">
-        <v>3235</v>
+        <v>4250.6000000000004</v>
       </c>
       <c r="X258">
-        <v>4250.6000000000004</v>
+        <v>363.1</v>
       </c>
       <c r="Y258">
-        <v>363.1</v>
-      </c>
-      <c r="Z258">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43094</v>
       </c>
@@ -20840,26 +20825,26 @@
       <c r="S259">
         <v>1181.3</v>
       </c>
+      <c r="T259">
+        <v>1621.1000000000001</v>
+      </c>
       <c r="U259">
-        <v>1621.1000000000001</v>
+        <v>152.20000000000002</v>
       </c>
       <c r="V259">
-        <v>152.20000000000002</v>
+        <v>3235</v>
       </c>
       <c r="W259">
-        <v>3235</v>
+        <v>4250.6000000000004</v>
       </c>
       <c r="X259">
-        <v>4250.6000000000004</v>
+        <v>363.1</v>
       </c>
       <c r="Y259">
-        <v>363.1</v>
-      </c>
-      <c r="Z259">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43095</v>
       </c>
@@ -20917,26 +20902,26 @@
       <c r="S260">
         <v>1181.3</v>
       </c>
+      <c r="T260">
+        <v>1621.1000000000001</v>
+      </c>
       <c r="U260">
-        <v>1621.1000000000001</v>
+        <v>152.20000000000002</v>
       </c>
       <c r="V260">
-        <v>152.20000000000002</v>
+        <v>3235</v>
       </c>
       <c r="W260">
-        <v>3235</v>
+        <v>4250.6000000000004</v>
       </c>
       <c r="X260">
-        <v>4250.6000000000004</v>
+        <v>363.1</v>
       </c>
       <c r="Y260">
-        <v>363.1</v>
-      </c>
-      <c r="Z260">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43096</v>
       </c>
@@ -20994,26 +20979,26 @@
       <c r="S261">
         <v>1179.4000000000001</v>
       </c>
+      <c r="T261">
+        <v>1623.1000000000001</v>
+      </c>
       <c r="U261">
-        <v>1623.1000000000001</v>
+        <v>152.70000000000002</v>
       </c>
       <c r="V261">
-        <v>152.70000000000002</v>
+        <v>3245</v>
       </c>
       <c r="W261">
-        <v>3245</v>
+        <v>4250.6000000000004</v>
       </c>
       <c r="X261">
-        <v>4250.6000000000004</v>
+        <v>363.70000000000005</v>
       </c>
       <c r="Y261">
-        <v>363.70000000000005</v>
-      </c>
-      <c r="Z261">
         <v>6294.3</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43097</v>
       </c>
@@ -21071,26 +21056,26 @@
       <c r="S262">
         <v>1180.1000000000001</v>
       </c>
+      <c r="T262">
+        <v>1618.7</v>
+      </c>
       <c r="U262">
-        <v>1618.7</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="V262">
-        <v>153.30000000000001</v>
+        <v>3251.9</v>
       </c>
       <c r="W262">
-        <v>3251.9</v>
+        <v>4229.1000000000004</v>
       </c>
       <c r="X262">
-        <v>4229.1000000000004</v>
+        <v>364.1</v>
       </c>
       <c r="Y262">
-        <v>364.1</v>
-      </c>
-      <c r="Z262">
         <v>6266.5</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43098</v>
       </c>
@@ -21148,22 +21133,22 @@
       <c r="S263">
         <v>1176.2</v>
       </c>
+      <c r="T263">
+        <v>1619.3000000000002</v>
+      </c>
       <c r="U263">
-        <v>1619.3000000000002</v>
+        <v>153</v>
       </c>
       <c r="V263">
-        <v>153</v>
+        <v>3225</v>
       </c>
       <c r="W263">
-        <v>3225</v>
+        <v>4203.6000000000004</v>
       </c>
       <c r="X263">
-        <v>4203.6000000000004</v>
+        <v>361.6</v>
       </c>
       <c r="Y263">
-        <v>361.6</v>
-      </c>
-      <c r="Z263">
         <v>6218.5</v>
       </c>
     </row>
@@ -21187,18 +21172,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -23309,15 +23294,15 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>42845</v>
@@ -23325,7 +23310,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>42887</v>
@@ -23347,7 +23332,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>42878</v>
@@ -23358,7 +23343,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>42843</v>
@@ -23379,7 +23364,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>42852</v>
@@ -23396,7 +23381,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>42853</v>
@@ -23404,7 +23389,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>42888</v>
@@ -23412,7 +23397,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>42860</v>
@@ -23420,7 +23405,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>42877</v>
@@ -23428,7 +23413,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>42849</v>
@@ -23436,7 +23421,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>42865</v>
@@ -23444,7 +23429,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>42872</v>
@@ -23452,7 +23437,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>42891</v>
@@ -23460,7 +23445,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>42870</v>
@@ -23468,7 +23453,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>42828</v>
@@ -23476,7 +23461,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>42873</v>
@@ -23484,7 +23469,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>42866</v>
@@ -23492,7 +23477,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>42859</v>
@@ -23500,7 +23485,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>42846</v>
@@ -23508,7 +23493,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>42849</v>

--- a/data/event_study_data.xlsx
+++ b/data/event_study_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_course/in_progress/Workshop_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_ws_quarterfall/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A89B1-C81B-514C-95F0-834BF20A3AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF3712-096E-E04B-ABA3-DB682A8E27EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firms" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>8721AT</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Event_date</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y263"/>
+  <dimension ref="A1:Z263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,7 +904,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -959,26 +962,26 @@
       <c r="S1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>71</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1036,26 +1039,26 @@
       <c r="S2" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>74</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>76</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>78</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42734</v>
       </c>
@@ -1113,26 +1116,26 @@
       <c r="S3">
         <v>1182.9000000000001</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1514.4</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>117</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3482.2000000000003</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3501.8</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>443.70000000000005</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>4922.8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42737</v>
       </c>
@@ -1190,26 +1193,26 @@
       <c r="S4">
         <v>1202.9000000000001</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1528.1000000000001</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>118.2</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3478.4</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3513.8</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>447.40000000000003</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4975</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42738</v>
       </c>
@@ -1267,26 +1270,26 @@
       <c r="S5">
         <v>1213.4000000000001</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1546.5</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>117.7</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3418.5</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3490.1000000000004</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>448.8</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4942.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42739</v>
       </c>
@@ -1344,26 +1347,26 @@
       <c r="S6">
         <v>1243</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1554</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>118</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3426.9</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3495.5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>451.40000000000003</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>4922.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42740</v>
       </c>
@@ -1421,26 +1424,26 @@
       <c r="S7">
         <v>1235.2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1546.2</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>117.60000000000001</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3441.5</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3500.4</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>446.3</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4987.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42741</v>
       </c>
@@ -1498,26 +1501,26 @@
       <c r="S8">
         <v>1240.3000000000002</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1540</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>117.60000000000001</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>3467.6000000000004</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>3485.2000000000003</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>446.70000000000005</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>4970</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42744</v>
       </c>
@@ -1575,26 +1578,26 @@
       <c r="S9">
         <v>1242.3000000000002</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1513.5</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>115.60000000000001</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3439.2000000000003</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3496.4</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>441.1</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4980</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42745</v>
       </c>
@@ -1652,26 +1655,26 @@
       <c r="S10">
         <v>1248.5</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1509.2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>114.9</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3417.7000000000003</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3478</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>436.70000000000005</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>4956.4000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42746</v>
       </c>
@@ -1729,26 +1732,29 @@
       <c r="S11">
         <v>1242.8000000000002</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11">
         <v>1529.6000000000001</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>116.80000000000001</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3413.9</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>3486.1000000000004</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>435.70000000000005</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5083.7000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42747</v>
       </c>
@@ -1806,26 +1812,26 @@
       <c r="S12">
         <v>1251.1000000000001</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1524.9</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>116.9</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>3410.8</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>3479.8</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>430.20000000000005</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>5045.8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42748</v>
       </c>
@@ -1883,26 +1889,26 @@
       <c r="S13">
         <v>1268.1000000000001</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1526.1000000000001</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>115.5</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>3396.2000000000003</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>3498.2000000000003</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>434.3</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>5073.7000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42751</v>
       </c>
@@ -1960,26 +1966,26 @@
       <c r="S14">
         <v>1245.1000000000001</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1513.2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>117.2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3355.5</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3478.9</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>432.5</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>5047.9000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42752</v>
       </c>
@@ -2037,26 +2043,26 @@
       <c r="S15">
         <v>1239.1000000000001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1510.6000000000001</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>115.9</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3327.9</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3448.9</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>433.40000000000003</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>4978.6000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42753</v>
       </c>
@@ -2114,26 +2120,26 @@
       <c r="S16">
         <v>1236.4000000000001</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1507.1000000000001</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>116.5</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3341.7000000000003</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3469.5</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>430</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>4923.5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42754</v>
       </c>
@@ -2191,26 +2197,26 @@
       <c r="S17">
         <v>1246.2</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1492</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>116.2</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3290.3</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3463.7000000000003</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>429.40000000000003</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4948.5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42755</v>
       </c>
@@ -2268,26 +2274,26 @@
       <c r="S18">
         <v>1243.5</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1497.8000000000002</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>115.7</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3287.2000000000003</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3487.4</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>434.20000000000005</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>5055.1000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42758</v>
       </c>
@@ -2345,26 +2351,26 @@
       <c r="S19">
         <v>1237.3000000000002</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1487.9</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>112.5</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3308.7000000000003</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>3490.6000000000004</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>430.3</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4990</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42759</v>
       </c>
@@ -2422,26 +2428,26 @@
       <c r="S20">
         <v>1250.8000000000002</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1492.3000000000002</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>114.30000000000001</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3271.1000000000004</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3497.3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>427.6</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4968.5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42760</v>
       </c>
@@ -2499,26 +2505,26 @@
       <c r="S21">
         <v>1269.4000000000001</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1507.4</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>118.10000000000001</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3254.9</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>3524.1000000000004</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>423.90000000000003</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4984.3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42761</v>
       </c>
@@ -2576,26 +2582,26 @@
       <c r="S22">
         <v>1274.9000000000001</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1503</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>119</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>3264.9</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3375.1000000000004</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>423</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4975</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42762</v>
       </c>
@@ -2653,26 +2659,26 @@
       <c r="S23">
         <v>1246.5</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1496.9</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>120</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3260.3</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3401.9</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>426.70000000000005</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>4977.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42765</v>
       </c>
@@ -2730,26 +2736,26 @@
       <c r="S24">
         <v>1234.5</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1468.1000000000001</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>119.30000000000001</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>3241.9</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3370.6000000000004</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>396.90000000000003</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>5077.2000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42766</v>
       </c>
@@ -2807,26 +2813,26 @@
       <c r="S25">
         <v>1235</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1459.3000000000002</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>119.10000000000001</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3270.3</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3347.8</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>392.70000000000005</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>5056.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42767</v>
       </c>
@@ -2884,26 +2890,26 @@
       <c r="S26">
         <v>1252.7</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1463.7</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>120</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3286.4</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3355.8</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>395.5</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>5045.1000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42768</v>
       </c>
@@ -2961,26 +2967,26 @@
       <c r="S27">
         <v>1252</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1467.8000000000002</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>119.60000000000001</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3281</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3360.3</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>396.20000000000005</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>5123.7000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42769</v>
       </c>
@@ -3038,26 +3044,26 @@
       <c r="S28">
         <v>1253.1000000000001</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1484.1000000000001</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>118.7</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>3302.5</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>3396.1000000000004</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>399.3</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>5143</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42772</v>
       </c>
@@ -3115,26 +3121,26 @@
       <c r="S29">
         <v>1239.6000000000001</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1472.7</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>118.80000000000001</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3264.9</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3389.4</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>394.70000000000005</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5147.3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42773</v>
       </c>
@@ -3192,26 +3198,26 @@
       <c r="S30">
         <v>1241.7</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1464.6000000000001</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>121</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3315.6000000000004</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3422.1000000000004</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>395.6</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>5216</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42774</v>
       </c>
@@ -3269,26 +3275,26 @@
       <c r="S31">
         <v>1224.2</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1447.7</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>119.5</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3370.9</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3490.1000000000004</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>395.3</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>5243.9000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42775</v>
       </c>
@@ -3346,26 +3352,26 @@
       <c r="S32">
         <v>1241.2</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1468.1000000000001</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>122.5</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3380.1000000000004</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>3484.7000000000003</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>397.8</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>5303.9000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42776</v>
       </c>
@@ -3423,26 +3429,26 @@
       <c r="S33">
         <v>1249</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1484.4</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>124.80000000000001</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>3363.2000000000003</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>3465.5</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>403.90000000000003</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>5306.1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42779</v>
       </c>
@@ -3500,26 +3506,26 @@
       <c r="S34">
         <v>1269.4000000000001</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1495.2</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>127</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>3354</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3485.2000000000003</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>409.70000000000005</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>5321.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42780</v>
       </c>
@@ -3577,26 +3583,26 @@
       <c r="S35">
         <v>1320.2</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1494.6000000000001</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>126.4</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>3373.2000000000003</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3474</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>409.8</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>5311.8</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42781</v>
       </c>
@@ -3654,26 +3660,26 @@
       <c r="S36">
         <v>1295.1000000000001</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1489.6000000000001</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>128.70000000000002</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>3410.8</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3515.2000000000003</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>410.70000000000005</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>5320.4000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42782</v>
       </c>
@@ -3731,26 +3737,26 @@
       <c r="S37">
         <v>1294.4000000000001</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1450.3000000000002</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>128.30000000000001</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>3430</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3542.5</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>413.20000000000005</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>5322.5</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42783</v>
       </c>
@@ -3808,26 +3814,26 @@
       <c r="S38">
         <v>1274</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>1429.9</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>127.5</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>3388.5</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>4010.7000000000003</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>383.70000000000005</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>5339</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42786</v>
       </c>
@@ -3885,26 +3891,26 @@
       <c r="S39">
         <v>1275.2</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>1423.5</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>127.60000000000001</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>3388.5</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3804.3</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>385.1</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>5336.8</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42787</v>
       </c>
@@ -3962,26 +3968,26 @@
       <c r="S40">
         <v>1288</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>1446.5</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>130.4</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>3350.9</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3822.3</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>387</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>5268.9000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42788</v>
       </c>
@@ -4039,26 +4045,26 @@
       <c r="S41">
         <v>1266</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>1437.8000000000002</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>129.5</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>3327.1000000000004</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3977.1000000000004</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>386.90000000000003</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>5399.8</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42789</v>
       </c>
@@ -4116,26 +4122,26 @@
       <c r="S42">
         <v>1259.8000000000002</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>1442.4</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>129.1</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>3348.6000000000004</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3971.8</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>386.6</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>5456.2000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42790</v>
       </c>
@@ -4193,26 +4199,26 @@
       <c r="S43">
         <v>1243.7</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>1429.3000000000002</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>130.1</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>3330.2000000000003</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>3982.1000000000004</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>388.40000000000003</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>5492</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42793</v>
       </c>
@@ -4270,26 +4276,26 @@
       <c r="S44">
         <v>1246.5</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>1422</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>131</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>3304.1000000000004</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>3994.6000000000004</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>391.70000000000005</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>5532.8</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42794</v>
       </c>
@@ -4347,26 +4353,26 @@
       <c r="S45">
         <v>1260.5</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>1420.9</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>130.70000000000002</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>3307.2000000000003</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>3994.1000000000004</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>394.6</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>5529.9000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42795</v>
       </c>
@@ -4424,26 +4430,26 @@
       <c r="S46">
         <v>1275.9000000000001</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>1444.2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>131.30000000000001</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>3337.9</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>4028.6000000000004</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>401.8</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>5566.4000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42796</v>
       </c>
@@ -4501,26 +4507,26 @@
       <c r="S47">
         <v>1263.7</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>1450.6000000000001</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>129</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>3314.8</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>4006.2000000000003</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>409.20000000000005</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>5534.9000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42797</v>
       </c>
@@ -4578,26 +4584,26 @@
       <c r="S48">
         <v>1256.3000000000002</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>1449.1000000000001</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>127.5</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>3339.4</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>3989.7000000000003</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>410.3</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>5473.4000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42800</v>
       </c>
@@ -4655,26 +4661,26 @@
       <c r="S49">
         <v>1254</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>1445.9</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>127.30000000000001</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>3334</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>3992.4</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>407.20000000000005</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>5461.2000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42801</v>
       </c>
@@ -4732,26 +4738,26 @@
       <c r="S50">
         <v>1260.5</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>1445.6000000000001</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>128.80000000000001</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>3295.6000000000004</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>4019.7000000000003</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>401.6</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>5416.9000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42802</v>
       </c>
@@ -4809,26 +4815,26 @@
       <c r="S51">
         <v>1264.8000000000002</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>1430.2</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>130</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>3309.5</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>4010.3</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>395.40000000000003</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>5393.3</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42803</v>
       </c>
@@ -4886,26 +4892,26 @@
       <c r="S52">
         <v>1273.6000000000001</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>1399.6000000000001</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>130</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>3338.6000000000004</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>4085.5</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>401.5</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>5420.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42804</v>
       </c>
@@ -4963,26 +4969,26 @@
       <c r="S53">
         <v>1264.6000000000001</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>1408.3000000000002</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>131.30000000000001</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>3274.9</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>4106.9000000000005</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>402</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>5399</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42807</v>
       </c>
@@ -5040,26 +5046,26 @@
       <c r="S54">
         <v>1277.2</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>1420.9</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>134.20000000000002</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>3284.9</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>4068</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>401.8</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>5456.2000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42808</v>
       </c>
@@ -5117,26 +5123,26 @@
       <c r="S55">
         <v>1279.1000000000001</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>1397.8000000000002</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>133.9</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>3275.7000000000003</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>4127.1000000000004</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>395.90000000000003</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42809</v>
       </c>
@@ -5194,26 +5200,26 @@
       <c r="S56">
         <v>1285.3000000000002</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>1407.8000000000002</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>132.20000000000002</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>3269.5</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>4126.6000000000004</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>398.20000000000005</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>5443.4000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42810</v>
       </c>
@@ -5271,26 +5277,26 @@
       <c r="S57">
         <v>1289.6000000000001</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>1424.4</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>129.9</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>3352.5</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>4153.9000000000005</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>398.8</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>5446.2000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42811</v>
       </c>
@@ -5348,26 +5354,26 @@
       <c r="S58">
         <v>1287.3000000000002</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>1430.8000000000002</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>130.1</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>3380.9</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>4152.6000000000004</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>397.6</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>5501.3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42814</v>
       </c>
@@ -5425,26 +5431,26 @@
       <c r="S59">
         <v>1278.6000000000001</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>1419.7</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>130.9</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>3358.6000000000004</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>4167.4000000000005</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>400.40000000000003</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>5509.9000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42815</v>
       </c>
@@ -5502,26 +5508,26 @@
       <c r="S60">
         <v>1277</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>1424.4</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>131</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>3370.1000000000004</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>4155.7</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>395.70000000000005</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>5463.4000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42816</v>
       </c>
@@ -5579,26 +5585,26 @@
       <c r="S61">
         <v>1274.7</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>1419.1000000000001</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>129.6</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>3378.6000000000004</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>4165.1000000000004</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>391.1</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>5458.4000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42817</v>
       </c>
@@ -5656,26 +5662,26 @@
       <c r="S62">
         <v>1285.5</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>1422.6000000000001</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>128.80000000000001</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>3407.7000000000003</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>4179.5</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>392.8</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>5511.3</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42818</v>
       </c>
@@ -5733,26 +5739,26 @@
       <c r="S63">
         <v>1294.4000000000001</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>1408</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>130.5</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>3420</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>4171.8</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>392.20000000000005</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>5480.6</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42821</v>
       </c>
@@ -5810,26 +5816,26 @@
       <c r="S64">
         <v>1277.5</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>1402.2</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>129.30000000000001</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>3343.2000000000003</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>4180.8</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>390.20000000000005</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>5457</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42822</v>
       </c>
@@ -5887,26 +5893,26 @@
       <c r="S65">
         <v>1249.2</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>1422.3000000000002</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>131.4</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>3304.9</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>4162.9000000000005</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>394.8</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>5494.9000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42823</v>
       </c>
@@ -5964,26 +5970,26 @@
       <c r="S66">
         <v>1234.1000000000001</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>1438.3000000000002</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>132.5</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>3329.4</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>4189.8</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>398.5</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>5488.4000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42824</v>
       </c>
@@ -6041,26 +6047,26 @@
       <c r="S67">
         <v>1240.5</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>1445.3000000000002</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>133.9</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>3301.8</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>4183</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>402.3</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>5523.5</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42825</v>
       </c>
@@ -6118,26 +6124,26 @@
       <c r="S68">
         <v>1241.9000000000001</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>1434.6000000000001</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>134</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>3364.7000000000003</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>4169.2</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>404.1</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>5572.8</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42828</v>
       </c>
@@ -6195,26 +6201,26 @@
       <c r="S69">
         <v>1197.8</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>1420.3000000000002</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>135</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>3345.5</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>4159.3</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>405.1</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>5613.6</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42829</v>
       </c>
@@ -6272,26 +6278,26 @@
       <c r="S70">
         <v>1195.5</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>1430.8000000000002</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>134.70000000000002</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>3366.3</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>4160.7</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>407.70000000000005</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>5649.3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42830</v>
       </c>
@@ -6349,26 +6355,26 @@
       <c r="S71">
         <v>1209.7</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>1445.6000000000001</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>134.30000000000001</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>3363.2000000000003</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>4169.2</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>406.6</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>5644.3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42831</v>
       </c>
@@ -6426,26 +6432,26 @@
       <c r="S72">
         <v>1206.3</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>1451.2</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>135</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>3421.6000000000004</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>4209.9000000000005</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>410.20000000000005</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>5577.8</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42832</v>
       </c>
@@ -6503,26 +6509,26 @@
       <c r="S73">
         <v>1215.9000000000001</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>1466.9</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>135.6</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>3432.3</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>4265.8</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>410.3</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>5603.6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42835</v>
       </c>
@@ -6580,26 +6586,26 @@
       <c r="S74">
         <v>1218.7</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>1466.9</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>136.6</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>3426.2000000000003</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>4299</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>409.90000000000003</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>5593.5</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42836</v>
       </c>
@@ -6657,26 +6663,26 @@
       <c r="S75">
         <v>1229.9000000000001</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>1468.1000000000001</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>137.9</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>3453.8</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>4297.2</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>410.40000000000003</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>5564.2000000000007</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42837</v>
       </c>
@@ -6734,26 +6740,26 @@
       <c r="S76">
         <v>1258</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>1465.7</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>137.20000000000002</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>3450.7000000000003</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>4323.1000000000004</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>419.20000000000005</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>5642.9000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42838</v>
       </c>
@@ -6811,26 +6817,26 @@
       <c r="S77">
         <v>1252.9000000000001</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>1448.5</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>136.5</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>3441.5</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>4294.5</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>417.90000000000003</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>5640</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42839</v>
       </c>
@@ -6888,26 +6894,26 @@
       <c r="S78">
         <v>1252.9000000000001</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>1448.5</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>136.5</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>3441.5</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>4294.5</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>417.90000000000003</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>5640</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42842</v>
       </c>
@@ -6965,26 +6971,26 @@
       <c r="S79">
         <v>1252.9000000000001</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>1448.5</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>136.5</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>3441.5</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>4294.5</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>417.90000000000003</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>5640</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42843</v>
       </c>
@@ -7042,26 +7048,26 @@
       <c r="S80">
         <v>1236.8000000000002</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>1428.2</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>136</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>3436.9</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>4274.8</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>413.70000000000005</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>5612.8</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42844</v>
       </c>
@@ -7119,26 +7125,26 @@
       <c r="S81">
         <v>1248.5</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>1402.2</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>136.5</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>3408.5</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>4273</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>410.6</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>5633.6</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42845</v>
       </c>
@@ -7196,26 +7202,26 @@
       <c r="S82">
         <v>1261.6000000000001</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>1395.8000000000002</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>135</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>3392.4</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>4277</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>412</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>5579.2000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42846</v>
       </c>
@@ -7273,26 +7279,26 @@
       <c r="S83">
         <v>1244.2</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>1394.1000000000001</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>141.4</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>3373.2000000000003</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>4270.3</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>405.70000000000005</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>5568.5</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42849</v>
       </c>
@@ -7350,26 +7356,26 @@
       <c r="S84">
         <v>1289.9000000000001</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>1401.9</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>145</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>3486.8</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>4318.7</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>409.6</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>5548.5</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42850</v>
       </c>
@@ -7427,26 +7433,26 @@
       <c r="S85">
         <v>1270.1000000000001</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>1404.5</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>147.6</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>3522.2000000000003</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>4297.2</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>404.6</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42851</v>
       </c>
@@ -7504,26 +7510,26 @@
       <c r="S86">
         <v>1260.2</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>1414.7</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>145.80000000000001</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>3503</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>4294</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>406.20000000000005</v>
       </c>
-      <c r="Y86">
+      <c r="Z86">
         <v>5584.2000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42852</v>
       </c>
@@ -7581,26 +7587,26 @@
       <c r="S87">
         <v>1260.2</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>1396.4</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>148.80000000000001</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>3480.7000000000003</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>4284.6000000000004</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>408.3</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>5624.3</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42853</v>
       </c>
@@ -7658,26 +7664,26 @@
       <c r="S88">
         <v>1255.9000000000001</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>1391.7</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>155.30000000000001</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>3462.3</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>4310.2</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>409.5</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>5576.4000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42856</v>
       </c>
@@ -7735,26 +7741,26 @@
       <c r="S89">
         <v>1255.9000000000001</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>1391.7</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>155.30000000000001</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>3462.3</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>4310.2</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>409.5</v>
       </c>
-      <c r="Y89">
+      <c r="Z89">
         <v>5576.4000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42857</v>
       </c>
@@ -7812,26 +7818,26 @@
       <c r="S90">
         <v>1261.2</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>1393.5</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>157.20000000000002</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>3495.3</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>4351.3</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>415.20000000000005</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>5687.9000000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42858</v>
       </c>
@@ -7889,26 +7895,26 @@
       <c r="S91">
         <v>1244.9000000000001</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>1395.5</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>158</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>3493</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>4338.4000000000005</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>406.6</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>5683.6</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42859</v>
       </c>
@@ -7966,26 +7972,26 @@
       <c r="S92">
         <v>1268.3000000000002</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>1397.8000000000002</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>159.5</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>3503.7000000000003</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>4328.1000000000004</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>413.90000000000003</v>
       </c>
-      <c r="Y92">
+      <c r="Z92">
         <v>5652.2000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42860</v>
       </c>
@@ -8043,26 +8049,26 @@
       <c r="S93">
         <v>1286.6000000000001</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>1426.7</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>161.70000000000002</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>3526</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>4308.4000000000005</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>425</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>5667.2000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42863</v>
       </c>
@@ -8120,26 +8126,26 @@
       <c r="S94">
         <v>1287.1000000000001</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>1441.3000000000002</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>165</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>3589.7000000000003</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>4392.1000000000004</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>419.90000000000003</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>5666.5</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42864</v>
       </c>
@@ -8197,26 +8203,26 @@
       <c r="S95">
         <v>1297.9000000000001</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>1452.3000000000002</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>165.5</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>3611.2000000000003</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>4399.7</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>417.90000000000003</v>
       </c>
-      <c r="Y95">
+      <c r="Z95">
         <v>5687.9000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42865</v>
       </c>
@@ -8274,26 +8280,26 @@
       <c r="S96">
         <v>1297.2</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>1470.4</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>164.4</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>3606.6000000000004</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>4427.4000000000005</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>419.70000000000005</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>5582.1</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42866</v>
       </c>
@@ -8351,26 +8357,26 @@
       <c r="S97">
         <v>1287.6000000000001</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>1475.4</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>158.80000000000001</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>3628.1000000000004</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>4424.8</v>
       </c>
-      <c r="X97">
+      <c r="Y97">
         <v>416</v>
       </c>
-      <c r="Y97">
+      <c r="Z97">
         <v>5547.1</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42867</v>
       </c>
@@ -8428,26 +8434,26 @@
       <c r="S98">
         <v>1288.7</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>1475.6000000000001</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>160.10000000000002</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>3636.6000000000004</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>4399.7</v>
       </c>
-      <c r="X98">
+      <c r="Y98">
         <v>413.8</v>
       </c>
-      <c r="Y98">
+      <c r="Z98">
         <v>5638.6</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42870</v>
       </c>
@@ -8505,26 +8511,26 @@
       <c r="S99">
         <v>1294</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>1480</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>159.30000000000001</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>3645</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>4423.9000000000005</v>
       </c>
-      <c r="X99">
+      <c r="Y99">
         <v>413.40000000000003</v>
       </c>
-      <c r="Y99">
+      <c r="Z99">
         <v>5632.9000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42871</v>
       </c>
@@ -8582,26 +8588,26 @@
       <c r="S100">
         <v>1293.5</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>1477.1000000000001</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>159.9</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>3642.7000000000003</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>4439.5</v>
       </c>
-      <c r="X100">
+      <c r="Y100">
         <v>411.5</v>
       </c>
-      <c r="Y100">
+      <c r="Z100">
         <v>5697.2000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42872</v>
       </c>
@@ -8659,26 +8665,26 @@
       <c r="S101">
         <v>1261.4000000000001</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>1481.2</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>157.5</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>3604.3</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>4409.1000000000004</v>
       </c>
-      <c r="X101">
+      <c r="Y101">
         <v>406.90000000000003</v>
       </c>
-      <c r="Y101">
+      <c r="Z101">
         <v>5694.4000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42873</v>
       </c>
@@ -8736,26 +8742,26 @@
       <c r="S102">
         <v>1260</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>1439.2</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>154.80000000000001</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>3542.1000000000004</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>4368.3</v>
       </c>
-      <c r="X102">
+      <c r="Y102">
         <v>402.70000000000005</v>
       </c>
-      <c r="Y102">
+      <c r="Z102">
         <v>5658.6</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42874</v>
       </c>
@@ -8813,26 +8819,26 @@
       <c r="S103">
         <v>1242.3000000000002</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>1440.1000000000001</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>157.60000000000002</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>3529.1000000000004</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>4407.7</v>
       </c>
-      <c r="X103">
+      <c r="Y103">
         <v>410.70000000000005</v>
       </c>
-      <c r="Y103">
+      <c r="Z103">
         <v>5680.1</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42877</v>
       </c>
@@ -8890,26 +8896,26 @@
       <c r="S104">
         <v>1236.8000000000002</v>
       </c>
-      <c r="T104">
+      <c r="U104">
         <v>1429</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>160.20000000000002</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>3569</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>4446.2</v>
       </c>
-      <c r="X104">
+      <c r="Y104">
         <v>410.6</v>
       </c>
-      <c r="Y104">
+      <c r="Z104">
         <v>5679.4000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42878</v>
       </c>
@@ -8967,26 +8973,26 @@
       <c r="S105">
         <v>1242.1000000000001</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>1430.5</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>159.80000000000001</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>3536.7000000000003</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>4450.3</v>
       </c>
-      <c r="X105">
+      <c r="Y105">
         <v>409</v>
       </c>
-      <c r="Y105">
+      <c r="Z105">
         <v>5641.5</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42879</v>
       </c>
@@ -9044,26 +9050,26 @@
       <c r="S106">
         <v>1196.9000000000001</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <v>1433.7</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>161</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>3540.6000000000004</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>4461</v>
       </c>
-      <c r="X106">
+      <c r="Y106">
         <v>412.3</v>
       </c>
-      <c r="Y106">
+      <c r="Z106">
         <v>5620.7000000000007</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42880</v>
       </c>
@@ -9121,26 +9127,26 @@
       <c r="S107">
         <v>1199.2</v>
       </c>
-      <c r="T107">
+      <c r="U107">
         <v>1425.2</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>159.4</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>3551.3</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>4524.6000000000004</v>
       </c>
-      <c r="X107">
+      <c r="Y107">
         <v>408.40000000000003</v>
       </c>
-      <c r="Y107">
+      <c r="Z107">
         <v>5574.9000000000005</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42881</v>
       </c>
@@ -9198,26 +9204,26 @@
       <c r="S108">
         <v>1192.5</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <v>1415.6000000000001</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>158.30000000000001</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>3562.9</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>4524.6000000000004</v>
       </c>
-      <c r="X108">
+      <c r="Y108">
         <v>406.3</v>
       </c>
-      <c r="Y108">
+      <c r="Z108">
         <v>5601.4000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42884</v>
       </c>
@@ -9275,26 +9281,26 @@
       <c r="S109">
         <v>1188.9000000000001</v>
       </c>
-      <c r="T109">
+      <c r="U109">
         <v>1421.2</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>160.4</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>3557.5</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>4512.9000000000005</v>
       </c>
-      <c r="X109">
+      <c r="Y109">
         <v>405.70000000000005</v>
       </c>
-      <c r="Y109">
+      <c r="Z109">
         <v>5586.4000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42885</v>
       </c>
@@ -9352,26 +9358,26 @@
       <c r="S110">
         <v>1182.4000000000001</v>
       </c>
-      <c r="T110">
+      <c r="U110">
         <v>1420.9</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>162.4</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>3549</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>4515.6000000000004</v>
       </c>
-      <c r="X110">
+      <c r="Y110">
         <v>402</v>
       </c>
-      <c r="Y110">
+      <c r="Z110">
         <v>5583.5</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42886</v>
       </c>
@@ -9429,26 +9435,26 @@
       <c r="S111">
         <v>1182.2</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <v>1407.5</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>165</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>3526.8</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>4538.9000000000005</v>
       </c>
-      <c r="X111">
+      <c r="Y111">
         <v>398.5</v>
       </c>
-      <c r="Y111">
+      <c r="Z111">
         <v>5585</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42887</v>
       </c>
@@ -9506,26 +9512,26 @@
       <c r="S112">
         <v>1194.8</v>
       </c>
-      <c r="T112">
+      <c r="U112">
         <v>1416.5</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>167.9</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>3561.3</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>4526.4000000000005</v>
       </c>
-      <c r="X112">
+      <c r="Y112">
         <v>404.20000000000005</v>
       </c>
-      <c r="Y112">
+      <c r="Z112">
         <v>5587.1</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42888</v>
       </c>
@@ -9583,26 +9589,26 @@
       <c r="S113">
         <v>1200.1000000000001</v>
       </c>
-      <c r="T113">
+      <c r="U113">
         <v>1391.4</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>166.20000000000002</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>3626.6000000000004</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>4573.8</v>
       </c>
-      <c r="X113">
+      <c r="Y113">
         <v>402.1</v>
       </c>
-      <c r="Y113">
+      <c r="Z113">
         <v>5565.7000000000007</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42891</v>
       </c>
@@ -9660,26 +9666,26 @@
       <c r="S114">
         <v>1178.8</v>
       </c>
-      <c r="T114">
+      <c r="U114">
         <v>1398.4</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>166.8</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>3566.7000000000003</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>4564.9000000000005</v>
       </c>
-      <c r="X114">
+      <c r="Y114">
         <v>398.3</v>
       </c>
-      <c r="Y114">
+      <c r="Z114">
         <v>5538.5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42892</v>
       </c>
@@ -9737,26 +9743,26 @@
       <c r="S115">
         <v>1167.3</v>
       </c>
-      <c r="T115">
+      <c r="U115">
         <v>1395.5</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>170</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>3582.8</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>4555.9000000000005</v>
       </c>
-      <c r="X115">
+      <c r="Y115">
         <v>398.1</v>
       </c>
-      <c r="Y115">
+      <c r="Z115">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42893</v>
       </c>
@@ -9814,26 +9820,26 @@
       <c r="S116">
         <v>1178.5</v>
       </c>
-      <c r="T116">
+      <c r="U116">
         <v>1387.4</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>177.5</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>3590.5</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>4555</v>
       </c>
-      <c r="X116">
+      <c r="Y116">
         <v>404.8</v>
       </c>
-      <c r="Y116">
+      <c r="Z116">
         <v>5542.8</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42894</v>
       </c>
@@ -9891,26 +9897,26 @@
       <c r="S117">
         <v>1191.4000000000001</v>
       </c>
-      <c r="T117">
+      <c r="U117">
         <v>1385.3000000000002</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>179.70000000000002</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>3566.7000000000003</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>4495</v>
       </c>
-      <c r="X117">
+      <c r="Y117">
         <v>405.1</v>
       </c>
-      <c r="Y117">
+      <c r="Z117">
         <v>5496.3</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42895</v>
       </c>
@@ -9968,26 +9974,26 @@
       <c r="S118">
         <v>1200.1000000000001</v>
       </c>
-      <c r="T118">
+      <c r="U118">
         <v>1396.4</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>179.70000000000002</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>3586.7000000000003</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>4498.6000000000004</v>
       </c>
-      <c r="X118">
+      <c r="Y118">
         <v>404.90000000000003</v>
       </c>
-      <c r="Y118">
+      <c r="Z118">
         <v>5493.4000000000005</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42898</v>
       </c>
@@ -10045,26 +10051,26 @@
       <c r="S119">
         <v>1192.5</v>
       </c>
-      <c r="T119">
+      <c r="U119">
         <v>1404.8000000000002</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>172</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>3555.9</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>4425.2</v>
       </c>
-      <c r="X119">
+      <c r="Y119">
         <v>412.90000000000003</v>
       </c>
-      <c r="Y119">
+      <c r="Z119">
         <v>5486.3</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42899</v>
       </c>
@@ -10122,26 +10128,26 @@
       <c r="S120">
         <v>1197.1000000000001</v>
       </c>
-      <c r="T120">
+      <c r="U120">
         <v>1411</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>168.4</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>3579</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>4421.6000000000004</v>
       </c>
-      <c r="X120">
+      <c r="Y120">
         <v>420.20000000000005</v>
       </c>
-      <c r="Y120">
+      <c r="Z120">
         <v>5529.9000000000005</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42900</v>
       </c>
@@ -10199,26 +10205,26 @@
       <c r="S121">
         <v>1191.8</v>
       </c>
-      <c r="T121">
+      <c r="U121">
         <v>1388.5</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>168.8</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>3585.1000000000004</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>4400.1000000000004</v>
       </c>
-      <c r="X121">
+      <c r="Y121">
         <v>422.6</v>
       </c>
-      <c r="Y121">
+      <c r="Z121">
         <v>5552.8</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42901</v>
       </c>
@@ -10276,26 +10282,26 @@
       <c r="S122">
         <v>1200.3</v>
       </c>
-      <c r="T122">
+      <c r="U122">
         <v>1388.2</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>167</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>3548.3</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>4431.9000000000005</v>
       </c>
-      <c r="X122">
+      <c r="Y122">
         <v>417.40000000000003</v>
       </c>
-      <c r="Y122">
+      <c r="Z122">
         <v>5519.2000000000007</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42902</v>
       </c>
@@ -10353,26 +10359,26 @@
       <c r="S123">
         <v>1218.5</v>
       </c>
-      <c r="T123">
+      <c r="U123">
         <v>1408</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>167.20000000000002</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>3562.9</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>4459.2</v>
       </c>
-      <c r="X123">
+      <c r="Y123">
         <v>423.70000000000005</v>
       </c>
-      <c r="Y123">
+      <c r="Z123">
         <v>5618.6</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42905</v>
       </c>
@@ -10430,26 +10436,26 @@
       <c r="S124">
         <v>1228.3</v>
       </c>
-      <c r="T124">
+      <c r="U124">
         <v>1416.8000000000002</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>168.9</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>3575.1000000000004</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>4494.1000000000004</v>
       </c>
-      <c r="X124">
+      <c r="Y124">
         <v>428.1</v>
       </c>
-      <c r="Y124">
+      <c r="Z124">
         <v>5636.4000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42906</v>
       </c>
@@ -10507,26 +10513,26 @@
       <c r="S125">
         <v>1224.2</v>
       </c>
-      <c r="T125">
+      <c r="U125">
         <v>1384.1000000000001</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>170.10000000000002</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>3569</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>4487.9000000000005</v>
       </c>
-      <c r="X125">
+      <c r="Y125">
         <v>425.40000000000003</v>
       </c>
-      <c r="Y125">
+      <c r="Z125">
         <v>5658.6</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42907</v>
       </c>
@@ -10584,26 +10590,26 @@
       <c r="S126">
         <v>1218.7</v>
       </c>
-      <c r="T126">
+      <c r="U126">
         <v>1369.6000000000001</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>173.5</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>3559.8</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>4485.2</v>
       </c>
-      <c r="X126">
+      <c r="Y126">
         <v>423.5</v>
       </c>
-      <c r="Y126">
+      <c r="Z126">
         <v>5633.6</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42908</v>
       </c>
@@ -10661,26 +10667,26 @@
       <c r="S127">
         <v>1219.4000000000001</v>
       </c>
-      <c r="T127">
+      <c r="U127">
         <v>1370.5</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>174.8</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>3543.7000000000003</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>4478.9000000000005</v>
       </c>
-      <c r="X127">
+      <c r="Y127">
         <v>419.40000000000003</v>
       </c>
-      <c r="Y127">
+      <c r="Z127">
         <v>5617.1</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42909</v>
       </c>
@@ -10738,26 +10744,26 @@
       <c r="S128">
         <v>1175.1000000000001</v>
       </c>
-      <c r="T128">
+      <c r="U128">
         <v>1372.2</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>173.20000000000002</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>3575.9</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>4468.2</v>
       </c>
-      <c r="X128">
+      <c r="Y128">
         <v>417.20000000000005</v>
       </c>
-      <c r="Y128">
+      <c r="Z128">
         <v>5591.4000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42912</v>
       </c>
@@ -10815,26 +10821,26 @@
       <c r="S129">
         <v>1178.3</v>
       </c>
-      <c r="T129">
+      <c r="U129">
         <v>1370.5</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>174.5</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>3569.8</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>4504</v>
       </c>
-      <c r="X129">
+      <c r="Y129">
         <v>416.90000000000003</v>
       </c>
-      <c r="Y129">
+      <c r="Z129">
         <v>5605.7000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42913</v>
       </c>
@@ -10892,26 +10898,26 @@
       <c r="S130">
         <v>1165.9000000000001</v>
       </c>
-      <c r="T130">
+      <c r="U130">
         <v>1377.7</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>174.8</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>3528.3</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>4463.7</v>
       </c>
-      <c r="X130">
+      <c r="Y130">
         <v>410.5</v>
       </c>
-      <c r="Y130">
+      <c r="Z130">
         <v>5550.6</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42914</v>
       </c>
@@ -10969,26 +10975,26 @@
       <c r="S131">
         <v>1157.6000000000001</v>
       </c>
-      <c r="T131">
+      <c r="U131">
         <v>1379.2</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>170.5</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>3460.7000000000003</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>4445.3</v>
       </c>
-      <c r="X131">
+      <c r="Y131">
         <v>410</v>
       </c>
-      <c r="Y131">
+      <c r="Z131">
         <v>5417.6</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42915</v>
       </c>
@@ -11046,26 +11052,26 @@
       <c r="S132">
         <v>1160.9000000000001</v>
       </c>
-      <c r="T132">
+      <c r="U132">
         <v>1367.2</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>164.9</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>3417</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>4317.8</v>
       </c>
-      <c r="X132">
+      <c r="Y132">
         <v>415</v>
       </c>
-      <c r="Y132">
+      <c r="Z132">
         <v>5292.5</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42916</v>
       </c>
@@ -11123,26 +11129,26 @@
       <c r="S133">
         <v>1173.5</v>
       </c>
-      <c r="T133">
+      <c r="U133">
         <v>1354.1000000000001</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>161.60000000000002</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>3388.5</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>4325.8</v>
       </c>
-      <c r="X133">
+      <c r="Y133">
         <v>401.40000000000003</v>
       </c>
-      <c r="Y133">
+      <c r="Z133">
         <v>5301.1</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42919</v>
       </c>
@@ -11200,26 +11206,26 @@
       <c r="S134">
         <v>1172.8</v>
       </c>
-      <c r="T134">
+      <c r="U134">
         <v>1377.4</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>164.3</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>3356.3</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>4342.4000000000005</v>
       </c>
-      <c r="X134">
+      <c r="Y134">
         <v>405.40000000000003</v>
       </c>
-      <c r="Y134">
+      <c r="Z134">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42920</v>
       </c>
@@ -11277,26 +11283,26 @@
       <c r="S135">
         <v>1152.4000000000001</v>
       </c>
-      <c r="T135">
+      <c r="U135">
         <v>1379.2</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>162.60000000000002</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>3314.8</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>4321.4000000000005</v>
       </c>
-      <c r="X135">
+      <c r="Y135">
         <v>405.1</v>
       </c>
-      <c r="Y135">
+      <c r="Z135">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42921</v>
       </c>
@@ -11354,26 +11360,26 @@
       <c r="S136">
         <v>1151.9000000000001</v>
       </c>
-      <c r="T136">
+      <c r="U136">
         <v>1364.9</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>166</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>3291</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>4325.8</v>
       </c>
-      <c r="X136">
+      <c r="Y136">
         <v>404.40000000000003</v>
       </c>
-      <c r="Y136">
+      <c r="Z136">
         <v>5327.5</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42922</v>
       </c>
@@ -11431,26 +11437,26 @@
       <c r="S137">
         <v>1150.5</v>
       </c>
-      <c r="T137">
+      <c r="U137">
         <v>1362.9</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>165.3</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>3263.4</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>4286.4000000000005</v>
       </c>
-      <c r="X137">
+      <c r="Y137">
         <v>405</v>
       </c>
-      <c r="Y137">
+      <c r="Z137">
         <v>5255.3</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42923</v>
       </c>
@@ -11508,26 +11514,26 @@
       <c r="S138">
         <v>1151.4000000000001</v>
       </c>
-      <c r="T138">
+      <c r="U138">
         <v>1349.5</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>164.9</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>3279.5</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>4303.4000000000005</v>
       </c>
-      <c r="X138">
+      <c r="Y138">
         <v>406.20000000000005</v>
       </c>
-      <c r="Y138">
+      <c r="Z138">
         <v>5218.1000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42926</v>
       </c>
@@ -11585,26 +11591,26 @@
       <c r="S139">
         <v>1160.9000000000001</v>
       </c>
-      <c r="T139">
+      <c r="U139">
         <v>1349.8000000000002</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>166.5</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>3279.5</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>4338.8</v>
       </c>
-      <c r="X139">
+      <c r="Y139">
         <v>408.6</v>
       </c>
-      <c r="Y139">
+      <c r="Z139">
         <v>5251</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>42927</v>
       </c>
@@ -11662,26 +11668,26 @@
       <c r="S140">
         <v>1132.3</v>
       </c>
-      <c r="T140">
+      <c r="U140">
         <v>1345.1000000000001</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>165.60000000000002</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>3236.5</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>4333.4000000000005</v>
       </c>
-      <c r="X140">
+      <c r="Y140">
         <v>406.1</v>
       </c>
-      <c r="Y140">
+      <c r="Z140">
         <v>5170.2000000000007</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>42928</v>
       </c>
@@ -11739,26 +11745,26 @@
       <c r="S141">
         <v>1135.1000000000001</v>
       </c>
-      <c r="T141">
+      <c r="U141">
         <v>1368.4</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>165</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>3278</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>4391.6000000000004</v>
       </c>
-      <c r="X141">
+      <c r="Y141">
         <v>411.1</v>
       </c>
-      <c r="Y141">
+      <c r="Z141">
         <v>5227.4000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>42929</v>
       </c>
@@ -11816,26 +11822,26 @@
       <c r="S142">
         <v>1149.8</v>
       </c>
-      <c r="T142">
+      <c r="U142">
         <v>1368.4</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>165</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>3281.8</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>4414.9000000000005</v>
       </c>
-      <c r="X142">
+      <c r="Y142">
         <v>413.1</v>
       </c>
-      <c r="Y142">
+      <c r="Z142">
         <v>5254.6</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>42930</v>
       </c>
@@ -11893,26 +11899,26 @@
       <c r="S143">
         <v>1160.2</v>
       </c>
-      <c r="T143">
+      <c r="U143">
         <v>1367.5</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>165</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>3306.4</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>4436.4000000000005</v>
       </c>
-      <c r="X143">
+      <c r="Y143">
         <v>412.20000000000005</v>
       </c>
-      <c r="Y143">
+      <c r="Z143">
         <v>5313.2000000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>42933</v>
       </c>
@@ -11970,26 +11976,26 @@
       <c r="S144">
         <v>1144.7</v>
       </c>
-      <c r="T144">
+      <c r="U144">
         <v>1369.9</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>164.60000000000002</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>3293.3</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>4440.4000000000005</v>
       </c>
-      <c r="X144">
+      <c r="Y144">
         <v>414.1</v>
       </c>
-      <c r="Y144">
+      <c r="Z144">
         <v>5295.3</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42934</v>
       </c>
@@ -12047,26 +12053,26 @@
       <c r="S145">
         <v>1137.6000000000001</v>
       </c>
-      <c r="T145">
+      <c r="U145">
         <v>1357.3000000000002</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>164.5</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>3313.3</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>4409.5</v>
       </c>
-      <c r="X145">
+      <c r="Y145">
         <v>409.90000000000003</v>
       </c>
-      <c r="Y145">
+      <c r="Z145">
         <v>5286</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>42935</v>
       </c>
@@ -12124,26 +12130,26 @@
       <c r="S146">
         <v>1153.3</v>
       </c>
-      <c r="T146">
+      <c r="U146">
         <v>1363.2</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>170</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>3344.8</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>4450.7</v>
       </c>
-      <c r="X146">
+      <c r="Y146">
         <v>410.5</v>
       </c>
-      <c r="Y146">
+      <c r="Z146">
         <v>5334</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>42936</v>
       </c>
@@ -12201,26 +12207,26 @@
       <c r="S147">
         <v>1159.5</v>
       </c>
-      <c r="T147">
+      <c r="U147">
         <v>1366.1000000000001</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>168</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>3350.2000000000003</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>4466.4000000000005</v>
       </c>
-      <c r="X147">
+      <c r="Y147">
         <v>410.5</v>
       </c>
-      <c r="Y147">
+      <c r="Z147">
         <v>5361.8</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>42937</v>
       </c>
@@ -12278,26 +12284,26 @@
       <c r="S148">
         <v>1140.1000000000001</v>
       </c>
-      <c r="T148">
+      <c r="U148">
         <v>1354.7</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>154.30000000000001</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>3307.2000000000003</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>4446.2</v>
       </c>
-      <c r="X148">
+      <c r="Y148">
         <v>407</v>
       </c>
-      <c r="Y148">
+      <c r="Z148">
         <v>5292.5</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>42940</v>
       </c>
@@ -12355,26 +12361,26 @@
       <c r="S149">
         <v>1128.7</v>
       </c>
-      <c r="T149">
+      <c r="U149">
         <v>1346.8000000000002</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>152.5</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>3305.6000000000004</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>4427.4000000000005</v>
       </c>
-      <c r="X149">
+      <c r="Y149">
         <v>403.40000000000003</v>
       </c>
-      <c r="Y149">
+      <c r="Z149">
         <v>5262.4000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>42941</v>
       </c>
@@ -12432,26 +12438,26 @@
       <c r="S150">
         <v>1184.5</v>
       </c>
-      <c r="T150">
+      <c r="U150">
         <v>1362.3000000000002</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>157.60000000000002</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>3311.8</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>4432.8</v>
       </c>
-      <c r="X150">
+      <c r="Y150">
         <v>402.8</v>
       </c>
-      <c r="Y150">
+      <c r="Z150">
         <v>5244.6</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>42942</v>
       </c>
@@ -12509,26 +12515,26 @@
       <c r="S151">
         <v>1185.4000000000001</v>
       </c>
-      <c r="T151">
+      <c r="U151">
         <v>1368.4</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>157.5</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>3328.7000000000003</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>4470</v>
       </c>
-      <c r="X151">
+      <c r="Y151">
         <v>405.70000000000005</v>
       </c>
-      <c r="Y151">
+      <c r="Z151">
         <v>5254.6</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>42943</v>
       </c>
@@ -12586,26 +12592,26 @@
       <c r="S152">
         <v>1185.2</v>
       </c>
-      <c r="T152">
+      <c r="U152">
         <v>1374.8000000000002</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>158.60000000000002</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>3332.5</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>4467.3</v>
       </c>
-      <c r="X152">
+      <c r="Y152">
         <v>402.8</v>
       </c>
-      <c r="Y152">
+      <c r="Z152">
         <v>5313.2000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>42944</v>
       </c>
@@ -12663,26 +12669,26 @@
       <c r="S153">
         <v>1170.7</v>
       </c>
-      <c r="T153">
+      <c r="U153">
         <v>1381.2</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>159</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>3278</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>4425.6000000000004</v>
       </c>
-      <c r="X153">
+      <c r="Y153">
         <v>401.20000000000005</v>
       </c>
-      <c r="Y153">
+      <c r="Z153">
         <v>5318.9000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>42947</v>
       </c>
@@ -12740,26 +12746,26 @@
       <c r="S154">
         <v>1170.3</v>
       </c>
-      <c r="T154">
+      <c r="U154">
         <v>1393.8000000000002</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>160.5</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>3245.7000000000003</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>4413.6000000000004</v>
       </c>
-      <c r="X154">
+      <c r="Y154">
         <v>398.1</v>
       </c>
-      <c r="Y154">
+      <c r="Z154">
         <v>5379.7000000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>42948</v>
       </c>
@@ -12817,26 +12823,26 @@
       <c r="S155">
         <v>1174.2</v>
       </c>
-      <c r="T155">
+      <c r="U155">
         <v>1397.6000000000001</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>161.80000000000001</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>3282.6000000000004</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>4414.5</v>
       </c>
-      <c r="X155">
+      <c r="Y155">
         <v>401.20000000000005</v>
       </c>
-      <c r="Y155">
+      <c r="Z155">
         <v>5364</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>42949</v>
       </c>
@@ -12894,26 +12900,26 @@
       <c r="S156">
         <v>1161.3</v>
       </c>
-      <c r="T156">
+      <c r="U156">
         <v>1406.9</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>160.5</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>3281.8</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>4401.9000000000005</v>
       </c>
-      <c r="X156">
+      <c r="Y156">
         <v>402.90000000000003</v>
       </c>
-      <c r="Y156">
+      <c r="Z156">
         <v>5311.8</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>42950</v>
       </c>
@@ -12971,26 +12977,26 @@
       <c r="S157">
         <v>1159.5</v>
       </c>
-      <c r="T157">
+      <c r="U157">
         <v>1406.6000000000001</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>160</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>3287.2000000000003</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>4392.5</v>
       </c>
-      <c r="X157">
+      <c r="Y157">
         <v>405.40000000000003</v>
       </c>
-      <c r="Y157">
+      <c r="Z157">
         <v>5323.9000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>42951</v>
       </c>
@@ -13048,26 +13054,26 @@
       <c r="S158">
         <v>1173.2</v>
       </c>
-      <c r="T158">
+      <c r="U158">
         <v>1414.5</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>163.4</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>3289.5</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>4430.6000000000004</v>
       </c>
-      <c r="X158">
+      <c r="Y158">
         <v>410.6</v>
       </c>
-      <c r="Y158">
+      <c r="Z158">
         <v>5377.6</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>42954</v>
       </c>
@@ -13125,26 +13131,26 @@
       <c r="S159">
         <v>1170.9000000000001</v>
       </c>
-      <c r="T159">
+      <c r="U159">
         <v>1417.4</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>164</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>3266.5</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>4443.1000000000004</v>
       </c>
-      <c r="X159">
+      <c r="Y159">
         <v>412.3</v>
       </c>
-      <c r="Y159">
+      <c r="Z159">
         <v>5349</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>42955</v>
       </c>
@@ -13202,26 +13208,26 @@
       <c r="S160">
         <v>1174.4000000000001</v>
       </c>
-      <c r="T160">
+      <c r="U160">
         <v>1427.3000000000002</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>166</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>3268</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>4465</v>
       </c>
-      <c r="X160">
+      <c r="Y160">
         <v>413.8</v>
       </c>
-      <c r="Y160">
+      <c r="Z160">
         <v>5349.7000000000007</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>42956</v>
       </c>
@@ -13279,26 +13285,26 @@
       <c r="S161">
         <v>1164.8</v>
       </c>
-      <c r="T161">
+      <c r="U161">
         <v>1428.4</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>163.60000000000002</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>3250.3</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>4474.4000000000005</v>
       </c>
-      <c r="X161">
+      <c r="Y161">
         <v>409.20000000000005</v>
       </c>
-      <c r="Y161">
+      <c r="Z161">
         <v>5300.3</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>42957</v>
       </c>
@@ -13356,26 +13362,26 @@
       <c r="S162">
         <v>1140.2</v>
       </c>
-      <c r="T162">
+      <c r="U162">
         <v>1396.1000000000001</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>161.70000000000002</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>3238</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>4429.2</v>
       </c>
-      <c r="X162">
+      <c r="Y162">
         <v>409.1</v>
       </c>
-      <c r="Y162">
+      <c r="Z162">
         <v>5291.8</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>42958</v>
       </c>
@@ -13433,26 +13439,26 @@
       <c r="S163">
         <v>1120.7</v>
       </c>
-      <c r="T163">
+      <c r="U163">
         <v>1371.9</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>159.10000000000002</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>3196.6000000000004</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>4399.7</v>
       </c>
-      <c r="X163">
+      <c r="Y163">
         <v>401.40000000000003</v>
       </c>
-      <c r="Y163">
+      <c r="Z163">
         <v>5250.3</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>42961</v>
       </c>
@@ -13510,26 +13516,26 @@
       <c r="S164">
         <v>1130.3</v>
       </c>
-      <c r="T164">
+      <c r="U164">
         <v>1373.9</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>161.5</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>3308.7000000000003</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>4439.1000000000004</v>
       </c>
-      <c r="X164">
+      <c r="Y164">
         <v>403.8</v>
       </c>
-      <c r="Y164">
+      <c r="Z164">
         <v>5269.6</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>42962</v>
       </c>
@@ -13587,26 +13593,26 @@
       <c r="S165">
         <v>1152.6000000000001</v>
       </c>
-      <c r="T165">
+      <c r="U165">
         <v>1362</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>161.30000000000001</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>3317.1000000000004</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>4471.8</v>
       </c>
-      <c r="X165">
+      <c r="Y165">
         <v>409.40000000000003</v>
       </c>
-      <c r="Y165">
+      <c r="Z165">
         <v>5270.3</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>42963</v>
       </c>
@@ -13664,26 +13670,26 @@
       <c r="S166">
         <v>1156.7</v>
       </c>
-      <c r="T166">
+      <c r="U166">
         <v>1366.1000000000001</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>161.80000000000001</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>3349.4</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>4494.1000000000004</v>
       </c>
-      <c r="X166">
+      <c r="Y166">
         <v>410.1</v>
       </c>
-      <c r="Y166">
+      <c r="Z166">
         <v>5340.4000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42964</v>
       </c>
@@ -13741,26 +13747,26 @@
       <c r="S167">
         <v>1154.9000000000001</v>
       </c>
-      <c r="T167">
+      <c r="U167">
         <v>1362.6000000000001</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>162.4</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>3336.3</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>4483.4000000000005</v>
       </c>
-      <c r="X167">
+      <c r="Y167">
         <v>408.90000000000003</v>
       </c>
-      <c r="Y167">
+      <c r="Z167">
         <v>5416.2000000000007</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>42965</v>
       </c>
@@ -13818,26 +13824,26 @@
       <c r="S168">
         <v>1145.2</v>
       </c>
-      <c r="T168">
+      <c r="U168">
         <v>1352.1000000000001</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>163.20000000000002</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>3283.4</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>4464.6000000000004</v>
       </c>
-      <c r="X168">
+      <c r="Y168">
         <v>371.70000000000005</v>
       </c>
-      <c r="Y168">
+      <c r="Z168">
         <v>5297.5</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>42968</v>
       </c>
@@ -13895,26 +13901,26 @@
       <c r="S169">
         <v>1139.3</v>
       </c>
-      <c r="T169">
+      <c r="U169">
         <v>1347.4</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>162.10000000000002</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>3264.9</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>4455.2</v>
       </c>
-      <c r="X169">
+      <c r="Y169">
         <v>364.8</v>
       </c>
-      <c r="Y169">
+      <c r="Z169">
         <v>5253.2000000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>42969</v>
       </c>
@@ -13972,26 +13978,26 @@
       <c r="S170">
         <v>1151.9000000000001</v>
       </c>
-      <c r="T170">
+      <c r="U170">
         <v>1359.1000000000001</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>164.3</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>3289.5</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>4494.1000000000004</v>
       </c>
-      <c r="X170">
+      <c r="Y170">
         <v>370.20000000000005</v>
       </c>
-      <c r="Y170">
+      <c r="Z170">
         <v>5331.1</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>42970</v>
       </c>
@@ -14049,26 +14055,26 @@
       <c r="S171">
         <v>1137.7</v>
       </c>
-      <c r="T171">
+      <c r="U171">
         <v>1355.9</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>161.60000000000002</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>3268</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>4468.2</v>
       </c>
-      <c r="X171">
+      <c r="Y171">
         <v>366.40000000000003</v>
       </c>
-      <c r="Y171">
+      <c r="Z171">
         <v>5299.6</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>42971</v>
       </c>
@@ -14126,26 +14132,26 @@
       <c r="S172">
         <v>1134.7</v>
       </c>
-      <c r="T172">
+      <c r="U172">
         <v>1355.6000000000001</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>160.60000000000002</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>3264.2000000000003</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>4478</v>
       </c>
-      <c r="X172">
+      <c r="Y172">
         <v>362.70000000000005</v>
       </c>
-      <c r="Y172">
+      <c r="Z172">
         <v>5259.6</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>42972</v>
       </c>
@@ -14203,26 +14209,26 @@
       <c r="S173">
         <v>1125.3</v>
       </c>
-      <c r="T173">
+      <c r="U173">
         <v>1359.4</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>162.10000000000002</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>3258</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>4469.1000000000004</v>
       </c>
-      <c r="X173">
+      <c r="Y173">
         <v>364</v>
       </c>
-      <c r="Y173">
+      <c r="Z173">
         <v>5232.4000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>42975</v>
       </c>
@@ -14280,26 +14286,26 @@
       <c r="S174">
         <v>1120.1000000000001</v>
       </c>
-      <c r="T174">
+      <c r="U174">
         <v>1352.4</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>159.70000000000002</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>3262.6000000000004</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>4465.5</v>
       </c>
-      <c r="X174">
+      <c r="Y174">
         <v>363.70000000000005</v>
       </c>
-      <c r="Y174">
+      <c r="Z174">
         <v>5185.2000000000007</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>42976</v>
       </c>
@@ -14357,26 +14363,26 @@
       <c r="S175">
         <v>1110.5</v>
       </c>
-      <c r="T175">
+      <c r="U175">
         <v>1339</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>151.6</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>3255.7000000000003</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>4441.8</v>
       </c>
-      <c r="X175">
+      <c r="Y175">
         <v>359.1</v>
       </c>
-      <c r="Y175">
+      <c r="Z175">
         <v>5115.1000000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>42977</v>
       </c>
@@ -14434,26 +14440,26 @@
       <c r="S176">
         <v>1122.6000000000001</v>
       </c>
-      <c r="T176">
+      <c r="U176">
         <v>1349.2</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>156</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>3260.3</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>4439.5</v>
       </c>
-      <c r="X176">
+      <c r="Y176">
         <v>353.8</v>
       </c>
-      <c r="Y176">
+      <c r="Z176">
         <v>5163.8</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>42978</v>
       </c>
@@ -14511,26 +14517,26 @@
       <c r="S177">
         <v>1127.2</v>
       </c>
-      <c r="T177">
+      <c r="U177">
         <v>1348.9</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>155</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>3279.5</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>4477.1000000000004</v>
       </c>
-      <c r="X177">
+      <c r="Y177">
         <v>351.5</v>
       </c>
-      <c r="Y177">
+      <c r="Z177">
         <v>5248.1</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>42979</v>
       </c>
@@ -14588,26 +14594,26 @@
       <c r="S178">
         <v>1144.7</v>
       </c>
-      <c r="T178">
+      <c r="U178">
         <v>1356.5</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>156.80000000000001</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>3241.1000000000004</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>4481.6000000000004</v>
       </c>
-      <c r="X178">
+      <c r="Y178">
         <v>355.1</v>
       </c>
-      <c r="Y178">
+      <c r="Z178">
         <v>5281</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>42982</v>
       </c>
@@ -14665,26 +14671,26 @@
       <c r="S179">
         <v>1149.8</v>
       </c>
-      <c r="T179">
+      <c r="U179">
         <v>1352.1000000000001</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>157.10000000000002</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>3239.6000000000004</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>4475.3</v>
       </c>
-      <c r="X179">
+      <c r="Y179">
         <v>349</v>
       </c>
-      <c r="Y179">
+      <c r="Z179">
         <v>5270.3</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>42983</v>
       </c>
@@ -14742,26 +14748,26 @@
       <c r="S180">
         <v>1145.8</v>
       </c>
-      <c r="T180">
+      <c r="U180">
         <v>1363.8000000000002</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>154.70000000000002</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>3200.4</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>4474.4000000000005</v>
       </c>
-      <c r="X180">
+      <c r="Y180">
         <v>351</v>
       </c>
-      <c r="Y180">
+      <c r="Z180">
         <v>5298.9000000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>42984</v>
       </c>
@@ -14819,26 +14825,26 @@
       <c r="S181">
         <v>1140.9000000000001</v>
       </c>
-      <c r="T181">
+      <c r="U181">
         <v>1367.2</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>155.80000000000001</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>3225</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>4503.1000000000004</v>
       </c>
-      <c r="X181">
+      <c r="Y181">
         <v>351.5</v>
       </c>
-      <c r="Y181">
+      <c r="Z181">
         <v>5334</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42985</v>
       </c>
@@ -14896,26 +14902,26 @@
       <c r="S182">
         <v>1136.3</v>
       </c>
-      <c r="T182">
+      <c r="U182">
         <v>1374.8000000000002</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>154.70000000000002</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>3254.2000000000003</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>4515.6000000000004</v>
       </c>
-      <c r="X182">
+      <c r="Y182">
         <v>350.40000000000003</v>
       </c>
-      <c r="Y182">
+      <c r="Z182">
         <v>5343.3</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42986</v>
       </c>
@@ -14973,26 +14979,26 @@
       <c r="S183">
         <v>1137</v>
       </c>
-      <c r="T183">
+      <c r="U183">
         <v>1371.9</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>158.10000000000002</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>3264.9</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>4515.6000000000004</v>
       </c>
-      <c r="X183">
+      <c r="Y183">
         <v>350.40000000000003</v>
       </c>
-      <c r="Y183">
+      <c r="Z183">
         <v>5371.1</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42989</v>
       </c>
@@ -15050,26 +15056,26 @@
       <c r="S184">
         <v>1160.9000000000001</v>
       </c>
-      <c r="T184">
+      <c r="U184">
         <v>1380.7</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>160.30000000000001</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>3271.8</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>4546.9000000000005</v>
       </c>
-      <c r="X184">
+      <c r="Y184">
         <v>350.90000000000003</v>
       </c>
-      <c r="Y184">
+      <c r="Z184">
         <v>5469.8</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42990</v>
       </c>
@@ -15127,26 +15133,26 @@
       <c r="S185">
         <v>1177.6000000000001</v>
       </c>
-      <c r="T185">
+      <c r="U185">
         <v>1386.5</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>164.4</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>3264.9</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>4508.5</v>
       </c>
-      <c r="X185">
+      <c r="Y185">
         <v>351.70000000000005</v>
       </c>
-      <c r="Y185">
+      <c r="Z185">
         <v>5489.1</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42991</v>
       </c>
@@ -15204,26 +15210,26 @@
       <c r="S186">
         <v>1179.4000000000001</v>
       </c>
-      <c r="T186">
+      <c r="U186">
         <v>1399</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>166.3</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>3237.3</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>4526.4000000000005</v>
       </c>
-      <c r="X186">
+      <c r="Y186">
         <v>354.5</v>
       </c>
-      <c r="Y186">
+      <c r="Z186">
         <v>5508.4000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42992</v>
       </c>
@@ -15281,26 +15287,26 @@
       <c r="S187">
         <v>1182.4000000000001</v>
       </c>
-      <c r="T187">
+      <c r="U187">
         <v>1412.7</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>166.8</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>3232.7000000000003</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>4511.1000000000004</v>
       </c>
-      <c r="X187">
+      <c r="Y187">
         <v>354.70000000000005</v>
       </c>
-      <c r="Y187">
+      <c r="Z187">
         <v>5533.5</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42993</v>
       </c>
@@ -15358,26 +15364,26 @@
       <c r="S188">
         <v>1169.3</v>
       </c>
-      <c r="T188">
+      <c r="U188">
         <v>1398.4</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>166.10000000000002</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>3198.9</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>4532.6000000000004</v>
       </c>
-      <c r="X188">
+      <c r="Y188">
         <v>348</v>
       </c>
-      <c r="Y188">
+      <c r="Z188">
         <v>5482</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42996</v>
       </c>
@@ -15435,26 +15441,26 @@
       <c r="S189">
         <v>1183.3</v>
       </c>
-      <c r="T189">
+      <c r="U189">
         <v>1399.6000000000001</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>167.5</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>3174.3</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>4545.2</v>
       </c>
-      <c r="X189">
+      <c r="Y189">
         <v>351.20000000000005</v>
       </c>
-      <c r="Y189">
+      <c r="Z189">
         <v>5458.4000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42997</v>
       </c>
@@ -15512,26 +15518,26 @@
       <c r="S190">
         <v>1195.3</v>
       </c>
-      <c r="T190">
+      <c r="U190">
         <v>1408</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>167.9</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>3157.4</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>4531.7</v>
       </c>
-      <c r="X190">
+      <c r="Y190">
         <v>351.20000000000005</v>
       </c>
-      <c r="Y190">
+      <c r="Z190">
         <v>5409</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>42998</v>
       </c>
@@ -15589,26 +15595,26 @@
       <c r="S191">
         <v>1206.3</v>
       </c>
-      <c r="T191">
+      <c r="U191">
         <v>1424.7</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>167.3</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>3150.5</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>4500.4000000000005</v>
       </c>
-      <c r="X191">
+      <c r="Y191">
         <v>355.20000000000005</v>
       </c>
-      <c r="Y191">
+      <c r="Z191">
         <v>5394</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>42999</v>
       </c>
@@ -15666,26 +15672,26 @@
       <c r="S192">
         <v>1209.5</v>
       </c>
-      <c r="T192">
+      <c r="U192">
         <v>1438.1000000000001</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>165.10000000000002</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>3152</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>4433.7</v>
       </c>
-      <c r="X192">
+      <c r="Y192">
         <v>355.90000000000003</v>
       </c>
-      <c r="Y192">
+      <c r="Z192">
         <v>5369</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43000</v>
       </c>
@@ -15743,26 +15749,26 @@
       <c r="S193">
         <v>1198.7</v>
       </c>
-      <c r="T193">
+      <c r="U193">
         <v>1447.1000000000001</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>165.9</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>3148.2000000000003</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>4398.3</v>
       </c>
-      <c r="X193">
+      <c r="Y193">
         <v>356.40000000000003</v>
       </c>
-      <c r="Y193">
+      <c r="Z193">
         <v>5385.4000000000005</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43003</v>
       </c>
@@ -15820,26 +15826,26 @@
       <c r="S194">
         <v>1207.4000000000001</v>
       </c>
-      <c r="T194">
+      <c r="U194">
         <v>1467.2</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>164.70000000000002</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>3153.6000000000004</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>4423.4000000000005</v>
       </c>
-      <c r="X194">
+      <c r="Y194">
         <v>355.90000000000003</v>
       </c>
-      <c r="Y194">
+      <c r="Z194">
         <v>5438.4000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43004</v>
       </c>
@@ -15897,26 +15903,26 @@
       <c r="S195">
         <v>1196.4000000000001</v>
       </c>
-      <c r="T195">
+      <c r="U195">
         <v>1481.8000000000002</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>165.3</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>3148.2000000000003</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>4430.6000000000004</v>
       </c>
-      <c r="X195">
+      <c r="Y195">
         <v>354.8</v>
       </c>
-      <c r="Y195">
+      <c r="Z195">
         <v>5441.9000000000005</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43005</v>
       </c>
@@ -15974,26 +15980,26 @@
       <c r="S196">
         <v>1197.1000000000001</v>
       </c>
-      <c r="T196">
+      <c r="U196">
         <v>1481.8000000000002</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>166</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>3132.9</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>4445.8</v>
       </c>
-      <c r="X196">
+      <c r="Y196">
         <v>355.40000000000003</v>
       </c>
-      <c r="Y196">
+      <c r="Z196">
         <v>5392.6</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43006</v>
       </c>
@@ -16051,26 +16057,26 @@
       <c r="S197">
         <v>1189.1000000000001</v>
       </c>
-      <c r="T197">
+      <c r="U197">
         <v>1492.5</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>168.20000000000002</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>3120.6000000000004</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>4433.7</v>
       </c>
-      <c r="X197">
+      <c r="Y197">
         <v>363.3</v>
       </c>
-      <c r="Y197">
+      <c r="Z197">
         <v>5522</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43007</v>
       </c>
@@ -16128,26 +16134,26 @@
       <c r="S198">
         <v>1201.5</v>
       </c>
-      <c r="T198">
+      <c r="U198">
         <v>1490.2</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>170.70000000000002</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>3159.7000000000003</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>4479.8</v>
       </c>
-      <c r="X198">
+      <c r="Y198">
         <v>366.90000000000003</v>
       </c>
-      <c r="Y198">
+      <c r="Z198">
         <v>5591.4000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43010</v>
       </c>
@@ -16205,26 +16211,26 @@
       <c r="S199">
         <v>1208.1000000000001</v>
       </c>
-      <c r="T199">
+      <c r="U199">
         <v>1492.8000000000002</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>173.10000000000002</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>3156.7000000000003</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>4537.1000000000004</v>
       </c>
-      <c r="X199">
+      <c r="Y199">
         <v>363.70000000000005</v>
       </c>
-      <c r="Y199">
+      <c r="Z199">
         <v>5682.2000000000007</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43011</v>
       </c>
@@ -16282,26 +16288,26 @@
       <c r="S200">
         <v>1205.2</v>
       </c>
-      <c r="T200">
+      <c r="U200">
         <v>1512.1000000000001</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>173.3</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>3172.8</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>4508.5</v>
       </c>
-      <c r="X200">
+      <c r="Y200">
         <v>367.20000000000005</v>
       </c>
-      <c r="Y200">
+      <c r="Z200">
         <v>5685.1</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43012</v>
       </c>
@@ -16359,26 +16365,26 @@
       <c r="S201">
         <v>1207.9000000000001</v>
       </c>
-      <c r="T201">
+      <c r="U201">
         <v>1506</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>169.20000000000002</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>3158.2000000000003</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>4514.7</v>
       </c>
-      <c r="X201">
+      <c r="Y201">
         <v>363.6</v>
       </c>
-      <c r="Y201">
+      <c r="Z201">
         <v>5663.6</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43013</v>
       </c>
@@ -16436,26 +16442,26 @@
       <c r="S202">
         <v>1207.2</v>
       </c>
-      <c r="T202">
+      <c r="U202">
         <v>1515.3000000000002</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>166</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>3184.3</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>4546.9000000000005</v>
       </c>
-      <c r="X202">
+      <c r="Y202">
         <v>366.3</v>
       </c>
-      <c r="Y202">
+      <c r="Z202">
         <v>5690.8</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43014</v>
       </c>
@@ -16513,26 +16519,26 @@
       <c r="S203">
         <v>1198.7</v>
       </c>
-      <c r="T203">
+      <c r="U203">
         <v>1496.6000000000001</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>165.9</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>3160.5</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>4486.1000000000004</v>
       </c>
-      <c r="X203">
+      <c r="Y203">
         <v>361.5</v>
       </c>
-      <c r="Y203">
+      <c r="Z203">
         <v>5675.8</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43017</v>
       </c>
@@ -16590,26 +16596,26 @@
       <c r="S204">
         <v>1206.5</v>
       </c>
-      <c r="T204">
+      <c r="U204">
         <v>1501.6000000000001</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>167.60000000000002</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>3172</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>4483.4000000000005</v>
       </c>
-      <c r="X204">
+      <c r="Y204">
         <v>362.20000000000005</v>
       </c>
-      <c r="Y204">
+      <c r="Z204">
         <v>5708.7000000000007</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43018</v>
       </c>
@@ -16667,26 +16673,26 @@
       <c r="S205">
         <v>1245.8000000000002</v>
       </c>
-      <c r="T205">
+      <c r="U205">
         <v>1504.8000000000002</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>166</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>3180.5</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>4480.7</v>
       </c>
-      <c r="X205">
+      <c r="Y205">
         <v>365.6</v>
       </c>
-      <c r="Y205">
+      <c r="Z205">
         <v>5728</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43019</v>
       </c>
@@ -16744,26 +16750,26 @@
       <c r="S206">
         <v>1230.6000000000001</v>
       </c>
-      <c r="T206">
+      <c r="U206">
         <v>1505.4</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>164.9</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>3184.3</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>4511.1000000000004</v>
       </c>
-      <c r="X206">
+      <c r="Y206">
         <v>367</v>
       </c>
-      <c r="Y206">
+      <c r="Z206">
         <v>5718.7000000000007</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43020</v>
       </c>
@@ -16821,26 +16827,26 @@
       <c r="S207">
         <v>1225.1000000000001</v>
       </c>
-      <c r="T207">
+      <c r="U207">
         <v>1495.5</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>166.10000000000002</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>3202</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>4590.8</v>
       </c>
-      <c r="X207">
+      <c r="Y207">
         <v>367.8</v>
       </c>
-      <c r="Y207">
+      <c r="Z207">
         <v>5730.1</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43021</v>
       </c>
@@ -16898,26 +16904,26 @@
       <c r="S208">
         <v>1230.6000000000001</v>
       </c>
-      <c r="T208">
+      <c r="U208">
         <v>1504.2</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>166.10000000000002</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>3197.4</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>4632.9000000000005</v>
       </c>
-      <c r="X208">
+      <c r="Y208">
         <v>368.3</v>
       </c>
-      <c r="Y208">
+      <c r="Z208">
         <v>5761.6</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43024</v>
       </c>
@@ -16975,26 +16981,26 @@
       <c r="S209">
         <v>1226</v>
       </c>
-      <c r="T209">
+      <c r="U209">
         <v>1507.1000000000001</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>165.20000000000002</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>3207.3</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>4632.9000000000005</v>
       </c>
-      <c r="X209">
+      <c r="Y209">
         <v>365.40000000000003</v>
       </c>
-      <c r="Y209">
+      <c r="Z209">
         <v>5770.2000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43025</v>
       </c>
@@ -17052,26 +17058,26 @@
       <c r="S210">
         <v>1224.2</v>
       </c>
-      <c r="T210">
+      <c r="U210">
         <v>1501.3000000000002</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>166</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>3197.4</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>4642.7</v>
       </c>
-      <c r="X210">
+      <c r="Y210">
         <v>359</v>
       </c>
-      <c r="Y210">
+      <c r="Z210">
         <v>5788.1</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43026</v>
       </c>
@@ -17129,26 +17135,26 @@
       <c r="S211">
         <v>1242.8000000000002</v>
       </c>
-      <c r="T211">
+      <c r="U211">
         <v>1505.1000000000001</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>168.5</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>3205.8</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>4677.7</v>
       </c>
-      <c r="X211">
+      <c r="Y211">
         <v>358.70000000000005</v>
       </c>
-      <c r="Y211">
+      <c r="Z211">
         <v>5812.4000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43027</v>
       </c>
@@ -17206,26 +17212,26 @@
       <c r="S212">
         <v>1239.1000000000001</v>
       </c>
-      <c r="T212">
+      <c r="U212">
         <v>1503.6000000000001</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>160.5</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>3193.5</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>4404.6000000000004</v>
       </c>
-      <c r="X212">
+      <c r="Y212">
         <v>357.90000000000003</v>
       </c>
-      <c r="Y212">
+      <c r="Z212">
         <v>5814.5</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43028</v>
       </c>
@@ -17283,26 +17289,26 @@
       <c r="S213">
         <v>1251.5</v>
       </c>
-      <c r="T213">
+      <c r="U213">
         <v>1511.5</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>160</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>3177.4</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>4278.4000000000005</v>
       </c>
-      <c r="X213">
+      <c r="Y213">
         <v>362.3</v>
       </c>
-      <c r="Y213">
+      <c r="Z213">
         <v>5893.9000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43031</v>
       </c>
@@ -17360,26 +17366,26 @@
       <c r="S214">
         <v>1255.7</v>
       </c>
-      <c r="T214">
+      <c r="U214">
         <v>1516.4</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>159.80000000000001</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>3165.1000000000004</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>4261.4000000000005</v>
       </c>
-      <c r="X214">
+      <c r="Y214">
         <v>361.3</v>
       </c>
-      <c r="Y214">
+      <c r="Z214">
         <v>5868.9000000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43032</v>
       </c>
@@ -17437,26 +17443,26 @@
       <c r="S215">
         <v>1190.9000000000001</v>
       </c>
-      <c r="T215">
+      <c r="U215">
         <v>1524.6000000000001</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>157.80000000000001</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>3190.4</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>4241.7</v>
       </c>
-      <c r="X215">
+      <c r="Y215">
         <v>358.90000000000003</v>
       </c>
-      <c r="Y215">
+      <c r="Z215">
         <v>5838.1</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43033</v>
       </c>
@@ -17514,26 +17520,26 @@
       <c r="S216">
         <v>1182.2</v>
       </c>
-      <c r="T216">
+      <c r="U216">
         <v>1515.6000000000001</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>156.80000000000001</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>3154.4</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>4228.2</v>
       </c>
-      <c r="X216">
+      <c r="Y216">
         <v>357.70000000000005</v>
       </c>
-      <c r="Y216">
+      <c r="Z216">
         <v>5796.6</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43034</v>
       </c>
@@ -17591,26 +17597,26 @@
       <c r="S217">
         <v>1196.2</v>
       </c>
-      <c r="T217">
+      <c r="U217">
         <v>1518.2</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>160.70000000000002</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>3205.8</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>4373.3</v>
       </c>
-      <c r="X217">
+      <c r="Y217">
         <v>361.90000000000003</v>
       </c>
-      <c r="Y217">
+      <c r="Z217">
         <v>5905.3</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43035</v>
       </c>
@@ -17668,26 +17674,26 @@
       <c r="S218">
         <v>1204.2</v>
       </c>
-      <c r="T218">
+      <c r="U218">
         <v>1540.6000000000001</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>162.20000000000002</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>3269.5</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>4404.2</v>
       </c>
-      <c r="X218">
+      <c r="Y218">
         <v>362.70000000000005</v>
       </c>
-      <c r="Y218">
+      <c r="Z218">
         <v>5967.5</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43038</v>
       </c>
@@ -17745,26 +17751,26 @@
       <c r="S219">
         <v>1201</v>
       </c>
-      <c r="T219">
+      <c r="U219">
         <v>1555.8000000000002</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>162.5</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>3268</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>4381.3</v>
       </c>
-      <c r="X219">
+      <c r="Y219">
         <v>365.90000000000003</v>
       </c>
-      <c r="Y219">
+      <c r="Z219">
         <v>5982.6</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43039</v>
       </c>
@@ -17822,26 +17828,26 @@
       <c r="S220">
         <v>1212.5</v>
       </c>
-      <c r="T220">
+      <c r="U220">
         <v>1571.5</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>162.60000000000002</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>3299.5</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>4467.7</v>
       </c>
-      <c r="X220">
+      <c r="Y220">
         <v>367.5</v>
       </c>
-      <c r="Y220">
+      <c r="Z220">
         <v>6018.3</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43040</v>
       </c>
@@ -17899,26 +17905,26 @@
       <c r="S221">
         <v>1211.1000000000001</v>
       </c>
-      <c r="T221">
+      <c r="U221">
         <v>1573.6000000000001</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>164.10000000000002</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>3253.4</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>4439.1000000000004</v>
       </c>
-      <c r="X221">
+      <c r="Y221">
         <v>361.70000000000005</v>
       </c>
-      <c r="Y221">
+      <c r="Z221">
         <v>5971.1</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43041</v>
       </c>
@@ -17976,26 +17982,26 @@
       <c r="S222">
         <v>1208.6000000000001</v>
       </c>
-      <c r="T222">
+      <c r="U222">
         <v>1592.2</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>163.80000000000001</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>3281.8</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>4379.5</v>
       </c>
-      <c r="X222">
+      <c r="Y222">
         <v>360</v>
       </c>
-      <c r="Y222">
+      <c r="Z222">
         <v>5959.7000000000007</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43042</v>
       </c>
@@ -18053,26 +18059,26 @@
       <c r="S223">
         <v>1205.6000000000001</v>
       </c>
-      <c r="T223">
+      <c r="U223">
         <v>1603.6000000000001</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>165.70000000000002</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>3317.9</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>4424.3</v>
       </c>
-      <c r="X223">
+      <c r="Y223">
         <v>363.1</v>
       </c>
-      <c r="Y223">
+      <c r="Z223">
         <v>6082</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43045</v>
       </c>
@@ -18130,26 +18136,26 @@
       <c r="S224">
         <v>1196.4000000000001</v>
       </c>
-      <c r="T224">
+      <c r="U224">
         <v>1626.9</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>165.3</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>3335.6000000000004</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>4412.2</v>
       </c>
-      <c r="X224">
+      <c r="Y224">
         <v>341.1</v>
       </c>
-      <c r="Y224">
+      <c r="Z224">
         <v>6078.4000000000005</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43046</v>
       </c>
@@ -18207,26 +18213,26 @@
       <c r="S225">
         <v>1190.5</v>
       </c>
-      <c r="T225">
+      <c r="U225">
         <v>1625.7</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>163.9</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>3340.2000000000003</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>4384</v>
       </c>
-      <c r="X225">
+      <c r="Y225">
         <v>350.20000000000005</v>
       </c>
-      <c r="Y225">
+      <c r="Z225">
         <v>6061.9000000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43047</v>
       </c>
@@ -18284,26 +18290,26 @@
       <c r="S226">
         <v>1177.8</v>
       </c>
-      <c r="T226">
+      <c r="U226">
         <v>1624.8000000000002</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>164.3</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>3393.2000000000003</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>4422.5</v>
       </c>
-      <c r="X226">
+      <c r="Y226">
         <v>356.5</v>
       </c>
-      <c r="Y226">
+      <c r="Z226">
         <v>6090.5</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43048</v>
       </c>
@@ -18361,26 +18367,26 @@
       <c r="S227">
         <v>1164.8</v>
       </c>
-      <c r="T227">
+      <c r="U227">
         <v>1616.4</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>161.30000000000001</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>3377.8</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>4400.6000000000004</v>
       </c>
-      <c r="X227">
+      <c r="Y227">
         <v>356.1</v>
       </c>
-      <c r="Y227">
+      <c r="Z227">
         <v>6070.5</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43049</v>
       </c>
@@ -18438,26 +18444,26 @@
       <c r="S228">
         <v>1157.4000000000001</v>
       </c>
-      <c r="T228">
+      <c r="U228">
         <v>1598.9</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>161.5</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>3360.9</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>4369.7</v>
       </c>
-      <c r="X228">
+      <c r="Y228">
         <v>357</v>
       </c>
-      <c r="Y228">
+      <c r="Z228">
         <v>6074.8</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43052</v>
       </c>
@@ -18515,26 +18521,26 @@
       <c r="S229">
         <v>1148.5</v>
       </c>
-      <c r="T229">
+      <c r="U229">
         <v>1598.3000000000002</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>159.70000000000002</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>3346.3</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>4371.5</v>
       </c>
-      <c r="X229">
+      <c r="Y229">
         <v>346</v>
       </c>
-      <c r="Y229">
+      <c r="Z229">
         <v>6044.8</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43053</v>
       </c>
@@ -18592,26 +18598,26 @@
       <c r="S230">
         <v>1151.4000000000001</v>
       </c>
-      <c r="T230">
+      <c r="U230">
         <v>1583.5</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>160.60000000000002</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>3333.3</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>4334.3</v>
       </c>
-      <c r="X230">
+      <c r="Y230">
         <v>350.6</v>
       </c>
-      <c r="Y230">
+      <c r="Z230">
         <v>6064.8</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43054</v>
       </c>
@@ -18669,26 +18675,26 @@
       <c r="S231">
         <v>1145</v>
       </c>
-      <c r="T231">
+      <c r="U231">
         <v>1562.8000000000002</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>159.30000000000001</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>3332.5</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>4300.3</v>
       </c>
-      <c r="X231">
+      <c r="Y231">
         <v>346.6</v>
       </c>
-      <c r="Y231">
+      <c r="Z231">
         <v>6021.2000000000007</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43055</v>
       </c>
@@ -18746,26 +18752,26 @@
       <c r="S232">
         <v>1146.2</v>
       </c>
-      <c r="T232">
+      <c r="U232">
         <v>1525.8000000000002</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>159.9</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>3354</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>4325.8</v>
       </c>
-      <c r="X232">
+      <c r="Y232">
         <v>352.5</v>
       </c>
-      <c r="Y232">
+      <c r="Z232">
         <v>6091.3</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43056</v>
       </c>
@@ -18823,26 +18829,26 @@
       <c r="S233">
         <v>1139.6000000000001</v>
       </c>
-      <c r="T233">
+      <c r="U233">
         <v>1529</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>160.70000000000002</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>3350.9</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>4260</v>
       </c>
-      <c r="X233">
+      <c r="Y233">
         <v>343.6</v>
       </c>
-      <c r="Y233">
+      <c r="Z233">
         <v>6037.6</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43059</v>
       </c>
@@ -18900,26 +18906,26 @@
       <c r="S234">
         <v>1155.6000000000001</v>
       </c>
-      <c r="T234">
+      <c r="U234">
         <v>1535.1000000000001</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>160.70000000000002</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>3334.8</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>4322.7</v>
       </c>
-      <c r="X234">
+      <c r="Y234">
         <v>339.90000000000003</v>
       </c>
-      <c r="Y234">
+      <c r="Z234">
         <v>6146.3</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43060</v>
       </c>
@@ -18977,26 +18983,26 @@
       <c r="S235">
         <v>1156.5</v>
       </c>
-      <c r="T235">
+      <c r="U235">
         <v>1533.3000000000002</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>161.4</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>3324</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>4360.7</v>
       </c>
-      <c r="X235">
+      <c r="Y235">
         <v>343.3</v>
       </c>
-      <c r="Y235">
+      <c r="Z235">
         <v>6198.5</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43061</v>
       </c>
@@ -19054,26 +19060,26 @@
       <c r="S236">
         <v>1149.6000000000001</v>
       </c>
-      <c r="T236">
+      <c r="U236">
         <v>1533.3000000000002</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>162.60000000000002</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>3319.4</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>4308.8</v>
       </c>
-      <c r="X236">
+      <c r="Y236">
         <v>345</v>
       </c>
-      <c r="Y236">
+      <c r="Z236">
         <v>6159.9000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43062</v>
       </c>
@@ -19131,26 +19137,26 @@
       <c r="S237">
         <v>1152.6000000000001</v>
       </c>
-      <c r="T237">
+      <c r="U237">
         <v>1533.6000000000001</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>163.9</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>3357.1000000000004</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>4327.2</v>
       </c>
-      <c r="X237">
+      <c r="Y237">
         <v>344.70000000000005</v>
       </c>
-      <c r="Y237">
+      <c r="Z237">
         <v>6173.5</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43063</v>
       </c>
@@ -19208,26 +19214,26 @@
       <c r="S238">
         <v>1150.8</v>
       </c>
-      <c r="T238">
+      <c r="U238">
         <v>1526.9</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>162.60000000000002</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>3352.5</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>4338.8</v>
       </c>
-      <c r="X238">
+      <c r="Y238">
         <v>338.6</v>
       </c>
-      <c r="Y238">
+      <c r="Z238">
         <v>6129.1</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43066</v>
       </c>
@@ -19285,26 +19291,26 @@
       <c r="S239">
         <v>1161.5</v>
       </c>
-      <c r="T239">
+      <c r="U239">
         <v>1514.1000000000001</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>161.60000000000002</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>3354.8</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>4330.8</v>
       </c>
-      <c r="X239">
+      <c r="Y239">
         <v>334.5</v>
       </c>
-      <c r="Y239">
+      <c r="Z239">
         <v>6149.9000000000005</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43067</v>
       </c>
@@ -19362,26 +19368,26 @@
       <c r="S240">
         <v>1177.6000000000001</v>
       </c>
-      <c r="T240">
+      <c r="U240">
         <v>1565.4</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>164.9</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>3370.9</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>4403.3</v>
       </c>
-      <c r="X240">
+      <c r="Y240">
         <v>343</v>
       </c>
-      <c r="Y240">
+      <c r="Z240">
         <v>6227.1</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43068</v>
       </c>
@@ -19439,26 +19445,26 @@
       <c r="S241">
         <v>1176.2</v>
       </c>
-      <c r="T241">
+      <c r="U241">
         <v>1566.3000000000002</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>156</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>3338.6000000000004</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>4374.2</v>
       </c>
-      <c r="X241">
+      <c r="Y241">
         <v>346.90000000000003</v>
       </c>
-      <c r="Y241">
+      <c r="Z241">
         <v>6205.7000000000007</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43069</v>
       </c>
@@ -19516,26 +19522,26 @@
       <c r="S242">
         <v>1187.7</v>
       </c>
-      <c r="T242">
+      <c r="U242">
         <v>1562.5</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>159.10000000000002</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>3301</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>4331.6000000000004</v>
       </c>
-      <c r="X242">
+      <c r="Y242">
         <v>351</v>
       </c>
-      <c r="Y242">
+      <c r="Z242">
         <v>6225</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43070</v>
       </c>
@@ -19593,26 +19599,26 @@
       <c r="S243">
         <v>1164.3</v>
       </c>
-      <c r="T243">
+      <c r="U243">
         <v>1565.1000000000001</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>158.30000000000001</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>3294.9</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>4276.6000000000004</v>
       </c>
-      <c r="X243">
+      <c r="Y243">
         <v>352.6</v>
       </c>
-      <c r="Y243">
+      <c r="Z243">
         <v>6187.8</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43073</v>
       </c>
@@ -19670,26 +19676,26 @@
       <c r="S244">
         <v>1176.5</v>
       </c>
-      <c r="T244">
+      <c r="U244">
         <v>1578.8000000000002</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>156.5</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>3345.5</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>4329</v>
       </c>
-      <c r="X244">
+      <c r="Y244">
         <v>362.70000000000005</v>
       </c>
-      <c r="Y244">
+      <c r="Z244">
         <v>6240</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43074</v>
       </c>
@@ -19747,26 +19753,26 @@
       <c r="S245">
         <v>1168.2</v>
       </c>
-      <c r="T245">
+      <c r="U245">
         <v>1577.6000000000001</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>153.30000000000001</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>3387</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>4348.7</v>
       </c>
-      <c r="X245">
+      <c r="Y245">
         <v>362</v>
       </c>
-      <c r="Y245">
+      <c r="Z245">
         <v>6232.8</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43075</v>
       </c>
@@ -19824,26 +19830,26 @@
       <c r="S246">
         <v>1171.4000000000001</v>
       </c>
-      <c r="T246">
+      <c r="U246">
         <v>1570.1000000000001</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>149.80000000000001</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>3436.9</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>4371.9000000000005</v>
       </c>
-      <c r="X246">
+      <c r="Y246">
         <v>358.40000000000003</v>
       </c>
-      <c r="Y246">
+      <c r="Z246">
         <v>6221.4000000000005</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43076</v>
       </c>
@@ -19901,26 +19907,26 @@
       <c r="S247">
         <v>1182.2</v>
       </c>
-      <c r="T247">
+      <c r="U247">
         <v>1558.7</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>151.1</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>3450.7000000000003</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>4375.5</v>
       </c>
-      <c r="X247">
+      <c r="Y247">
         <v>360.70000000000005</v>
       </c>
-      <c r="Y247">
+      <c r="Z247">
         <v>6263.6</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43077</v>
       </c>
@@ -19978,26 +19984,26 @@
       <c r="S248">
         <v>1192.3</v>
       </c>
-      <c r="T248">
+      <c r="U248">
         <v>1569.2</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>151.80000000000001</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>3447.7000000000003</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>4370.1000000000004</v>
       </c>
-      <c r="X248">
+      <c r="Y248">
         <v>354.70000000000005</v>
       </c>
-      <c r="Y248">
+      <c r="Z248">
         <v>6255.7000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43080</v>
       </c>
@@ -20055,26 +20061,26 @@
       <c r="S249">
         <v>1188.6000000000001</v>
       </c>
-      <c r="T249">
+      <c r="U249">
         <v>1579.7</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>151.4</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>3441.5</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>4355.4000000000005</v>
       </c>
-      <c r="X249">
+      <c r="Y249">
         <v>358.5</v>
       </c>
-      <c r="Y249">
+      <c r="Z249">
         <v>6266.5</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43081</v>
       </c>
@@ -20132,26 +20138,26 @@
       <c r="S250">
         <v>1194.6000000000001</v>
       </c>
-      <c r="T250">
+      <c r="U250">
         <v>1610.3000000000002</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>153.30000000000001</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>3301.8</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>4383.6000000000004</v>
       </c>
-      <c r="X250">
+      <c r="Y250">
         <v>359.20000000000005</v>
       </c>
-      <c r="Y250">
+      <c r="Z250">
         <v>6265</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43082</v>
       </c>
@@ -20209,26 +20215,26 @@
       <c r="S251">
         <v>1196.9000000000001</v>
       </c>
-      <c r="T251">
+      <c r="U251">
         <v>1598.6000000000001</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>150</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>3293.3</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>4354.9000000000005</v>
       </c>
-      <c r="X251">
+      <c r="Y251">
         <v>358.70000000000005</v>
       </c>
-      <c r="Y251">
+      <c r="Z251">
         <v>6312.2000000000007</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43083</v>
       </c>
@@ -20286,26 +20292,26 @@
       <c r="S252">
         <v>1191.2</v>
       </c>
-      <c r="T252">
+      <c r="U252">
         <v>1596.9</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>145.6</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>3241.9</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>4313.7</v>
       </c>
-      <c r="X252">
+      <c r="Y252">
         <v>363.3</v>
       </c>
-      <c r="Y252">
+      <c r="Z252">
         <v>6272.9000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43084</v>
       </c>
@@ -20363,26 +20369,26 @@
       <c r="S253">
         <v>1177.1000000000001</v>
       </c>
-      <c r="T253">
+      <c r="U253">
         <v>1612.9</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>145.1</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>3256.5</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>4344.2</v>
       </c>
-      <c r="X253">
+      <c r="Y253">
         <v>360.1</v>
       </c>
-      <c r="Y253">
+      <c r="Z253">
         <v>6344.4000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43087</v>
       </c>
@@ -20440,26 +20446,26 @@
       <c r="S254">
         <v>1187.2</v>
       </c>
-      <c r="T254">
+      <c r="U254">
         <v>1607.9</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>146.20000000000002</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>3307.2000000000003</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>4367</v>
       </c>
-      <c r="X254">
+      <c r="Y254">
         <v>360.90000000000003</v>
       </c>
-      <c r="Y254">
+      <c r="Z254">
         <v>6341.5</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43088</v>
       </c>
@@ -20517,26 +20523,26 @@
       <c r="S255">
         <v>1188.4000000000001</v>
       </c>
-      <c r="T255">
+      <c r="U255">
         <v>1596.3000000000002</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>147.9</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>3339.4</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>4324</v>
       </c>
-      <c r="X255">
+      <c r="Y255">
         <v>359.20000000000005</v>
       </c>
-      <c r="Y255">
+      <c r="Z255">
         <v>6300.1</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43089</v>
       </c>
@@ -20594,26 +20600,26 @@
       <c r="S256">
         <v>1184</v>
       </c>
-      <c r="T256">
+      <c r="U256">
         <v>1591.9</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>148</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>3289.5</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>4259.1000000000004</v>
       </c>
-      <c r="X256">
+      <c r="Y256">
         <v>358.40000000000003</v>
       </c>
-      <c r="Y256">
+      <c r="Z256">
         <v>6265</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43090</v>
       </c>
@@ -20671,26 +20677,26 @@
       <c r="S257">
         <v>1185.2</v>
       </c>
-      <c r="T257">
+      <c r="U257">
         <v>1618.1000000000001</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>151.30000000000001</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>3295.6000000000004</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>4257.8</v>
       </c>
-      <c r="X257">
+      <c r="Y257">
         <v>362.6</v>
       </c>
-      <c r="Y257">
+      <c r="Z257">
         <v>6273.6</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43091</v>
       </c>
@@ -20748,26 +20754,26 @@
       <c r="S258">
         <v>1181.3</v>
       </c>
-      <c r="T258">
+      <c r="U258">
         <v>1621.1000000000001</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>152.20000000000002</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>3235</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>4250.6000000000004</v>
       </c>
-      <c r="X258">
+      <c r="Y258">
         <v>363.1</v>
       </c>
-      <c r="Y258">
+      <c r="Z258">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43094</v>
       </c>
@@ -20825,26 +20831,26 @@
       <c r="S259">
         <v>1181.3</v>
       </c>
-      <c r="T259">
+      <c r="U259">
         <v>1621.1000000000001</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>152.20000000000002</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>3235</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>4250.6000000000004</v>
       </c>
-      <c r="X259">
+      <c r="Y259">
         <v>363.1</v>
       </c>
-      <c r="Y259">
+      <c r="Z259">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43095</v>
       </c>
@@ -20902,26 +20908,26 @@
       <c r="S260">
         <v>1181.3</v>
       </c>
-      <c r="T260">
+      <c r="U260">
         <v>1621.1000000000001</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>152.20000000000002</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>3235</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>4250.6000000000004</v>
       </c>
-      <c r="X260">
+      <c r="Y260">
         <v>363.1</v>
       </c>
-      <c r="Y260">
+      <c r="Z260">
         <v>6324.4000000000005</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43096</v>
       </c>
@@ -20979,26 +20985,26 @@
       <c r="S261">
         <v>1179.4000000000001</v>
       </c>
-      <c r="T261">
+      <c r="U261">
         <v>1623.1000000000001</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>152.70000000000002</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>3245</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>4250.6000000000004</v>
       </c>
-      <c r="X261">
+      <c r="Y261">
         <v>363.70000000000005</v>
       </c>
-      <c r="Y261">
+      <c r="Z261">
         <v>6294.3</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43097</v>
       </c>
@@ -21056,26 +21062,26 @@
       <c r="S262">
         <v>1180.1000000000001</v>
       </c>
-      <c r="T262">
+      <c r="U262">
         <v>1618.7</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>153.30000000000001</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>3251.9</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>4229.1000000000004</v>
       </c>
-      <c r="X262">
+      <c r="Y262">
         <v>364.1</v>
       </c>
-      <c r="Y262">
+      <c r="Z262">
         <v>6266.5</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43098</v>
       </c>
@@ -21133,22 +21139,22 @@
       <c r="S263">
         <v>1176.2</v>
       </c>
-      <c r="T263">
+      <c r="U263">
         <v>1619.3000000000002</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>153</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>3225</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>4203.6000000000004</v>
       </c>
-      <c r="X263">
+      <c r="Y263">
         <v>361.6</v>
       </c>
-      <c r="Y263">
+      <c r="Z263">
         <v>6218.5</v>
       </c>
     </row>
@@ -23283,7 +23289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/event_study_data.xlsx
+++ b/data/event_study_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_ws_quarterfall/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF3712-096E-E04B-ABA3-DB682A8E27EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B103578-6B64-CC45-A9B6-EA557631431A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264:XFD264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20852,310 +20852,310 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43095</v>
+        <v>43098</v>
       </c>
       <c r="B260">
-        <v>6742.5</v>
+        <v>6728.2000000000007</v>
       </c>
       <c r="C260">
         <v>151.5</v>
       </c>
       <c r="D260">
-        <v>977.90000000000009</v>
+        <v>981.80000000000007</v>
       </c>
       <c r="E260">
-        <v>1586.7</v>
+        <v>1598.5</v>
       </c>
       <c r="F260">
-        <v>1000.6</v>
+        <v>996.90000000000009</v>
       </c>
       <c r="G260">
-        <v>124.5</v>
+        <v>127.10000000000001</v>
       </c>
       <c r="H260">
-        <v>44</v>
+        <v>43.400000000000006</v>
       </c>
       <c r="I260">
-        <v>9664.4</v>
+        <v>9542.8000000000011</v>
       </c>
       <c r="J260">
-        <v>176.10000000000002</v>
+        <v>175.9</v>
       </c>
       <c r="K260">
-        <v>914.80000000000007</v>
+        <v>908.1</v>
       </c>
       <c r="L260">
-        <v>1078</v>
+        <v>1084.9000000000001</v>
       </c>
       <c r="M260">
-        <v>333.3</v>
+        <v>334.5</v>
       </c>
       <c r="N260">
-        <v>4232.1000000000004</v>
+        <v>4194.9000000000005</v>
       </c>
       <c r="O260">
-        <v>477.1</v>
+        <v>470.40000000000003</v>
       </c>
       <c r="P260">
-        <v>73.900000000000006</v>
+        <v>73.8</v>
       </c>
       <c r="Q260">
-        <v>173.60000000000002</v>
+        <v>172</v>
       </c>
       <c r="R260">
-        <v>900</v>
+        <v>888.40000000000009</v>
       </c>
       <c r="S260">
-        <v>1181.3</v>
+        <v>1176.2</v>
       </c>
       <c r="U260">
-        <v>1621.1000000000001</v>
+        <v>1619.3000000000002</v>
       </c>
       <c r="V260">
-        <v>152.20000000000002</v>
+        <v>153</v>
       </c>
       <c r="W260">
-        <v>3235</v>
+        <v>3225</v>
       </c>
       <c r="X260">
-        <v>4250.6000000000004</v>
+        <v>4203.6000000000004</v>
       </c>
       <c r="Y260">
-        <v>363.1</v>
+        <v>361.6</v>
       </c>
       <c r="Z260">
-        <v>6324.4000000000005</v>
+        <v>6218.5</v>
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43096</v>
+        <v>43095</v>
       </c>
       <c r="B261">
-        <v>6748.8</v>
+        <v>6742.5</v>
       </c>
       <c r="C261">
-        <v>152.1</v>
+        <v>151.5</v>
       </c>
       <c r="D261">
-        <v>974</v>
+        <v>977.90000000000009</v>
       </c>
       <c r="E261">
-        <v>1598.5</v>
+        <v>1586.7</v>
       </c>
       <c r="F261">
-        <v>1004.7</v>
+        <v>1000.6</v>
       </c>
       <c r="G261">
-        <v>126.2</v>
+        <v>124.5</v>
       </c>
       <c r="H261">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="I261">
-        <v>9631.6</v>
+        <v>9664.4</v>
       </c>
       <c r="J261">
-        <v>175.60000000000002</v>
+        <v>176.10000000000002</v>
       </c>
       <c r="K261">
-        <v>920.5</v>
+        <v>914.80000000000007</v>
       </c>
       <c r="L261">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="M261">
-        <v>333.8</v>
+        <v>333.3</v>
       </c>
       <c r="N261">
-        <v>4239.8</v>
+        <v>4232.1000000000004</v>
       </c>
       <c r="O261">
-        <v>475.3</v>
+        <v>477.1</v>
       </c>
       <c r="P261">
         <v>73.900000000000006</v>
       </c>
       <c r="Q261">
-        <v>173</v>
+        <v>173.60000000000002</v>
       </c>
       <c r="R261">
-        <v>898.6</v>
+        <v>900</v>
       </c>
       <c r="S261">
-        <v>1179.4000000000001</v>
+        <v>1181.3</v>
       </c>
       <c r="U261">
-        <v>1623.1000000000001</v>
+        <v>1621.1000000000001</v>
       </c>
       <c r="V261">
-        <v>152.70000000000002</v>
+        <v>152.20000000000002</v>
       </c>
       <c r="W261">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="X261">
         <v>4250.6000000000004</v>
       </c>
       <c r="Y261">
-        <v>363.70000000000005</v>
+        <v>363.1</v>
       </c>
       <c r="Z261">
-        <v>6294.3</v>
+        <v>6324.4000000000005</v>
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43097</v>
+        <v>43096</v>
       </c>
       <c r="B262">
         <v>6748.8</v>
       </c>
       <c r="C262">
-        <v>151.80000000000001</v>
+        <v>152.1</v>
       </c>
       <c r="D262">
-        <v>982.7</v>
+        <v>974</v>
       </c>
       <c r="E262">
-        <v>1600.7</v>
+        <v>1598.5</v>
       </c>
       <c r="F262">
-        <v>1005.5</v>
+        <v>1004.7</v>
       </c>
       <c r="G262">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="H262">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="I262">
-        <v>9569.1</v>
+        <v>9631.6</v>
       </c>
       <c r="J262">
-        <v>176.20000000000002</v>
+        <v>175.60000000000002</v>
       </c>
       <c r="K262">
-        <v>924.5</v>
+        <v>920.5</v>
       </c>
       <c r="L262">
-        <v>1088.3</v>
+        <v>1088</v>
       </c>
       <c r="M262">
         <v>333.8</v>
       </c>
       <c r="N262">
-        <v>4210.9000000000005</v>
+        <v>4239.8</v>
       </c>
       <c r="O262">
-        <v>473.90000000000003</v>
+        <v>475.3</v>
       </c>
       <c r="P262">
-        <v>74</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="Q262">
         <v>173</v>
       </c>
       <c r="R262">
-        <v>896</v>
+        <v>898.6</v>
       </c>
       <c r="S262">
-        <v>1180.1000000000001</v>
+        <v>1179.4000000000001</v>
       </c>
       <c r="U262">
-        <v>1618.7</v>
+        <v>1623.1000000000001</v>
       </c>
       <c r="V262">
-        <v>153.30000000000001</v>
+        <v>152.70000000000002</v>
       </c>
       <c r="W262">
-        <v>3251.9</v>
+        <v>3245</v>
       </c>
       <c r="X262">
-        <v>4229.1000000000004</v>
+        <v>4250.6000000000004</v>
       </c>
       <c r="Y262">
-        <v>364.1</v>
+        <v>363.70000000000005</v>
       </c>
       <c r="Z262">
-        <v>6266.5</v>
+        <v>6294.3</v>
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43098</v>
+        <v>43097</v>
       </c>
       <c r="B263">
-        <v>6728.2000000000007</v>
+        <v>6748.8</v>
       </c>
       <c r="C263">
-        <v>151.5</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="D263">
-        <v>981.80000000000007</v>
+        <v>982.7</v>
       </c>
       <c r="E263">
-        <v>1598.5</v>
+        <v>1600.7</v>
       </c>
       <c r="F263">
-        <v>996.90000000000009</v>
+        <v>1005.5</v>
       </c>
       <c r="G263">
-        <v>127.10000000000001</v>
+        <v>126</v>
       </c>
       <c r="H263">
-        <v>43.400000000000006</v>
+        <v>43.6</v>
       </c>
       <c r="I263">
-        <v>9542.8000000000011</v>
+        <v>9569.1</v>
       </c>
       <c r="J263">
-        <v>175.9</v>
+        <v>176.20000000000002</v>
       </c>
       <c r="K263">
-        <v>908.1</v>
+        <v>924.5</v>
       </c>
       <c r="L263">
-        <v>1084.9000000000001</v>
+        <v>1088.3</v>
       </c>
       <c r="M263">
-        <v>334.5</v>
+        <v>333.8</v>
       </c>
       <c r="N263">
-        <v>4194.9000000000005</v>
+        <v>4210.9000000000005</v>
       </c>
       <c r="O263">
-        <v>470.40000000000003</v>
+        <v>473.90000000000003</v>
       </c>
       <c r="P263">
-        <v>73.8</v>
+        <v>74</v>
       </c>
       <c r="Q263">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R263">
-        <v>888.40000000000009</v>
+        <v>896</v>
       </c>
       <c r="S263">
-        <v>1176.2</v>
+        <v>1180.1000000000001</v>
       </c>
       <c r="U263">
-        <v>1619.3000000000002</v>
+        <v>1618.7</v>
       </c>
       <c r="V263">
-        <v>153</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="W263">
-        <v>3225</v>
+        <v>3251.9</v>
       </c>
       <c r="X263">
-        <v>4203.6000000000004</v>
+        <v>4229.1000000000004</v>
       </c>
       <c r="Y263">
-        <v>361.6</v>
+        <v>364.1</v>
       </c>
       <c r="Z263">
-        <v>6218.5</v>
+        <v>6266.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/event_study_data.xlsx
+++ b/data/event_study_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_ws_quarterfall/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B103578-6B64-CC45-A9B6-EA557631431A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74102CE-9ECB-4044-B144-EE0459EFF1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firms" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+    <sheetView topLeftCell="A255" workbookViewId="0">
       <selection activeCell="A264" sqref="A264:XFD264"/>
     </sheetView>
   </sheetViews>
@@ -21167,8 +21167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264:XFD264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23210,39 +23210,39 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>43088</v>
+        <v>43098</v>
       </c>
       <c r="B255">
-        <v>552.03</v>
+        <v>544.58000000000004</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="B256">
-        <v>547.38</v>
+        <v>552.03</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>43090</v>
+        <v>43089</v>
       </c>
       <c r="B257">
-        <v>549.39</v>
+        <v>547.38</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43091</v>
+        <v>43090</v>
       </c>
       <c r="B258">
-        <v>548.48</v>
+        <v>549.39</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>43094</v>
+        <v>43091</v>
       </c>
       <c r="B259">
         <v>548.48</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43095</v>
+        <v>43094</v>
       </c>
       <c r="B260">
         <v>548.48</v>
@@ -23258,26 +23258,26 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>43096</v>
+        <v>43095</v>
       </c>
       <c r="B261">
-        <v>548.6</v>
+        <v>548.48</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43097</v>
+        <v>43096</v>
       </c>
       <c r="B262">
-        <v>547.06000000000006</v>
+        <v>548.6</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>43098</v>
+        <v>43097</v>
       </c>
       <c r="B263">
-        <v>544.58000000000004</v>
+        <v>547.06000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/event_study_data.xlsx
+++ b/data/event_study_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casperkaandorp/Work/python_ws_quarterfall/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74102CE-9ECB-4044-B144-EE0459EFF1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73D71B9-73A7-C646-9DCF-3B220F272D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34660" yWindow="2820" windowWidth="31040" windowHeight="15960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firms" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Events" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Events!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Events!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -21167,7 +21167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A264" sqref="A264:XFD264"/>
     </sheetView>
   </sheetViews>
@@ -23287,18 +23287,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -23306,7 +23307,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -23314,78 +23315,39 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>42887</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>42878</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>42843</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>42852</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -23393,7 +23355,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -23401,7 +23363,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -23409,7 +23371,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -23417,7 +23379,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -23425,7 +23387,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23433,7 +23395,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -23441,7 +23403,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -23449,7 +23411,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -23457,7 +23419,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -23504,116 +23466,6 @@
       <c r="B21" s="1">
         <v>42849</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="51" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="P51" s="1"/>
-    </row>
-    <row r="59" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M59" s="1"/>
-    </row>
-    <row r="61" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O61" s="1"/>
-    </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="1"/>
-    </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H78" s="1"/>
-    </row>
-    <row r="81" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="Q81" s="1"/>
-    </row>
-    <row r="86" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F86" s="1"/>
-    </row>
-    <row r="95" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="R95" s="1"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="G97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="H99" s="1"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E101" s="1"/>
-    </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C103" s="1"/>
-    </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P111" s="1"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J116" s="1"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I124" s="1"/>
-      <c r="M124" s="1"/>
-    </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O132" s="1"/>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H151" s="1"/>
-    </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F157" s="1"/>
-    </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="G159" s="1"/>
-    </row>
-    <row r="167" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C167" s="1"/>
-    </row>
-    <row r="176" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P176" s="1"/>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I179" s="1"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M184" s="1"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R185" s="1"/>
-    </row>
-    <row r="246" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="P246" s="1"/>
-    </row>
-    <row r="251" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M251" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
